--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -100,13 +100,13 @@
     <t>英雄1000，建筑和士兵加Buff</t>
   </si>
   <si>
-    <t>大水井生产水</t>
-  </si>
-  <si>
-    <t>动态属性改变</t>
-  </si>
-  <si>
-    <t>小水井生产水</t>
+    <t>大水井恢复血量</t>
+  </si>
+  <si>
+    <t>实时属性改变</t>
+  </si>
+  <si>
+    <t>小水井恢复蓝量</t>
   </si>
   <si>
     <t>移速加成50%</t>
@@ -169,7 +169,7 @@
     <t>使用血瓶</t>
   </si>
   <si>
-    <t>使用水瓶</t>
+    <t>使用蓝瓶</t>
   </si>
   <si>
     <t>随机生成水滴Buff</t>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1448,17 +1448,13 @@
         <v>29</v>
       </c>
       <c r="J8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
         <v>10000</v>
       </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
@@ -1483,14 +1479,10 @@
         <v>2</v>
       </c>
       <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>10000</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
@@ -1962,9 +1954,6 @@
         <v>1</v>
       </c>
       <c r="K26" s="5">
-        <v>3</v>
-      </c>
-      <c r="L26" s="5">
         <v>5000</v>
       </c>
       <c r="M26" s="5"/>
@@ -1992,9 +1981,6 @@
         <v>2</v>
       </c>
       <c r="K27" s="5">
-        <v>3</v>
-      </c>
-      <c r="L27" s="5">
         <v>5000</v>
       </c>
       <c r="M27" s="5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -82,7 +82,7 @@
     <t>英雄1000普攻</t>
   </si>
   <si>
-    <t>普通攻击</t>
+    <t>伤害</t>
   </si>
   <si>
     <t>英雄1000，植物加Buff</t>
@@ -139,10 +139,10 @@
     <t>野怪营地召唤</t>
   </si>
   <si>
-    <t>普通攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>普通攻击植物-死亡自爆</t>
+    <t>伤害植物-普攻</t>
+  </si>
+  <si>
+    <t>伤害植物-死亡自爆</t>
   </si>
   <si>
     <t>高级攻击植物-普攻</t>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -37,7 +37,7 @@
     <t>action_type</t>
   </si>
   <si>
-    <t>*action_param</t>
+    <t>action_param</t>
   </si>
   <si>
     <t>##type</t>
@@ -85,19 +85,25 @@
     <t>伤害</t>
   </si>
   <si>
-    <t>英雄1000，植物加Buff</t>
+    <t>英雄1000，添加攻速BUFF</t>
   </si>
   <si>
     <t>添加Buff</t>
   </si>
   <si>
-    <t>英雄1000，攻速加成50%</t>
+    <t>攻速加成50%</t>
   </si>
   <si>
     <t>属性改变</t>
   </si>
   <si>
-    <t>英雄1000，建筑和士兵加Buff</t>
+    <t>英雄1000，3目标子弹伤害</t>
+  </si>
+  <si>
+    <t>添加子弹</t>
+  </si>
+  <si>
+    <t>3目标子弹效果</t>
   </si>
   <si>
     <t>大水井恢复血量</t>
@@ -113,9 +119,6 @@
   </si>
   <si>
     <t>防御塔子弹</t>
-  </si>
-  <si>
-    <t>添加子弹</t>
   </si>
   <si>
     <t>防御塔子弹效果</t>
@@ -1172,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1400,6 +1403,7 @@
       <c r="K6" s="5">
         <v>5000</v>
       </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1419,7 +1423,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J7" s="5">
         <v>10000201</v>
@@ -1432,27 +1436,23 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="2:15">
       <c r="B8" s="5">
-        <v>300000010</v>
+        <v>100002011</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5">
-        <v>30000001</v>
+        <v>100002011</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>10000</v>
-      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1460,26 +1460,26 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="2:15">
       <c r="B9" s="5">
-        <v>300100010</v>
+        <v>300000010</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="5">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1488,246 +1488,250 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="2:15">
       <c r="B10" s="5">
-        <v>300101010</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>300100010</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="5">
-        <v>30010101</v>
+        <v>30010001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>26</v>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="J10" s="5">
-        <v>10053</v>
+        <v>2</v>
       </c>
       <c r="K10" s="5">
         <v>5000</v>
       </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:15">
       <c r="B11" s="5">
-        <v>310000010</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>300101010</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="5">
-        <v>31000001</v>
+        <v>30010101</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="6" t="s">
-        <v>33</v>
+      <c r="I11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="J11" s="5">
-        <v>31000001</v>
+        <v>10053</v>
       </c>
       <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:15">
       <c r="B12" s="5">
-        <v>310000011</v>
+        <v>310000010</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="5">
-        <v>310000011</v>
+        <v>31000001</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>35</v>
+      <c r="I12" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J12" s="5">
-        <v>31000002</v>
+        <v>31000001</v>
       </c>
       <c r="K12" s="5">
-        <v>310000012</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:15">
       <c r="B13" s="5">
-        <v>310000012</v>
+        <v>310000011</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5">
-        <v>310000012</v>
+        <v>310000011</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="J13" s="5">
+        <v>31000002</v>
+      </c>
+      <c r="K13" s="5">
+        <v>31000001</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:15">
-      <c r="B14" s="6">
-        <v>320000010</v>
+      <c r="B14" s="5">
+        <v>310000012</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6">
-        <v>32000001</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="5">
+        <v>310000012</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="5">
-        <v>4100</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>5000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:15">
-      <c r="B15" s="5">
-        <v>330000010</v>
+      <c r="B15" s="6">
+        <v>320000010</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5">
-        <v>33000001</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="6">
+        <v>32000001</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="6" t="s">
-        <v>39</v>
+      <c r="I15" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="J15" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="K15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:15">
       <c r="B16" s="5">
-        <v>390000010</v>
+        <v>330000010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5">
-        <v>39000001</v>
+        <v>33000001</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>37</v>
+      <c r="I16" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="J16" s="5">
-        <v>4900</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
       <c r="O16" s="5"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:15">
       <c r="B17" s="5">
-        <v>400000010</v>
+        <v>390000010</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="5">
-        <v>40000001</v>
+        <v>39000001</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="J17" s="5">
+        <v>4900</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="2:15">
       <c r="B18" s="5">
-        <v>400001010</v>
+        <v>400000010</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="5">
-        <v>40000101</v>
+        <v>40000001</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1736,9 +1740,7 @@
       <c r="I18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="5">
-        <v>15000</v>
-      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1747,13 +1749,13 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="2:15">
       <c r="B19" s="5">
-        <v>400100010</v>
+        <v>400001010</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="5">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1762,7 +1764,9 @@
       <c r="I19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5">
+        <v>15000</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1771,83 +1775,83 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="2:15">
       <c r="B20" s="5">
-        <v>400200010</v>
+        <v>400100010</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="5">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="2:15">
       <c r="B21" s="5">
-        <v>400200011</v>
+        <v>400200010</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="5">
-        <v>400200011</v>
+        <v>40020001</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J21" s="5">
-        <v>40020002</v>
+        <v>40020001</v>
       </c>
       <c r="K21" s="5">
-        <v>400200012</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="2:15">
       <c r="B22" s="5">
-        <v>400200012</v>
+        <v>400200011</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="5">
-        <v>400200012</v>
+        <v>400200011</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="J22" s="5">
+        <v>40020002</v>
+      </c>
+      <c r="K22" s="5">
+        <v>400200012</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -1855,13 +1859,13 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="2:15">
       <c r="B23" s="5">
-        <v>410000010</v>
+        <v>400200012</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="5">
-        <v>41000001</v>
+        <v>400200012</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1879,106 +1883,103 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="2:15">
       <c r="B24" s="5">
-        <v>490000010</v>
+        <v>410000010</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="5">
-        <v>49000001</v>
+        <v>41000001</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="5">
-        <v>49000001</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
+      <c r="I24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="2:15">
       <c r="B25" s="5">
-        <v>490000011</v>
+        <v>490000010</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="5">
-        <v>490000011</v>
+        <v>49000001</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="I25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="5">
+        <v>49000001</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="2:15">
       <c r="B26" s="5">
-        <v>920000010</v>
+        <v>490000011</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="5">
-        <v>92000001</v>
+        <v>490000011</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
-        <v>5000</v>
-      </c>
+      <c r="I26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="2:15">
       <c r="B27" s="5">
-        <v>920100010</v>
+        <v>920000010</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="5">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5">
         <v>5000</v>
@@ -1987,67 +1988,94 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="2:10">
+    <row r="28" s="2" customFormat="1" spans="2:15">
       <c r="B28" s="5">
+        <v>920100010</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5">
+        <v>92010001</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="2:10">
+      <c r="B29" s="5">
         <v>920200010</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="5">
-        <v>92020001</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="5">
-        <v>92020001</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="2:20">
-      <c r="B29" s="5">
-        <v>920200011</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="5">
+        <v>92020001</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="5">
+        <v>92020001</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="2:20">
+      <c r="B30" s="5">
         <v>920200011</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="2">
+      <c r="D30" s="5">
+        <v>920200011</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="2">
         <v>9000</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K30" s="2">
         <v>2</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L30" s="2">
         <v>-8</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M30" s="2">
         <v>-4</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N30" s="2">
         <v>35000</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O30" s="2">
         <v>-8</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P30" s="2">
         <v>4</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q30" s="2">
         <v>35000</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R30" s="2">
         <v>8</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S30" s="2">
         <v>4</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T30" s="2">
         <v>35000</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -1177,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1403,7 +1403,6 @@
       <c r="K6" s="5">
         <v>5000</v>
       </c>
-      <c r="L6" s="2"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1765,7 +1764,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="5">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -103,7 +103,13 @@
     <t>添加子弹</t>
   </si>
   <si>
-    <t>3目标子弹效果</t>
+    <t>炮弹落地重新索敌</t>
+  </si>
+  <si>
+    <t>重新索敌</t>
+  </si>
+  <si>
+    <t>爆炸伤害</t>
   </si>
   <si>
     <t>大水井恢复血量</t>
@@ -122,9 +128,6 @@
   </si>
   <si>
     <t>防御塔子弹效果</t>
-  </si>
-  <si>
-    <t>重新索敌</t>
   </si>
   <si>
     <t>兵营A召唤</t>
@@ -1175,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1448,10 +1451,14 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="J8" s="5">
+        <v>10000202</v>
+      </c>
+      <c r="K8" s="5">
+        <v>100002012</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1459,27 +1466,25 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="2:15">
       <c r="B9" s="5">
-        <v>300000010</v>
+        <v>100002012</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5">
-        <v>30000001</v>
+        <v>100002012</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
-        <v>31</v>
+      <c r="I9" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>10000</v>
-      </c>
+        <v>20000</v>
+      </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1487,26 +1492,26 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="2:15">
       <c r="B10" s="5">
-        <v>300100010</v>
+        <v>300000010</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="5">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1515,246 +1520,250 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="2:15">
       <c r="B11" s="5">
-        <v>300101010</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>300100010</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="5">
-        <v>30010101</v>
+        <v>30010001</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>26</v>
+      <c r="I11" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J11" s="5">
-        <v>10053</v>
+        <v>2</v>
       </c>
       <c r="K11" s="5">
         <v>5000</v>
       </c>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:15">
       <c r="B12" s="5">
-        <v>310000010</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>300101010</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="5">
-        <v>31000001</v>
+        <v>30010101</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
-        <v>28</v>
+      <c r="I12" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="J12" s="5">
-        <v>31000001</v>
+        <v>10053</v>
       </c>
       <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:15">
       <c r="B13" s="5">
-        <v>310000011</v>
+        <v>310000010</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5">
-        <v>310000011</v>
+        <v>31000001</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>36</v>
+      <c r="I13" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J13" s="5">
-        <v>31000002</v>
+        <v>31000001</v>
       </c>
       <c r="K13" s="5">
-        <v>31000001</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:15">
       <c r="B14" s="5">
-        <v>310000012</v>
+        <v>310000011</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5">
-        <v>310000012</v>
+        <v>310000011</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="J14" s="5">
+        <v>31000002</v>
+      </c>
+      <c r="K14" s="5">
+        <v>31000001</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:15">
-      <c r="B15" s="6">
-        <v>320000010</v>
+      <c r="B15" s="5">
+        <v>310000012</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6">
-        <v>32000001</v>
+      <c r="D15" s="5">
+        <v>310000012</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="5">
-        <v>4100</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>5000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:15">
-      <c r="B16" s="5">
-        <v>330000010</v>
+      <c r="B16" s="6">
+        <v>320000010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="5">
-        <v>33000001</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="6">
+        <v>32000001</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="6" t="s">
-        <v>40</v>
+      <c r="I16" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="J16" s="5">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="K16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5">
-        <v>1</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:15">
       <c r="B17" s="5">
-        <v>390000010</v>
+        <v>330000010</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5">
-        <v>39000001</v>
+        <v>33000001</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>38</v>
+      <c r="I17" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="J17" s="5">
-        <v>4900</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
       <c r="O17" s="5"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="2:15">
       <c r="B18" s="5">
-        <v>400000010</v>
+        <v>390000010</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="5">
-        <v>40000001</v>
+        <v>39000001</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4900</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:15">
       <c r="B19" s="5">
-        <v>400001010</v>
+        <v>400000010</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="5">
-        <v>40000101</v>
+        <v>40000001</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1763,9 +1772,7 @@
       <c r="I19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="5">
-        <v>30000</v>
-      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1774,13 +1781,13 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="2:15">
       <c r="B20" s="5">
-        <v>400100010</v>
+        <v>400001010</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="5">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1789,7 +1796,9 @@
       <c r="I20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5">
+        <v>30000</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1798,83 +1807,83 @@
     </row>
     <row r="21" s="2" customFormat="1" spans="2:15">
       <c r="B21" s="5">
-        <v>400200010</v>
+        <v>400100010</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="5">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="2:15">
       <c r="B22" s="5">
-        <v>400200011</v>
+        <v>400200010</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="5">
-        <v>400200011</v>
+        <v>40020001</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J22" s="5">
-        <v>40020002</v>
+        <v>40020001</v>
       </c>
       <c r="K22" s="5">
-        <v>400200012</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="2:15">
       <c r="B23" s="5">
-        <v>400200012</v>
+        <v>400200011</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="5">
-        <v>400200012</v>
+        <v>400200011</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="J23" s="5">
+        <v>40020002</v>
+      </c>
+      <c r="K23" s="5">
+        <v>400200012</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -1882,13 +1891,13 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="2:15">
       <c r="B24" s="5">
-        <v>410000010</v>
+        <v>400200012</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="5">
-        <v>41000001</v>
+        <v>400200012</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1906,106 +1915,103 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="2:15">
       <c r="B25" s="5">
-        <v>490000010</v>
+        <v>410000010</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="5">
-        <v>49000001</v>
+        <v>41000001</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="5">
-        <v>49000001</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0</v>
-      </c>
+      <c r="I25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="2:15">
       <c r="B26" s="5">
-        <v>490000011</v>
+        <v>490000010</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="5">
-        <v>490000011</v>
+        <v>49000001</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="I26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="5">
+        <v>49000001</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="2:15">
       <c r="B27" s="5">
-        <v>920000010</v>
+        <v>490000011</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="5">
-        <v>92000001</v>
+        <v>490000011</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5">
-        <v>5000</v>
-      </c>
+      <c r="I27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="2:15">
       <c r="B28" s="5">
-        <v>920100010</v>
+        <v>920000010</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="5">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5">
         <v>5000</v>
@@ -2014,67 +2020,94 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="2:10">
+    <row r="29" s="2" customFormat="1" spans="2:15">
       <c r="B29" s="5">
+        <v>920100010</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5">
+        <v>92010001</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="2:10">
+      <c r="B30" s="5">
         <v>920200010</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="5">
-        <v>92020001</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="5">
-        <v>92020001</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="2:20">
-      <c r="B30" s="5">
-        <v>920200011</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="5">
+        <v>92020001</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="5">
+        <v>92020001</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="2:20">
+      <c r="B31" s="5">
         <v>920200011</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="2">
+      <c r="D31" s="5">
+        <v>920200011</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="2">
         <v>9000</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="2">
         <v>2</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L31" s="2">
         <v>-8</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M31" s="2">
         <v>-4</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N31" s="2">
         <v>35000</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O31" s="2">
         <v>-8</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P31" s="2">
         <v>4</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q31" s="2">
         <v>35000</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R31" s="2">
         <v>8</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S31" s="2">
         <v>4</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T31" s="2">
         <v>35000</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -112,67 +112,37 @@
     <t>爆炸伤害</t>
   </si>
   <si>
-    <t>大水井恢复血量</t>
+    <t>防御塔子弹</t>
+  </si>
+  <si>
+    <t>防御塔子弹效果</t>
+  </si>
+  <si>
+    <t>防御塔子弹爆炸伤害</t>
+  </si>
+  <si>
+    <t>兵营A召唤</t>
+  </si>
+  <si>
+    <t>召唤士兵</t>
+  </si>
+  <si>
+    <t>添加攻速BUFF</t>
+  </si>
+  <si>
+    <t>攻速加成100%</t>
+  </si>
+  <si>
+    <t>伤害植物-普攻</t>
+  </si>
+  <si>
+    <t>伤害植物-死亡自爆</t>
+  </si>
+  <si>
+    <t>使用血瓶</t>
   </si>
   <si>
     <t>实时属性改变</t>
-  </si>
-  <si>
-    <t>小水井恢复蓝量</t>
-  </si>
-  <si>
-    <t>移速加成50%</t>
-  </si>
-  <si>
-    <t>防御塔子弹</t>
-  </si>
-  <si>
-    <t>防御塔子弹效果</t>
-  </si>
-  <si>
-    <t>兵营A召唤</t>
-  </si>
-  <si>
-    <t>召唤士兵</t>
-  </si>
-  <si>
-    <t>种子台随机生成种子</t>
-  </si>
-  <si>
-    <t>随机生成种子</t>
-  </si>
-  <si>
-    <t>野怪营地召唤</t>
-  </si>
-  <si>
-    <t>伤害植物-普攻</t>
-  </si>
-  <si>
-    <t>伤害植物-死亡自爆</t>
-  </si>
-  <si>
-    <t>高级攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>远程攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>远程攻击植物-普攻子弹索敌</t>
-  </si>
-  <si>
-    <t>远程攻击植物-普攻子弹效果</t>
-  </si>
-  <si>
-    <t>兵营攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>中立怪子弹</t>
-  </si>
-  <si>
-    <t>中立怪子弹效果</t>
-  </si>
-  <si>
-    <t>使用血瓶</t>
   </si>
   <si>
     <t>使用蓝瓶</t>
@@ -1178,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1492,54 +1462,58 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="2:15">
       <c r="B10" s="5">
-        <v>300000010</v>
+        <v>300100010</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="5">
-        <v>30000001</v>
+        <v>30010001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J10" s="5">
-        <v>1</v>
+        <v>31000001</v>
       </c>
       <c r="K10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:15">
       <c r="B11" s="5">
-        <v>300100010</v>
+        <v>300100011</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5">
-        <v>30010001</v>
+        <v>300100011</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="6" t="s">
-        <v>33</v>
+      <c r="I11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="J11" s="5">
-        <v>2</v>
+        <v>30010002</v>
       </c>
       <c r="K11" s="5">
-        <v>5000</v>
+        <v>300100012</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1548,53 +1522,50 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="2:15">
       <c r="B12" s="5">
-        <v>300101010</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>300100012</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="5">
-        <v>30010101</v>
+        <v>300100012</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="5">
-        <v>10053</v>
-      </c>
-      <c r="K12" s="5">
-        <v>5000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:15">
-      <c r="B13" s="5">
-        <v>310000010</v>
+      <c r="B13" s="6">
+        <v>300200010</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5">
-        <v>31000001</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="6">
+        <v>30020001</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="6" t="s">
-        <v>28</v>
+      <c r="I13" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="J13" s="5">
-        <v>31000001</v>
+        <v>4003</v>
       </c>
       <c r="K13" s="5">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1607,27 +1578,25 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="2:15">
       <c r="B14" s="5">
-        <v>310000011</v>
+        <v>300300010</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="5">
-        <v>310000011</v>
+        <v>30030001</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>30</v>
+      <c r="I14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="J14" s="5">
-        <v>31000002</v>
-      </c>
-      <c r="K14" s="5">
-        <v>31000001</v>
-      </c>
+        <v>30030001</v>
+      </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1635,479 +1604,197 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:15">
       <c r="B15" s="5">
-        <v>310000012</v>
+        <v>300300011</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5">
-        <v>310000012</v>
+        <v>300300011</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="J15" s="5">
+        <v>10073</v>
+      </c>
+      <c r="K15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:15">
-      <c r="B16" s="6">
-        <v>320000010</v>
+      <c r="B16" s="5">
+        <v>400000010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="6">
-        <v>32000001</v>
+        <v>39</v>
+      </c>
+      <c r="D16" s="5">
+        <v>40000001</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="5">
-        <v>4100</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>5000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:15">
       <c r="B17" s="5">
-        <v>330000010</v>
+        <v>400001010</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="5">
-        <v>33000001</v>
+        <v>40000101</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="6" t="s">
-        <v>41</v>
+      <c r="I17" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="2:15">
       <c r="B18" s="5">
-        <v>390000010</v>
+        <v>920000010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5">
-        <v>39000001</v>
+        <v>92000001</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>39</v>
+      <c r="I18" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="J18" s="5">
-        <v>4900</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:15">
       <c r="B19" s="5">
-        <v>400000010</v>
+        <v>920100010</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="5">
-        <v>40000001</v>
+        <v>92010001</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="I19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5000</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="2:15">
+    <row r="20" s="2" customFormat="1" spans="2:10">
       <c r="B20" s="5">
-        <v>400001010</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>920200010</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="5">
-        <v>40000101</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+        <v>92020001</v>
+      </c>
       <c r="I20" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J20" s="5">
-        <v>30000</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:15">
+        <v>92020001</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:20">
       <c r="B21" s="5">
-        <v>400100010</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>920200011</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="5">
-        <v>40010001</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:15">
-      <c r="B22" s="5">
-        <v>400200010</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>920200011</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="2:15">
-      <c r="B23" s="5">
-        <v>400200011</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="5">
-        <v>400200011</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="5">
-        <v>40020002</v>
-      </c>
-      <c r="K23" s="5">
-        <v>400200012</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="2:15">
-      <c r="B24" s="5">
-        <v>400200012</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="5">
-        <v>400200012</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="2:15">
-      <c r="B25" s="5">
-        <v>410000010</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="5">
-        <v>41000001</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="2:15">
-      <c r="B26" s="5">
-        <v>490000010</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="5">
-        <v>49000001</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="5">
-        <v>49000001</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="2:15">
-      <c r="B27" s="5">
-        <v>490000011</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="5">
-        <v>490000011</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="2:15">
-      <c r="B28" s="5">
-        <v>920000010</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="5">
-        <v>92000001</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="2:15">
-      <c r="B29" s="5">
-        <v>920100010</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="5">
-        <v>92010001</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="5">
+      <c r="J21" s="2">
+        <v>9000</v>
+      </c>
+      <c r="K21" s="2">
         <v>2</v>
       </c>
-      <c r="K29" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="2:10">
-      <c r="B30" s="5">
-        <v>920200010</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="5">
-        <v>92020001</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="5">
-        <v>92020001</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="2:20">
-      <c r="B31" s="5">
-        <v>920200011</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="5">
-        <v>920200011</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="2">
-        <v>9000</v>
-      </c>
-      <c r="K31" s="2">
-        <v>2</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="L21" s="2">
         <v>-8</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M21" s="2">
         <v>-4</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N21" s="2">
         <v>35000</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O21" s="2">
         <v>-8</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P21" s="2">
         <v>4</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q21" s="2">
         <v>35000</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R21" s="2">
         <v>8</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S21" s="2">
         <v>4</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T21" s="2">
         <v>35000</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -79,13 +79,13 @@
     <t>操作参数</t>
   </si>
   <si>
-    <t>英雄1000普攻</t>
+    <t>英雄普攻</t>
   </si>
   <si>
     <t>伤害</t>
   </si>
   <si>
-    <t>英雄1000，添加攻速BUFF</t>
+    <t>英雄添加攻速BUFF</t>
   </si>
   <si>
     <t>添加Buff</t>
@@ -97,7 +97,7 @@
     <t>属性改变</t>
   </si>
   <si>
-    <t>英雄1000，3目标子弹伤害</t>
+    <t>英雄 3目标子弹伤害</t>
   </si>
   <si>
     <t>添加子弹</t>
@@ -148,13 +148,10 @@
     <t>使用蓝瓶</t>
   </si>
   <si>
-    <t>随机生成水滴Buff</t>
-  </si>
-  <si>
-    <t>随机生成水滴</t>
-  </si>
-  <si>
-    <t>随机生产掉落</t>
+    <t>掉落水滴</t>
+  </si>
+  <si>
+    <t>生产掉落</t>
   </si>
 </sst>
 </file>
@@ -1148,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1305,13 +1302,13 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="2:15">
       <c r="B4" s="5">
-        <v>100000010</v>
+        <v>100100010</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="5">
-        <v>10000001</v>
+        <v>10010001</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1329,13 +1326,13 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="2:15">
       <c r="B5" s="5">
-        <v>100001010</v>
+        <v>100101010</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="5">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1345,7 +1342,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="5">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -1355,13 +1352,13 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="2:15">
       <c r="B6" s="5">
-        <v>100001011</v>
+        <v>100101011</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="5">
-        <v>100001011</v>
+        <v>100101011</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1382,13 +1379,13 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="2:15">
       <c r="B7" s="5">
-        <v>100002010</v>
+        <v>100102010</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1398,7 +1395,7 @@
         <v>28</v>
       </c>
       <c r="J7" s="5">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1408,13 +1405,13 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="2:15">
       <c r="B8" s="5">
-        <v>100002011</v>
+        <v>100102011</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="5">
-        <v>100002011</v>
+        <v>100102011</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1424,10 +1421,10 @@
         <v>30</v>
       </c>
       <c r="J8" s="5">
-        <v>10000202</v>
+        <v>10010202</v>
       </c>
       <c r="K8" s="5">
-        <v>100002012</v>
+        <v>100102012</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1436,13 +1433,13 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="2:15">
       <c r="B9" s="5">
-        <v>100002012</v>
+        <v>100102012</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="5">
-        <v>100002012</v>
+        <v>100102012</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1625,7 +1622,6 @@
       <c r="K15" s="5">
         <v>10000</v>
       </c>
-      <c r="L15" s="2"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1734,67 +1730,50 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="2:10">
+    <row r="20" s="2" customFormat="1" spans="2:20">
       <c r="B20" s="5">
-        <v>920200010</v>
+        <v>920200011</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="5">
-        <v>92020001</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="5">
-        <v>92020001</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:20">
-      <c r="B21" s="5">
         <v>920200011</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="5">
-        <v>920200011</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="J20" s="2">
         <v>9000</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K20" s="2">
         <v>2</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L20" s="2">
         <v>-8</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M20" s="2">
         <v>-4</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N20" s="2">
         <v>35000</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O20" s="2">
         <v>-8</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P20" s="2">
         <v>4</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q20" s="2">
         <v>35000</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R20" s="2">
         <v>8</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S20" s="2">
         <v>4</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T20" s="2">
         <v>35000</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -133,6 +133,12 @@
     <t>攻速加成100%</t>
   </si>
   <si>
+    <t>资源塔产出资源</t>
+  </si>
+  <si>
+    <t>随机召唤</t>
+  </si>
+  <si>
     <t>伤害植物-普攻</t>
   </si>
   <si>
@@ -146,12 +152,6 @@
   </si>
   <si>
     <t>使用蓝瓶</t>
-  </si>
-  <si>
-    <t>掉落水滴</t>
-  </si>
-  <si>
-    <t>生产掉落</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1627,38 +1627,46 @@
       <c r="O15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:15">
-      <c r="B16" s="5">
-        <v>400000010</v>
+      <c r="B16" s="6">
+        <v>300400010</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="5">
-        <v>40000001</v>
+      <c r="D16" s="6">
+        <v>30040001</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="J16" s="5">
+        <v>4003</v>
+      </c>
+      <c r="K16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:15">
       <c r="B17" s="5">
-        <v>400001010</v>
+        <v>400000010</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5">
-        <v>40000101</v>
+        <v>40000001</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1667,9 +1675,7 @@
       <c r="I17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="5">
-        <v>30000</v>
-      </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1678,50 +1684,49 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="2:15">
       <c r="B18" s="5">
-        <v>920000010</v>
+        <v>400001010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="6" t="s">
-        <v>42</v>
+      <c r="I18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>5000</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:15">
       <c r="B19" s="5">
-        <v>920100010</v>
+        <v>920000010</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="5">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5">
         <v>5000</v>
@@ -1730,52 +1735,32 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="2:20">
+    <row r="20" s="2" customFormat="1" spans="2:15">
       <c r="B20" s="5">
-        <v>920200011</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>920100010</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5">
+        <v>92010001</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="5">
-        <v>920200011</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="2">
-        <v>9000</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J20" s="5">
         <v>2</v>
       </c>
-      <c r="L20" s="2">
-        <v>-8</v>
-      </c>
-      <c r="M20" s="2">
-        <v>-4</v>
-      </c>
-      <c r="N20" s="2">
-        <v>35000</v>
-      </c>
-      <c r="O20" s="2">
-        <v>-8</v>
-      </c>
-      <c r="P20" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>35000</v>
-      </c>
-      <c r="R20" s="2">
-        <v>8</v>
-      </c>
-      <c r="S20" s="2">
-        <v>4</v>
-      </c>
-      <c r="T20" s="2">
-        <v>35000</v>
-      </c>
+      <c r="K20" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1644,10 +1644,10 @@
         <v>40</v>
       </c>
       <c r="J16" s="5">
-        <v>4003</v>
+        <v>4</v>
       </c>
       <c r="K16" s="5">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -1655,7 +1655,9 @@
       <c r="M16" s="5">
         <v>0</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
       <c r="O16" s="5"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:15">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J16" sqref="J16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1644,18 +1644,15 @@
         <v>40</v>
       </c>
       <c r="J16" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
       </c>
       <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
         <v>0</v>
       </c>
       <c r="O16" s="5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:M16"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1644,10 +1644,10 @@
         <v>40</v>
       </c>
       <c r="J16" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" s="5">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1317,7 +1317,9 @@
       <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5">
+        <v>40000</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -94,13 +94,13 @@
     <t>攻速加成50%</t>
   </si>
   <si>
-    <t>属性改变</t>
+    <t>增加属性</t>
   </si>
   <si>
     <t>英雄 3目标子弹伤害</t>
   </si>
   <si>
-    <t>添加子弹</t>
+    <t>目标子弹</t>
   </si>
   <si>
     <t>炮弹落地重新索敌</t>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1564,7 +1564,7 @@
         <v>4003</v>
       </c>
       <c r="K13" s="5">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="K16" s="5">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -139,6 +139,12 @@
     <t>随机召唤</t>
   </si>
   <si>
+    <t>资源塔产出金币</t>
+  </si>
+  <si>
+    <t>实时属性改变</t>
+  </si>
+  <si>
     <t>伤害植物-普攻</t>
   </si>
   <si>
@@ -146,9 +152,6 @@
   </si>
   <si>
     <t>使用血瓶</t>
-  </si>
-  <si>
-    <t>实时属性改变</t>
   </si>
   <si>
     <t>使用蓝瓶</t>
@@ -1145,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1660,38 +1663,41 @@
       <c r="O16" s="5"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:15">
-      <c r="B17" s="5">
-        <v>400000010</v>
+      <c r="B17" s="6">
+        <v>300401010</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5">
-        <v>40000001</v>
+      <c r="D17" s="6">
+        <v>30040101</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="J17" s="5">
+        <v>980</v>
+      </c>
+      <c r="K17" s="5">
+        <v>10000</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="2:15">
       <c r="B18" s="5">
-        <v>400001010</v>
+        <v>400000010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5">
-        <v>40000101</v>
+        <v>40000001</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1700,9 +1706,7 @@
       <c r="I18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="5">
-        <v>30000</v>
-      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1711,50 +1715,49 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="2:15">
       <c r="B19" s="5">
-        <v>920000010</v>
+        <v>400001010</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="6" t="s">
-        <v>44</v>
+      <c r="I19" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>5000</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="2:15">
       <c r="B20" s="5">
-        <v>920100010</v>
+        <v>920000010</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="5">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5">
         <v>5000</v>
@@ -1762,6 +1765,33 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:15">
+      <c r="B21" s="5">
+        <v>920100010</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5">
+        <v>92010001</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1564,7 +1564,7 @@
         <v>36</v>
       </c>
       <c r="J13" s="5">
-        <v>4003</v>
+        <v>40031</v>
       </c>
       <c r="K13" s="5">
         <v>15000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>爆炸伤害</t>
+  </si>
+  <si>
+    <t>大本营子弹</t>
+  </si>
+  <si>
+    <t>大本营子弹效果</t>
   </si>
   <si>
     <t>防御塔子弹</t>
@@ -1148,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1464,13 +1470,13 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="2:15">
       <c r="B10" s="5">
-        <v>300100010</v>
+        <v>300000010</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="5">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1480,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="J10" s="5">
-        <v>31000001</v>
+        <v>30000001</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -1496,27 +1502,23 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="2:15">
       <c r="B11" s="5">
-        <v>300100011</v>
+        <v>300000011</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="5">
-        <v>300100011</v>
+        <v>300000011</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="5">
-        <v>30010002</v>
-      </c>
-      <c r="K11" s="5">
-        <v>300100012</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1524,80 +1526,82 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="2:15">
       <c r="B12" s="5">
-        <v>300100012</v>
+        <v>300100010</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="5">
-        <v>300100012</v>
+        <v>30010001</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5">
+        <v>30010001</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:15">
-      <c r="B13" s="6">
-        <v>300200010</v>
+      <c r="B13" s="5">
+        <v>300100011</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6">
-        <v>30020001</v>
+      <c r="D13" s="5">
+        <v>300100011</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J13" s="5">
-        <v>40031</v>
+        <v>30010002</v>
       </c>
       <c r="K13" s="5">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
+        <v>300100012</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:15">
       <c r="B14" s="5">
-        <v>300300010</v>
+        <v>300100012</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5">
-        <v>30030001</v>
+        <v>300100012</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="5">
-        <v>30030001</v>
-      </c>
+      <c r="I14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1605,193 +1609,251 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:15">
-      <c r="B15" s="5">
-        <v>300300011</v>
+      <c r="B15" s="6">
+        <v>300200010</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5">
-        <v>300300011</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="6">
+        <v>30020001</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J15" s="5">
-        <v>10073</v>
+        <v>40031</v>
       </c>
       <c r="K15" s="5">
-        <v>10000</v>
-      </c>
-      <c r="M15" s="5"/>
+        <v>15000</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:15">
-      <c r="B16" s="6">
-        <v>300400010</v>
+      <c r="B16" s="5">
+        <v>300300010</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="6">
-        <v>30040001</v>
+      <c r="D16" s="5">
+        <v>30030001</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="5">
+        <v>30030001</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:15">
+      <c r="B17" s="5">
+        <v>300300011</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="5">
-        <v>3</v>
-      </c>
-      <c r="K16" s="5">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:15">
-      <c r="B17" s="6">
-        <v>300401010</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="6">
-        <v>30040101</v>
+      <c r="D17" s="5">
+        <v>300300011</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J17" s="5">
-        <v>980</v>
+        <v>10073</v>
       </c>
       <c r="K17" s="5">
         <v>10000</v>
       </c>
-      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="2:15">
-      <c r="B18" s="5">
-        <v>400000010</v>
+      <c r="B18" s="6">
+        <v>300400010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5">
-        <v>40000001</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="6">
+        <v>30040001</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3</v>
+      </c>
+      <c r="K18" s="5">
+        <v>15000</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
       <c r="O18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:15">
-      <c r="B19" s="5">
-        <v>400001010</v>
+      <c r="B19" s="6">
+        <v>300401010</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5">
-        <v>40000101</v>
+        <v>43</v>
+      </c>
+      <c r="D19" s="6">
+        <v>30040101</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J19" s="5">
-        <v>30000</v>
-      </c>
-      <c r="K19" s="5"/>
+        <v>980</v>
+      </c>
+      <c r="K19" s="5">
+        <v>10000</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="2:15">
       <c r="B20" s="5">
-        <v>920000010</v>
+        <v>400000010</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="5">
-        <v>92000001</v>
+        <v>40000001</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5">
-        <v>5000</v>
-      </c>
+      <c r="I20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="2:15">
       <c r="B21" s="5">
-        <v>920100010</v>
+        <v>400001010</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="5">
-        <v>92010001</v>
+        <v>40000101</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="6" t="s">
-        <v>42</v>
+      <c r="I21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J21" s="5">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5">
-        <v>5000</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:15">
+      <c r="B22" s="5">
+        <v>920000010</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5">
+        <v>92000001</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:15">
+      <c r="B23" s="5">
+        <v>920100010</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5">
+        <v>92010001</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -34,6 +34,9 @@
     <t>failure_conds</t>
   </si>
   <si>
+    <t>fx</t>
+  </si>
+  <si>
     <t>action_type</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>array,int</t>
   </si>
   <si>
+    <t>int#ref=TbSkillResource?</t>
+  </si>
+  <si>
     <t>ESkillEffectType</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>失败条件</t>
+  </si>
+  <si>
+    <t>播放特效</t>
   </si>
   <si>
     <t>操作</t>
@@ -1154,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1168,14 +1177,15 @@
     <col min="4" max="4" width="12.1428571428571" style="2" customWidth="1"/>
     <col min="5" max="7" width="12.2053571428571" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.4732142857143" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.9285714285714" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.8571428571429" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.1428571428571" style="2" customWidth="1"/>
-    <col min="12" max="20" width="9.21428571428571" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="19.1964285714286" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.9285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.8571428571429" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.1428571428571" style="2" customWidth="1"/>
+    <col min="13" max="21" width="9.21428571428571" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1196,13 +1206,15 @@
         <v>5</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
@@ -1212,35 +1224,38 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="7"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -1250,71 +1265,75 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16" spans="1:21">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:15">
+        <v>23</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:16">
       <c r="B4" s="5">
         <v>100100010</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5">
         <v>10010001</v>
@@ -1323,24 +1342,25 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5">
         <v>40000</v>
       </c>
-      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:15">
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:16">
       <c r="B5" s="5">
         <v>100101010</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5">
         <v>10010101</v>
@@ -1349,24 +1369,25 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5">
         <v>10010101</v>
       </c>
-      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:15">
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:16">
       <c r="B6" s="5">
         <v>100101011</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5">
         <v>100101011</v>
@@ -1375,25 +1396,26 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5">
         <v>10073</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>5000</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:15">
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:16">
       <c r="B7" s="5">
         <v>100102010</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5">
         <v>10010201</v>
@@ -1402,24 +1424,25 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="5">
         <v>10010201</v>
       </c>
-      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:15">
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:16">
       <c r="B8" s="5">
         <v>100102011</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5">
         <v>100102011</v>
@@ -1428,26 +1451,27 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="5">
         <v>10010202</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>100102012</v>
       </c>
-      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:15">
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:16">
       <c r="B9" s="5">
         <v>100102012</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5">
         <v>100102012</v>
@@ -1456,24 +1480,25 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5">
         <v>20000</v>
       </c>
-      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:15">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:16">
       <c r="B10" s="5">
         <v>300000010</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5">
         <v>30000001</v>
@@ -1482,14 +1507,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="5"/>
+      <c r="J10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="5">
         <v>30000001</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -1497,15 +1520,18 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:15">
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:16">
       <c r="B11" s="5">
         <v>300000011</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5">
         <v>300000011</v>
@@ -1514,22 +1540,23 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:15">
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:16">
       <c r="B12" s="5">
         <v>300100010</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5">
         <v>30010001</v>
@@ -1538,14 +1565,12 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="5"/>
+      <c r="J12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="5">
         <v>30010001</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1553,15 +1578,18 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:15">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:16">
       <c r="B13" s="5">
         <v>300100011</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5">
         <v>300100011</v>
@@ -1570,26 +1598,27 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="5">
         <v>30010002</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>300100012</v>
       </c>
-      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:15">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:16">
       <c r="B14" s="5">
         <v>300100012</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5">
         <v>300100012</v>
@@ -1598,22 +1627,23 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:15">
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:16">
       <c r="B15" s="6">
         <v>300200010</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6">
         <v>30020001</v>
@@ -1622,30 +1652,31 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="5">
         <v>40031</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>15000</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
       </c>
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
       <c r="O15" s="5"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:15">
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:16">
       <c r="B16" s="5">
         <v>300300010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5">
         <v>30030001</v>
@@ -1654,24 +1685,25 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I16" s="5"/>
+      <c r="J16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="5">
         <v>30030001</v>
       </c>
-      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:15">
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:16">
       <c r="B17" s="5">
         <v>300300011</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5">
         <v>300300011</v>
@@ -1680,25 +1712,26 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="5">
         <v>10073</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>10000</v>
       </c>
-      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="2:15">
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:16">
       <c r="B18" s="6">
         <v>300400010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6">
         <v>30040001</v>
@@ -1707,29 +1740,30 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="5">
         <v>3</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>15000</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="2:15">
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:16">
       <c r="B19" s="6">
         <v>300401010</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6">
         <v>30040101</v>
@@ -1738,25 +1772,26 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="5">
         <v>980</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>10000</v>
       </c>
-      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="2:15">
+      <c r="N19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="2:16">
       <c r="B20" s="5">
         <v>400000010</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5">
         <v>40000001</v>
@@ -1765,22 +1800,23 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:15">
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:16">
       <c r="B21" s="5">
         <v>400001010</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5">
         <v>40000101</v>
@@ -1789,24 +1825,25 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="5">
         <v>30000</v>
       </c>
-      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:15">
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:16">
       <c r="B22" s="5">
         <v>920000010</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5">
         <v>92000001</v>
@@ -1815,25 +1852,28 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I22" s="5">
+        <v>70000001</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="5">
         <v>1</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>5000</v>
       </c>
-      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="2:15">
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:16">
       <c r="B23" s="5">
         <v>920100010</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D23" s="5">
         <v>92010001</v>
@@ -1842,27 +1882,30 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="I23" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="5">
         <v>2</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>5000</v>
       </c>
-      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="K1:U1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:T2"/>
+    <mergeCell ref="K2:U2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -121,6 +121,9 @@
     <t>爆炸伤害</t>
   </si>
   <si>
+    <t>建筑的技能效果</t>
+  </si>
+  <si>
     <t>大本营子弹</t>
   </si>
   <si>
@@ -160,16 +163,31 @@
     <t>实时属性改变</t>
   </si>
   <si>
-    <t>伤害植物-普攻</t>
-  </si>
-  <si>
-    <t>伤害植物-死亡自爆</t>
+    <t>士兵的技能效果</t>
+  </si>
+  <si>
+    <t>普攻</t>
+  </si>
+  <si>
+    <t>死亡自爆</t>
+  </si>
+  <si>
+    <t>使用物品的效果</t>
   </si>
   <si>
     <t>使用血瓶</t>
   </si>
   <si>
     <t>使用蓝瓶</t>
+  </si>
+  <si>
+    <t>目标+1</t>
+  </si>
+  <si>
+    <t>攻击+100%</t>
+  </si>
+  <si>
+    <t>攻速+100%</t>
   </si>
 </sst>
 </file>
@@ -361,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +715,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,16 +739,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -733,89 +757,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -830,6 +854,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1163,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1198,33 +1225,33 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
@@ -1239,33 +1266,33 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="16" spans="1:21">
       <c r="A3" s="3" t="s">
@@ -1280,15 +1307,15 @@
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1494,83 +1521,69 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:16">
-      <c r="B10" s="5">
-        <v>300000010</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5">
-        <v>30000001</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="5">
-        <v>30000001</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="2:16">
-      <c r="B11" s="5">
-        <v>300000011</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5">
-        <v>300000011</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+    <row r="11" s="2" customFormat="1" spans="1:21">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:16">
       <c r="B12" s="5">
-        <v>300100010</v>
+        <v>300000010</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K12" s="5">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1586,13 +1599,13 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="2:16">
       <c r="B13" s="5">
-        <v>300100011</v>
+        <v>300000011</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5">
-        <v>300100011</v>
+        <v>300000011</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1600,14 +1613,10 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="5">
-        <v>30010002</v>
-      </c>
-      <c r="L13" s="5">
-        <v>300100012</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1615,38 +1624,46 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="2:16">
       <c r="B14" s="5">
-        <v>300100012</v>
+        <v>300100010</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5">
-        <v>300100012</v>
+        <v>30010001</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="5">
+        <v>30010001</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:16">
-      <c r="B15" s="6">
-        <v>300200010</v>
+      <c r="B15" s="5">
+        <v>300100011</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="6">
-        <v>30020001</v>
+        <v>39</v>
+      </c>
+      <c r="D15" s="5">
+        <v>300100011</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1654,44 +1671,38 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K15" s="5">
-        <v>40031</v>
+        <v>30010002</v>
       </c>
       <c r="L15" s="5">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
+        <v>300100012</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:16">
       <c r="B16" s="5">
-        <v>300300010</v>
+        <v>300100012</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5">
-        <v>30030001</v>
+        <v>300100012</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="5">
-        <v>30030001</v>
-      </c>
+      <c r="J16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1699,14 +1710,14 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:16">
-      <c r="B17" s="5">
-        <v>300300011</v>
+      <c r="B17" s="7">
+        <v>300200010</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5">
-        <v>300300011</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="7">
+        <v>30020001</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1714,59 +1725,59 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K17" s="5">
-        <v>10073</v>
+        <v>40031</v>
       </c>
       <c r="L17" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N17" s="5"/>
+        <v>15000</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="2:16">
-      <c r="B18" s="6">
-        <v>300400010</v>
+      <c r="B18" s="5">
+        <v>300300010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="6">
-        <v>30040001</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="5">
+        <v>30030001</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>45</v>
+      <c r="J18" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="K18" s="5">
-        <v>3</v>
-      </c>
-      <c r="L18" s="5">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
+        <v>30030001</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:16">
-      <c r="B19" s="6">
-        <v>300401010</v>
+      <c r="B19" s="5">
+        <v>300300011</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6">
-        <v>30040101</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="5">
+        <v>300300011</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1774,27 +1785,27 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K19" s="5">
-        <v>980</v>
+        <v>10073</v>
       </c>
       <c r="L19" s="5">
         <v>10000</v>
       </c>
-      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="2:16">
-      <c r="B20" s="5">
-        <v>400000010</v>
+      <c r="B20" s="7">
+        <v>300400010</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="5">
-        <v>40000001</v>
+        <v>45</v>
+      </c>
+      <c r="D20" s="7">
+        <v>30040001</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1802,24 +1813,31 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="2:16">
-      <c r="B21" s="5">
-        <v>400001010</v>
+      <c r="B21" s="7">
+        <v>300401010</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="5">
-        <v>40000101</v>
+        <v>47</v>
+      </c>
+      <c r="D21" s="7">
+        <v>30040101</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1827,76 +1845,306 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="K21" s="5">
-        <v>30000</v>
-      </c>
-      <c r="L21" s="5"/>
+        <v>980</v>
+      </c>
+      <c r="L21" s="5">
+        <v>10000</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="2:16">
-      <c r="B22" s="5">
-        <v>920000010</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5">
-        <v>92000001</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:21">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="2:16">
+      <c r="B24" s="5">
+        <v>400000010</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5">
+        <v>40000001</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="2:16">
+      <c r="B25" s="5">
+        <v>400001010</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5">
+        <v>40000101</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="5">
+        <v>30000</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:16">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:21">
+      <c r="A27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:16">
+      <c r="B28" s="5">
+        <v>500100010</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5">
+        <v>50010001</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
         <v>70000001</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="J28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="5">
         <v>1</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L28" s="5">
         <v>5000</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="2:16">
-      <c r="B23" s="5">
-        <v>920100010</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="5">
-        <v>92010001</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="2:16">
+      <c r="B29" s="5">
+        <v>500200010</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5">
+        <v>50020001</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
         <v>70000002</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="J29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="5">
         <v>2</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L29" s="5">
         <v>5000</v>
       </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="2:16">
+      <c r="B30" s="5">
+        <v>500300010</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5">
+        <v>50030001</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
+        <v>70000001</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="5">
+        <v>501</v>
+      </c>
+      <c r="L30" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="2:16">
+      <c r="B31" s="5">
+        <v>500400010</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="5">
+        <v>50040001</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="5">
+        <v>10033</v>
+      </c>
+      <c r="L31" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="2:16">
+      <c r="B32" s="5">
+        <v>500500010</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5">
+        <v>50050001</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="5">
+        <v>10073</v>
+      </c>
+      <c r="L32" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>int#ref=TbSkillResource?</t>
   </si>
   <si>
-    <t>ESkillEffectType</t>
+    <t>EffectActionType</t>
   </si>
   <si>
     <t>##</t>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18700"/>
+    <workbookView windowWidth="28000" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -130,13 +130,58 @@
     <t>大本营子弹效果</t>
   </si>
   <si>
-    <t>防御塔子弹</t>
-  </si>
-  <si>
-    <t>防御塔子弹效果</t>
-  </si>
-  <si>
-    <t>防御塔子弹爆炸伤害</t>
+    <t>TowerCircle</t>
+  </si>
+  <si>
+    <t>TowerFlower4 增加金币1个</t>
+  </si>
+  <si>
+    <t>实时属性改变</t>
+  </si>
+  <si>
+    <t>TowerFlower5 添加攻速BUFF</t>
+  </si>
+  <si>
+    <t>TowerFlower5 攻速加成50%</t>
+  </si>
+  <si>
+    <t>TowerHexagon 子弹</t>
+  </si>
+  <si>
+    <t>TowerHexagon 子弹伤害</t>
+  </si>
+  <si>
+    <t>TowerSnowflake 子弹</t>
+  </si>
+  <si>
+    <t>TowerSnowflake 子弹伤害</t>
+  </si>
+  <si>
+    <t>TowerSnowflake 添加BUFF</t>
+  </si>
+  <si>
+    <t>TowerSnowflake 移速-20%</t>
+  </si>
+  <si>
+    <t>降低属性</t>
+  </si>
+  <si>
+    <t>TowerSquare</t>
+  </si>
+  <si>
+    <t>TowerStar 子弹</t>
+  </si>
+  <si>
+    <t>TowerStar 爆炸索敌</t>
+  </si>
+  <si>
+    <t>TowerStar 爆炸伤害</t>
+  </si>
+  <si>
+    <t>TowerTriangle 子弹</t>
+  </si>
+  <si>
+    <t>TowerTriangle 子弹伤害</t>
   </si>
   <si>
     <t>兵营A召唤</t>
@@ -145,22 +190,10 @@
     <t>召唤士兵</t>
   </si>
   <si>
-    <t>添加攻速BUFF</t>
-  </si>
-  <si>
-    <t>攻速加成100%</t>
-  </si>
-  <si>
     <t>资源塔产出资源</t>
   </si>
   <si>
     <t>随机召唤</t>
-  </si>
-  <si>
-    <t>资源塔产出金币</t>
-  </si>
-  <si>
-    <t>实时属性改变</t>
   </si>
   <si>
     <t>士兵的技能效果</t>
@@ -200,7 +233,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +264,11 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -709,137 +747,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -857,6 +895,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1190,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1225,33 +1266,33 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
@@ -1266,33 +1307,33 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="16" spans="1:21">
       <c r="A3" s="3" t="s">
@@ -1307,15 +1348,15 @@
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1579,7 +1620,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K12" s="5">
@@ -1629,7 +1670,7 @@
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>30010001</v>
       </c>
       <c r="E14" s="5"/>
@@ -1637,33 +1678,25 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="5">
-        <v>30010001</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
+      <c r="J14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:16">
       <c r="B15" s="5">
-        <v>300100011</v>
+        <v>300200010</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5">
-        <v>300100011</v>
+      <c r="D15" s="7">
+        <v>30020001</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1671,13 +1704,13 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K15" s="5">
-        <v>30010002</v>
+        <v>980</v>
       </c>
       <c r="L15" s="5">
-        <v>300100012</v>
+        <v>10000</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1686,38 +1719,39 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="2:16">
       <c r="B16" s="5">
-        <v>300100012</v>
+        <v>300300010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5">
-        <v>300100012</v>
+        <v>30030001</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="J16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="5">
+        <v>30030001</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:16">
-      <c r="B17" s="7">
-        <v>300200010</v>
+      <c r="B17" s="5">
+        <v>300300011</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>30020001</v>
+        <v>300300011</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1725,43 +1759,39 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K17" s="5">
-        <v>40031</v>
+        <v>10073</v>
       </c>
       <c r="L17" s="5">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="2:16">
       <c r="B18" s="5">
-        <v>300300010</v>
+        <v>300400010</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="5">
-        <v>30030001</v>
+      <c r="D18" s="7">
+        <v>30040001</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="7" t="s">
-        <v>27</v>
+      <c r="J18" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="K18" s="5">
-        <v>30030001</v>
+        <v>80020004</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1771,13 +1801,13 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="2:16">
       <c r="B19" s="5">
-        <v>300300011</v>
+        <v>300400011</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5">
-        <v>300300011</v>
+      <c r="D19" s="7">
+        <v>300400011</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1785,59 +1815,51 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="5">
-        <v>10073</v>
-      </c>
-      <c r="L19" s="5">
-        <v>10000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="2:16">
-      <c r="B20" s="7">
-        <v>300400010</v>
+      <c r="B20" s="5">
+        <v>300500010</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>30040001</v>
+        <v>30050001</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="5">
+        <v>80020005</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:16">
+      <c r="B21" s="5">
+        <v>300500011</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="5">
-        <v>3</v>
-      </c>
-      <c r="L20" s="5">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:16">
-      <c r="B21" s="7">
-        <v>300401010</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" s="7">
-        <v>30040101</v>
+        <v>300500011</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1845,70 +1867,80 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="5">
-        <v>980</v>
-      </c>
-      <c r="L21" s="5">
-        <v>10000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="2:16">
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
+    <row r="22" s="2" customFormat="1" ht="16" customHeight="1" spans="2:16">
+      <c r="B22" s="5">
+        <v>300500012</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="7">
+        <v>300500011</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="5">
+        <v>30050001</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:21">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+    <row r="23" s="2" customFormat="1" spans="2:16">
+      <c r="B23" s="5">
+        <v>300500013</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <v>300500013</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="K23" s="5">
+        <v>10053</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="2:16">
       <c r="B24" s="5">
-        <v>400000010</v>
+        <v>300600010</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="5">
-        <v>40000001</v>
+      <c r="D24" s="7">
+        <v>30060001</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1927,24 +1959,24 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="2:16">
       <c r="B25" s="5">
-        <v>400001010</v>
+        <v>300700010</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="5">
-        <v>40000101</v>
+      <c r="D25" s="7">
+        <v>30070001</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
-        <v>25</v>
+      <c r="J25" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="K25" s="5">
-        <v>30000</v>
+        <v>80020007</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1953,198 +1985,487 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="2:16">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="5">
+        <v>300700011</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5">
+        <v>300700011</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="5">
+        <v>97040001</v>
+      </c>
+      <c r="L26" s="5">
+        <v>300700012</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:21">
-      <c r="A27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
+    <row r="27" s="2" customFormat="1" spans="2:16">
+      <c r="B27" s="5">
+        <v>300700012</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5">
+        <v>300700012</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="2:16">
       <c r="B28" s="5">
-        <v>500100010</v>
+        <v>300800010</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="5">
-        <v>50010001</v>
+        <v>54</v>
+      </c>
+      <c r="D28" s="7">
+        <v>30080001</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5">
-        <v>70000001</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>48</v>
+      <c r="I28" s="5"/>
+      <c r="J28" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="K28" s="5">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5">
-        <v>5000</v>
-      </c>
+        <v>80020008</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="2:16">
       <c r="B29" s="5">
-        <v>500200010</v>
+        <v>300800011</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="5">
-        <v>50020001</v>
+        <v>300800011</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5">
-        <v>70000002</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="5">
-        <v>2</v>
-      </c>
-      <c r="L29" s="5">
-        <v>5000</v>
-      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="2:16">
-      <c r="B30" s="5">
-        <v>500300010</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="5">
-        <v>50030001</v>
-      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5">
-        <v>70000001</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="5">
-        <v>501</v>
-      </c>
-      <c r="L30" s="5">
-        <v>10000</v>
-      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="2:16">
-      <c r="B31" s="5">
-        <v>500400010</v>
+    <row r="31" s="2" customFormat="1" spans="1:16">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8">
+        <v>900200010</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="5">
-        <v>50040001</v>
+      <c r="D31" s="8">
+        <v>30020001</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="5">
-        <v>70000002</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>29</v>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="K31" s="5">
-        <v>10033</v>
+        <v>40031</v>
       </c>
       <c r="L31" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N31" s="5"/>
+        <v>15000</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="2:16">
-      <c r="B32" s="5">
-        <v>500500010</v>
+    <row r="32" s="2" customFormat="1" spans="1:16">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="8">
+        <v>900400010</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="5">
-        <v>50050001</v>
+        <v>58</v>
+      </c>
+      <c r="D32" s="8">
+        <v>30040001</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="5">
+        <v>3</v>
+      </c>
+      <c r="L32" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="2:16">
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:21">
+      <c r="A34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="2:16">
+      <c r="B35" s="5">
+        <v>400000010</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="5">
+        <v>40000001</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="2:16">
+      <c r="B36" s="5">
+        <v>400001010</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5">
+        <v>40000101</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="5">
+        <v>30000</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="2:16">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:21">
+      <c r="A38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="2:16">
+      <c r="B39" s="5">
+        <v>500100010</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="5">
+        <v>50010001</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5">
+        <v>70000001</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>5000</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="2:16">
+      <c r="B40" s="5">
+        <v>500200010</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="5">
+        <v>50020001</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5">
         <v>70000002</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" s="5">
+        <v>2</v>
+      </c>
+      <c r="L40" s="5">
+        <v>5000</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="2:16">
+      <c r="B41" s="5">
+        <v>500300010</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="5">
+        <v>50030001</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5">
+        <v>70000001</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="5">
+        <v>501</v>
+      </c>
+      <c r="L41" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="2:16">
+      <c r="B42" s="5">
+        <v>500400010</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="5">
+        <v>50040001</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K42" s="5">
+        <v>10033</v>
+      </c>
+      <c r="L42" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="2:16">
+      <c r="B43" s="5">
+        <v>500500010</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5">
+        <v>50050001</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="5">
         <v>10073</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L43" s="5">
         <v>10000</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15820"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -199,10 +199,16 @@
     <t>士兵的技能效果</t>
   </si>
   <si>
+    <t>死亡自爆</t>
+  </si>
+  <si>
     <t>普攻</t>
   </si>
   <si>
-    <t>死亡自爆</t>
+    <t>发射子弹</t>
+  </si>
+  <si>
+    <t>子弹效果</t>
   </si>
   <si>
     <t>使用物品的效果</t>
@@ -1231,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1245,7 +1251,7 @@
     <col min="4" max="4" width="12.1428571428571" style="2" customWidth="1"/>
     <col min="5" max="7" width="12.2053571428571" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.4732142857143" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.1964285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.9285714285714" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.8571428571429" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.1428571428571" style="2" customWidth="1"/>
@@ -2223,13 +2229,13 @@
     </row>
     <row r="35" s="2" customFormat="1" spans="2:16">
       <c r="B35" s="5">
-        <v>400000010</v>
+        <v>400001010</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="5">
-        <v>40000001</v>
+        <v>40000101</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2239,7 +2245,9 @@
       <c r="J35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="5">
+        <v>30000</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -2248,13 +2256,13 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="2:16">
       <c r="B36" s="5">
-        <v>400001010</v>
+        <v>400100010</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="5">
-        <v>40000101</v>
+        <v>40010001</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2264,9 +2272,7 @@
       <c r="J36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="5">
-        <v>30000</v>
-      </c>
+      <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -2274,118 +2280,116 @@
       <c r="P36" s="5"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="2:16">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="5">
+        <v>400200010</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="5">
+        <v>40020001</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="J37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="5">
+        <v>40020001</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:21">
-      <c r="A38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
+    <row r="38" s="2" customFormat="1" spans="2:16">
+      <c r="B38" s="5">
+        <v>400200011</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="5">
+        <v>400200011</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="2:16">
-      <c r="B39" s="5">
-        <v>500100010</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="5">
-        <v>50010001</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5">
-        <v>70000001</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="5">
-        <v>1</v>
-      </c>
-      <c r="L39" s="5">
-        <v>5000</v>
-      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="2:16">
-      <c r="B40" s="5">
-        <v>500200010</v>
-      </c>
-      <c r="C40" s="5" t="s">
+    <row r="40" s="2" customFormat="1" spans="1:21">
+      <c r="A40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="5">
-        <v>50020001</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5">
-        <v>70000002</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K40" s="5">
-        <v>2</v>
-      </c>
-      <c r="L40" s="5">
-        <v>5000</v>
-      </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="2:16">
       <c r="B41" s="5">
-        <v>500300010</v>
+        <v>500100010</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="5">
-        <v>50030001</v>
+        <v>50010001</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2398,10 +2402,10 @@
         <v>40</v>
       </c>
       <c r="K41" s="5">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="L41" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -2409,13 +2413,13 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="2:16">
       <c r="B42" s="5">
-        <v>500400010</v>
+        <v>500200010</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="5">
-        <v>50040001</v>
+        <v>50020001</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2425,13 +2429,13 @@
         <v>70000002</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K42" s="5">
-        <v>10033</v>
+        <v>2</v>
       </c>
       <c r="L42" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -2439,26 +2443,26 @@
     </row>
     <row r="43" s="2" customFormat="1" spans="2:16">
       <c r="B43" s="5">
-        <v>500500010</v>
+        <v>500300010</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="5">
-        <v>50050001</v>
+        <v>50030001</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K43" s="5">
-        <v>10073</v>
+        <v>501</v>
       </c>
       <c r="L43" s="5">
         <v>10000</v>
@@ -2466,6 +2470,66 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="2:16">
+      <c r="B44" s="5">
+        <v>500400010</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="5">
+        <v>50040001</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="5">
+        <v>10033</v>
+      </c>
+      <c r="L44" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="2:16">
+      <c r="B45" s="5">
+        <v>500500010</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50050001</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="5">
+        <v>10073</v>
+      </c>
+      <c r="L45" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1239,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1505,9 +1505,15 @@
       <c r="K7" s="5">
         <v>10010201</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
@@ -1636,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -1799,9 +1805,15 @@
       <c r="K18" s="5">
         <v>80020004</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
@@ -1851,9 +1863,15 @@
       <c r="K20" s="5">
         <v>80020005</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
@@ -1984,9 +2002,15 @@
       <c r="K25" s="5">
         <v>80020007</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
@@ -2065,9 +2089,15 @@
       <c r="K28" s="5">
         <v>80020008</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
@@ -2304,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N37" s="5">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -13,8 +13,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stone</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>注意操作参数中的数值比例：
+属性*10000
+坐标*10000
+时间：整数 单位毫秒
+角度：整数 单位度
+总则：浮点数配置都乘1万 没有浮点问题的约定好单位即可。
+比如：0.xx角度没有太大意义，所以直接配置整数度数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -106,10 +134,10 @@
     <t>增加属性</t>
   </si>
   <si>
-    <t>英雄 3目标子弹伤害</t>
-  </si>
-  <si>
-    <t>目标子弹</t>
+    <t>英雄 3跟随目标子弹伤害</t>
+  </si>
+  <si>
+    <t>目标位置子弹</t>
   </si>
   <si>
     <t>炮弹落地重新索敌</t>
@@ -127,6 +155,9 @@
     <t>大本营子弹</t>
   </si>
   <si>
+    <t>跟随目标子弹</t>
+  </si>
+  <si>
     <t>大本营子弹效果</t>
   </si>
   <si>
@@ -166,7 +197,13 @@
     <t>降低属性</t>
   </si>
   <si>
-    <t>TowerSquare</t>
+    <t>TowerSquare 子弹</t>
+  </si>
+  <si>
+    <t>固定朝向子弹</t>
+  </si>
+  <si>
+    <t>TowerSquare 子弹伤害</t>
   </si>
   <si>
     <t>TowerStar 子弹</t>
@@ -239,7 +276,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +458,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1237,10 +1279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="L7" sqref="L7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1255,7 +1297,8 @@
     <col min="10" max="10" width="20.9285714285714" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.8571428571429" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.1428571428571" style="2" customWidth="1"/>
-    <col min="13" max="21" width="9.21428571428571" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.8571428571429" style="2" customWidth="1"/>
+    <col min="14" max="21" width="9.21428571428571" style="2" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1633,7 +1676,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K12" s="5">
         <v>30000001</v>
@@ -1655,7 +1698,7 @@
         <v>300000011</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5">
         <v>300000011</v>
@@ -1680,7 +1723,7 @@
         <v>300100010</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
         <v>30010001</v>
@@ -1705,7 +1748,7 @@
         <v>300200010</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
         <v>30020001</v>
@@ -1716,7 +1759,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15" s="5">
         <v>980</v>
@@ -1734,7 +1777,7 @@
         <v>300300010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5">
         <v>30030001</v>
@@ -1760,7 +1803,7 @@
         <v>300300011</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
         <v>300300011</v>
@@ -1789,7 +1832,7 @@
         <v>300400010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
         <v>30040001</v>
@@ -1800,7 +1843,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K18" s="5">
         <v>80020004</v>
@@ -1822,7 +1865,7 @@
         <v>300400011</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7">
         <v>300400011</v>
@@ -1847,7 +1890,7 @@
         <v>300500010</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7">
         <v>30050001</v>
@@ -1858,7 +1901,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K20" s="5">
         <v>80020005</v>
@@ -1880,7 +1923,7 @@
         <v>300500011</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7">
         <v>300500011</v>
@@ -1905,7 +1948,7 @@
         <v>300500012</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
         <v>300500011</v>
@@ -1932,7 +1975,7 @@
         <v>300500013</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2">
         <v>300500013</v>
@@ -1943,7 +1986,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="5">
         <v>10053</v>
@@ -1961,7 +2004,7 @@
         <v>300600010</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7">
         <v>30060001</v>
@@ -1971,25 +2014,31 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="J24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="5">
+        <v>80020006</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>97050001</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="2:16">
       <c r="B25" s="5">
-        <v>300700010</v>
+        <v>300600011</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="7">
-        <v>30070001</v>
+        <v>30060001</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1997,164 +2046,179 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K25" s="5">
-        <v>80020007</v>
+        <v>80020006</v>
       </c>
       <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M25" s="2">
+        <v>97050001</v>
+      </c>
+      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="2:16">
       <c r="B26" s="5">
-        <v>300700011</v>
+        <v>300600012</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="5">
-        <v>300700011</v>
+        <v>51</v>
+      </c>
+      <c r="D26" s="7">
+        <v>30060001</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
-        <v>33</v>
+      <c r="J26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K26" s="5">
-        <v>97040001</v>
+        <v>80020006</v>
       </c>
       <c r="L26" s="5">
-        <v>300700012</v>
-      </c>
-      <c r="M26" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="M26" s="2">
+        <v>97050001</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="2:16">
       <c r="B27" s="5">
-        <v>300700012</v>
+        <v>300600013</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="5">
-        <v>300700012</v>
+        <v>51</v>
+      </c>
+      <c r="D27" s="7">
+        <v>30060001</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="J27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="5">
+        <v>80020006</v>
+      </c>
+      <c r="L27" s="5">
+        <v>270</v>
+      </c>
+      <c r="M27" s="2">
+        <v>97050001</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="2:16">
       <c r="B28" s="5">
-        <v>300800010</v>
+        <v>300600014</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="7">
-        <v>30080001</v>
+        <v>300600014</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="5">
-        <v>80020008</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
+      <c r="J28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="2:16">
       <c r="B29" s="5">
-        <v>300800011</v>
+        <v>300700010</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="5">
-        <v>300800011</v>
+        <v>54</v>
+      </c>
+      <c r="D29" s="7">
+        <v>30070001</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="J29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="5">
+        <v>80020007</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="2:16">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="5">
+        <v>300700011</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5">
+        <v>300700011</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="5">
+        <v>97040001</v>
+      </c>
+      <c r="L30" s="5">
+        <v>300700012</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:16">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="8">
-        <v>900200010</v>
+    <row r="31" s="2" customFormat="1" spans="2:16">
+      <c r="B31" s="5">
+        <v>300700012</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="8">
-        <v>30020001</v>
+      <c r="D31" s="5">
+        <v>300700012</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2162,110 +2226,102 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="5">
-        <v>40031</v>
-      </c>
-      <c r="L31" s="5">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:16">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="8">
-        <v>900400010</v>
+    <row r="32" s="2" customFormat="1" spans="2:16">
+      <c r="B32" s="5">
+        <v>300800010</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="8">
-        <v>30040001</v>
+        <v>57</v>
+      </c>
+      <c r="D32" s="7">
+        <v>30080001</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
-        <v>59</v>
+      <c r="J32" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="K32" s="5">
-        <v>3</v>
+        <v>80020008</v>
       </c>
       <c r="L32" s="5">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="M32" s="5">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
       </c>
+      <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="2:16">
-      <c r="B33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="5">
+        <v>300800011</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5">
+        <v>300800011</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:21">
-      <c r="A34" s="6" t="s">
+    <row r="34" s="2" customFormat="1" spans="2:16">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:16">
+      <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="2:16">
-      <c r="B35" s="5">
-        <v>400001010</v>
+      <c r="B35" s="8">
+        <v>900200010</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="5">
-        <v>40000101</v>
+        <v>59</v>
+      </c>
+      <c r="D35" s="8">
+        <v>30020001</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2273,26 +2329,35 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K35" s="5">
-        <v>30000</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+        <v>40031</v>
+      </c>
+      <c r="L35" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="2:16">
-      <c r="B36" s="5">
-        <v>400100010</v>
+    <row r="36" s="2" customFormat="1" spans="1:16">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="8">
+        <v>900400010</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="5">
-        <v>40010001</v>
+        <v>61</v>
+      </c>
+      <c r="D36" s="8">
+        <v>30040001</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2300,266 +2365,368 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3</v>
+      </c>
+      <c r="L36" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
       <c r="P36" s="5"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="2:16">
-      <c r="B37" s="5">
-        <v>400200010</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="5">
-        <v>40020001</v>
-      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
-      <c r="M37" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-      <c r="O37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="2:16">
-      <c r="B38" s="5">
-        <v>400200011</v>
-      </c>
-      <c r="C38" s="5" t="s">
+    <row r="38" s="2" customFormat="1" spans="1:21">
+      <c r="A38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="2:16">
+      <c r="B39" s="5">
+        <v>400001010</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="5">
-        <v>400200011</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="2:16">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5">
+        <v>40000101</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="5">
+        <v>30000</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:21">
-      <c r="A40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+    <row r="40" s="2" customFormat="1" spans="2:16">
+      <c r="B40" s="5">
+        <v>400100010</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
+      <c r="D40" s="5">
+        <v>40010001</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="2:16">
       <c r="B41" s="5">
-        <v>500100010</v>
+        <v>400200010</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="5">
-        <v>50010001</v>
+        <v>40020001</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5">
-        <v>70000001</v>
-      </c>
+      <c r="I41" s="5"/>
       <c r="J41" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K41" s="5">
-        <v>1</v>
+        <v>40020001</v>
       </c>
       <c r="L41" s="5">
-        <v>5000</v>
-      </c>
-      <c r="N41" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="2:16">
       <c r="B42" s="5">
-        <v>500200010</v>
+        <v>400200011</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="5">
-        <v>50020001</v>
+        <v>400200011</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="5">
-        <v>70000002</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42" s="5">
-        <v>2</v>
-      </c>
-      <c r="L42" s="5">
-        <v>5000</v>
-      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" s="2" customFormat="1" spans="2:16">
-      <c r="B43" s="5">
-        <v>500300010</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="5">
-        <v>50030001</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="5">
-        <v>70000001</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43" s="5">
-        <v>501</v>
-      </c>
-      <c r="L43" s="5">
-        <v>10000</v>
-      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="2:16">
-      <c r="B44" s="5">
-        <v>500400010</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="5">
-        <v>50040001</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5">
-        <v>70000002</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" s="5">
-        <v>10033</v>
-      </c>
-      <c r="L44" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+    <row r="44" s="2" customFormat="1" spans="1:21">
+      <c r="A44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
     </row>
     <row r="45" s="2" customFormat="1" spans="2:16">
       <c r="B45" s="5">
-        <v>500500010</v>
+        <v>500100010</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="5">
-        <v>50050001</v>
+        <v>50010001</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K45" s="5">
-        <v>10073</v>
+        <v>1</v>
       </c>
       <c r="L45" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="2:16">
+      <c r="B46" s="5">
+        <v>500200010</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="5">
+        <v>50020001</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="5">
+        <v>2</v>
+      </c>
+      <c r="L46" s="5">
+        <v>5000</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="2:16">
+      <c r="B47" s="5">
+        <v>500300010</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="5">
+        <v>50030001</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
+        <v>70000001</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="5">
+        <v>501</v>
+      </c>
+      <c r="L47" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="2:16">
+      <c r="B48" s="5">
+        <v>500400010</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="5">
+        <v>50040001</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="5">
+        <v>10033</v>
+      </c>
+      <c r="L48" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="2:16">
+      <c r="B49" s="5">
+        <v>500500010</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="5">
+        <v>50050001</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="5">
+        <v>10073</v>
+      </c>
+      <c r="L49" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2574,5 +2741,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -236,7 +236,13 @@
     <t>士兵的技能效果</t>
   </si>
   <si>
-    <t>死亡自爆</t>
+    <t>自爆伤害他人</t>
+  </si>
+  <si>
+    <t>自爆杀死自己</t>
+  </si>
+  <si>
+    <t>杀死自己</t>
   </si>
   <si>
     <t>普攻</t>
@@ -1279,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:N7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2443,9 +2449,11 @@
         <v>25</v>
       </c>
       <c r="K39" s="5">
-        <v>30000</v>
-      </c>
-      <c r="L39" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>10000</v>
+      </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -2453,13 +2461,13 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="2:16">
       <c r="B40" s="5">
-        <v>400100010</v>
+        <v>400001011</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="5">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2467,7 +2475,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -2478,72 +2486,80 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="2:16">
       <c r="B41" s="5">
-        <v>400200010</v>
+        <v>400100010</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D41" s="5">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
+      <c r="J41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="2:16">
       <c r="B42" s="5">
-        <v>400200011</v>
+        <v>400200010</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" s="5">
-        <v>400200011</v>
+        <v>40020001</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="J42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="5">
+        <v>40020001</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" s="2" customFormat="1" spans="2:16">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="5">
+        <v>400200011</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="5">
+        <v>400200011</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -2551,85 +2567,72 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:21">
-      <c r="A44" s="6" t="s">
+    <row r="44" s="2" customFormat="1" spans="2:16">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:21">
+      <c r="A45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="2:16">
-      <c r="B45" s="5">
-        <v>500100010</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="5">
-        <v>50010001</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5">
-        <v>70000001</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K45" s="5">
-        <v>1</v>
-      </c>
-      <c r="L45" s="5">
-        <v>5000</v>
-      </c>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
     </row>
     <row r="46" s="2" customFormat="1" spans="2:16">
       <c r="B46" s="5">
-        <v>500200010</v>
+        <v>500100010</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D46" s="5">
-        <v>50020001</v>
+        <v>50010001</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>41</v>
       </c>
       <c r="K46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" s="5">
         <v>5000</v>
@@ -2640,29 +2643,29 @@
     </row>
     <row r="47" s="2" customFormat="1" spans="2:16">
       <c r="B47" s="5">
-        <v>500300010</v>
+        <v>500200010</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D47" s="5">
-        <v>50030001</v>
+        <v>50020001</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>41</v>
       </c>
       <c r="K47" s="5">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="L47" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -2670,26 +2673,26 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="2:16">
       <c r="B48" s="5">
-        <v>500400010</v>
+        <v>500300010</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" s="5">
-        <v>50040001</v>
+        <v>50030001</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K48" s="5">
-        <v>10033</v>
+        <v>501</v>
       </c>
       <c r="L48" s="5">
         <v>10000</v>
@@ -2700,13 +2703,13 @@
     </row>
     <row r="49" s="2" customFormat="1" spans="2:16">
       <c r="B49" s="5">
-        <v>500500010</v>
+        <v>500400010</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" s="5">
-        <v>50050001</v>
+        <v>50040001</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -2719,7 +2722,7 @@
         <v>29</v>
       </c>
       <c r="K49" s="5">
-        <v>10073</v>
+        <v>10033</v>
       </c>
       <c r="L49" s="5">
         <v>10000</v>
@@ -2727,6 +2730,36 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="2:16">
+      <c r="B50" s="5">
+        <v>500500010</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="5">
+        <v>50050001</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="5">
+        <v>10073</v>
+      </c>
+      <c r="L50" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -1287,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="5">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -2665,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="5">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>大本营子弹效果</t>
+  </si>
+  <si>
+    <t>大本营自动子弹 爆炸索敌</t>
+  </si>
+  <si>
+    <t>大本营自动子弹 爆炸伤害</t>
   </si>
   <si>
     <t>TowerCircle</t>
@@ -1285,10 +1291,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46:L47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="$A14:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1726,13 +1732,13 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="2:16">
       <c r="B14" s="5">
-        <v>300100010</v>
+        <v>300000020</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7">
-        <v>30010001</v>
+      <c r="D14" s="5">
+        <v>300000020</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1740,10 +1746,14 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="K14" s="5">
+        <v>97040001</v>
+      </c>
+      <c r="L14" s="5">
+        <v>300000021</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1751,13 +1761,13 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:16">
       <c r="B15" s="5">
-        <v>300200010</v>
+        <v>300000021</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="7">
-        <v>30020001</v>
+      <c r="D15" s="5">
+        <v>300000021</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1765,14 +1775,10 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="5">
-        <v>980</v>
-      </c>
-      <c r="L15" s="5">
-        <v>10000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1780,25 +1786,24 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="2:16">
       <c r="B16" s="5">
-        <v>300300010</v>
+        <v>300100010</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5">
-        <v>30030001</v>
+        <v>41</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30010001</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="5">
-        <v>30030001</v>
-      </c>
+      <c r="J16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1806,13 +1811,13 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="2:16">
       <c r="B17" s="5">
-        <v>300300011</v>
+        <v>300200010</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>300300011</v>
+        <v>30020001</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1820,13 +1825,13 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K17" s="5">
-        <v>10073</v>
+        <v>980</v>
       </c>
       <c r="L17" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1835,13 +1840,13 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="2:16">
       <c r="B18" s="5">
-        <v>300400010</v>
+        <v>300300010</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>30040001</v>
+      <c r="D18" s="5">
+        <v>30030001</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1849,32 +1854,25 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K18" s="5">
-        <v>80020004</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
+        <v>30030001</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="2:16">
       <c r="B19" s="5">
-        <v>300400011</v>
+        <v>300300011</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="7">
-        <v>300400011</v>
+        <v>300300011</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1882,10 +1880,14 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="K19" s="5">
+        <v>10073</v>
+      </c>
+      <c r="L19" s="5">
+        <v>5000</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1893,13 +1895,13 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="2:16">
       <c r="B20" s="5">
-        <v>300500010</v>
+        <v>300400010</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="7">
-        <v>30050001</v>
+        <v>30040001</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1910,7 +1912,7 @@
         <v>37</v>
       </c>
       <c r="K20" s="5">
-        <v>80020005</v>
+        <v>80020004</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -1926,13 +1928,13 @@
     </row>
     <row r="21" s="2" customFormat="1" spans="2:16">
       <c r="B21" s="5">
-        <v>300500011</v>
+        <v>300400011</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>300500011</v>
+        <v>300400011</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1949,15 +1951,15 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="16" customHeight="1" spans="2:16">
+    <row r="22" s="2" customFormat="1" spans="2:16">
       <c r="B22" s="5">
-        <v>300500012</v>
+        <v>300500010</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>300500011</v>
+        <v>30050001</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1965,26 +1967,32 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K22" s="5">
-        <v>30050001</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+        <v>80020005</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="2:16">
       <c r="B23" s="5">
-        <v>300500013</v>
+        <v>300500011</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="2">
-        <v>300500013</v>
+      <c r="D23" s="7">
+        <v>300500011</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1992,28 +2000,24 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="5">
-        <v>10053</v>
-      </c>
-      <c r="L23" s="5">
-        <v>2000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="2:16">
+    <row r="24" s="2" customFormat="1" ht="16" customHeight="1" spans="2:16">
       <c r="B24" s="5">
-        <v>300600010</v>
+        <v>300500012</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7">
-        <v>30060001</v>
+        <v>300500011</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2021,58 +2025,52 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="K24" s="5">
-        <v>80020006</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>97050001</v>
-      </c>
+        <v>30050001</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="2:16">
       <c r="B25" s="5">
-        <v>300600011</v>
+        <v>300500013</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="7">
-        <v>30060001</v>
+      <c r="D25" s="2">
+        <v>300500013</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="K25" s="5">
-        <v>80020006</v>
+        <v>10053</v>
       </c>
       <c r="L25" s="5">
-        <v>90</v>
-      </c>
-      <c r="M25" s="2">
-        <v>97050001</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="2:16">
       <c r="B26" s="5">
-        <v>300600012</v>
+        <v>300600010</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7">
         <v>30060001</v>
@@ -2083,13 +2081,13 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26" s="5">
         <v>80020006</v>
       </c>
       <c r="L26" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>97050001</v>
@@ -2100,10 +2098,10 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="2:16">
       <c r="B27" s="5">
-        <v>300600013</v>
+        <v>300600011</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="7">
         <v>30060001</v>
@@ -2114,13 +2112,13 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K27" s="5">
         <v>80020006</v>
       </c>
       <c r="L27" s="5">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M27" s="2">
         <v>97050001</v>
@@ -2131,38 +2129,44 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="2:16">
       <c r="B28" s="5">
-        <v>300600014</v>
+        <v>300600012</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="7">
-        <v>300600014</v>
+        <v>30060001</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="J28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="5">
+        <v>80020006</v>
+      </c>
+      <c r="L28" s="5">
+        <v>180</v>
+      </c>
+      <c r="M28" s="2">
+        <v>97050001</v>
+      </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="2:16">
       <c r="B29" s="5">
-        <v>300700010</v>
+        <v>300600013</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="7">
-        <v>30070001</v>
+        <v>30060001</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2170,32 +2174,30 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="K29" s="5">
-        <v>80020007</v>
+        <v>80020006</v>
       </c>
       <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M29" s="2">
+        <v>97050001</v>
+      </c>
+      <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="2:16">
       <c r="B30" s="5">
-        <v>300700011</v>
+        <v>300600014</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="5">
-        <v>300700011</v>
+      <c r="D30" s="7">
+        <v>300600014</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2203,14 +2205,10 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="5">
-        <v>97040001</v>
-      </c>
-      <c r="L30" s="5">
-        <v>300700012</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2218,71 +2216,75 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="2:16">
       <c r="B31" s="5">
-        <v>300700012</v>
+        <v>300700010</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="5">
-        <v>300700012</v>
+      <c r="D31" s="7">
+        <v>30070001</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="J31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="5">
+        <v>80020007</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="2:16">
       <c r="B32" s="5">
-        <v>300800010</v>
+        <v>300700011</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="7">
-        <v>30080001</v>
+      <c r="D32" s="5">
+        <v>300700011</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="8" t="s">
-        <v>37</v>
+      <c r="J32" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="K32" s="5">
-        <v>80020008</v>
+        <v>97040001</v>
       </c>
       <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
+        <v>300700012</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="2:16">
       <c r="B33" s="5">
-        <v>300800011</v>
+        <v>300700012</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="5">
-        <v>300800011</v>
+        <v>300700012</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2300,34 +2302,47 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="2:16">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="5">
+        <v>300800010</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="7">
+        <v>30080001</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="J34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="5">
+        <v>80020008</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:16">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="8">
-        <v>900200010</v>
+    <row r="35" s="2" customFormat="1" spans="2:16">
+      <c r="B35" s="5">
+        <v>300800011</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="8">
-        <v>30020001</v>
+        <v>60</v>
+      </c>
+      <c r="D35" s="5">
+        <v>300800011</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2335,164 +2350,155 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" s="5">
-        <v>40031</v>
-      </c>
-      <c r="L35" s="5">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:16">
-      <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="8">
-        <v>900400010</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="8">
-        <v>30040001</v>
-      </c>
+    <row r="36" s="2" customFormat="1" spans="2:16">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="5">
-        <v>3</v>
-      </c>
-      <c r="L36" s="5">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="2:16">
-      <c r="B37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
+    <row r="37" s="2" customFormat="1" spans="1:16">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="8">
+        <v>900200010</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="8">
+        <v>30020001</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="5">
+        <v>40031</v>
+      </c>
+      <c r="L37" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:21">
-      <c r="A38" s="6" t="s">
+    <row r="38" s="2" customFormat="1" spans="1:16">
+      <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="8">
+        <v>900400010</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
+      <c r="D38" s="8">
+        <v>30040001</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="5">
+        <v>3</v>
+      </c>
+      <c r="L38" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="2:16">
-      <c r="B39" s="5">
-        <v>400001010</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="5">
-        <v>40000101</v>
-      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>10000</v>
-      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="2:16">
-      <c r="B40" s="5">
-        <v>400001011</v>
-      </c>
-      <c r="C40" s="5" t="s">
+    <row r="40" s="2" customFormat="1" spans="1:21">
+      <c r="A40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="5">
-        <v>40000101</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="2:16">
       <c r="B41" s="5">
-        <v>400100010</v>
+        <v>400001010</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="5">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2502,8 +2508,12 @@
       <c r="J41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>10000</v>
+      </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -2511,46 +2521,38 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="2:16">
       <c r="B42" s="5">
-        <v>400200010</v>
+        <v>400001011</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="5">
-        <v>40020001</v>
+        <v>40000101</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
+      <c r="J42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" s="2" customFormat="1" spans="2:16">
       <c r="B43" s="5">
-        <v>400200011</v>
+        <v>400100010</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="5">
-        <v>400200011</v>
+        <v>40010001</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2568,118 +2570,116 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" s="2" customFormat="1" spans="2:16">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="5">
+        <v>400200010</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="5">
+        <v>40020001</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="J44" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" s="5">
+        <v>40020001</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:21">
-      <c r="A45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
+    <row r="45" s="2" customFormat="1" spans="2:16">
+      <c r="B45" s="5">
+        <v>400200011</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="5">
+        <v>400200011</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
     </row>
     <row r="46" s="2" customFormat="1" spans="2:16">
-      <c r="B46" s="5">
-        <v>500100010</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="5">
-        <v>50010001</v>
-      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5">
-        <v>70000001</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K46" s="5">
-        <v>1</v>
-      </c>
-      <c r="L46" s="5">
-        <v>100000</v>
-      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" s="2" customFormat="1" spans="2:16">
-      <c r="B47" s="5">
-        <v>500200010</v>
-      </c>
-      <c r="C47" s="5" t="s">
+    <row r="47" s="2" customFormat="1" spans="1:21">
+      <c r="A47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="5">
-        <v>50020001</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5">
-        <v>70000002</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K47" s="5">
-        <v>2</v>
-      </c>
-      <c r="L47" s="5">
-        <v>100000</v>
-      </c>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="2:16">
       <c r="B48" s="5">
-        <v>500300010</v>
+        <v>500100010</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="5">
-        <v>50030001</v>
+        <v>50010001</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2689,13 +2689,13 @@
         <v>70000001</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K48" s="5">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="L48" s="5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -2703,13 +2703,13 @@
     </row>
     <row r="49" s="2" customFormat="1" spans="2:16">
       <c r="B49" s="5">
-        <v>500400010</v>
+        <v>500200010</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="5">
-        <v>50040001</v>
+        <v>50020001</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -2719,13 +2719,13 @@
         <v>70000002</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K49" s="5">
-        <v>10033</v>
+        <v>2</v>
       </c>
       <c r="L49" s="5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -2733,26 +2733,26 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="2:16">
       <c r="B50" s="5">
-        <v>500500010</v>
+        <v>500300010</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D50" s="5">
-        <v>50050001</v>
+        <v>50030001</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K50" s="5">
-        <v>10073</v>
+        <v>501</v>
       </c>
       <c r="L50" s="5">
         <v>10000</v>
@@ -2760,6 +2760,66 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="2:16">
+      <c r="B51" s="5">
+        <v>500400010</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="5">
+        <v>50040001</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="5">
+        <v>10033</v>
+      </c>
+      <c r="L51" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="2:16">
+      <c r="B52" s="5">
+        <v>500500010</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="5">
+        <v>50050001</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="5">
+        <v>10073</v>
+      </c>
+      <c r="L52" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="15820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -41,8 +42,36 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stone</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>注意操作参数中的数值比例：
+属性*10000
+坐标*10000
+时间：整数 单位毫秒
+角度：整数 单位度
+总则：浮点数配置都乘1万 没有浮点问题的约定好单位即可。
+比如：0.xx角度没有太大意义，所以直接配置整数度数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -161,7 +190,7 @@
     <t>大本营子弹效果</t>
   </si>
   <si>
-    <t>大本营自动子弹 爆炸索敌</t>
+    <t>大本营自动子弹 爆炸重新索敌</t>
   </si>
   <si>
     <t>大本营自动子弹 爆炸伤害</t>
@@ -215,7 +244,7 @@
     <t>TowerStar 子弹</t>
   </si>
   <si>
-    <t>TowerStar 爆炸索敌</t>
+    <t>TowerStar 爆炸重新索敌</t>
   </si>
   <si>
     <t>TowerStar 爆炸伤害</t>
@@ -276,6 +305,39 @@
   </si>
   <si>
     <t>攻速+100%</t>
+  </si>
+  <si>
+    <t>特殊说明</t>
+  </si>
+  <si>
+    <t>子弹ID</t>
+  </si>
+  <si>
+    <t>索敌ID</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Y轴发射角度</t>
+  </si>
+  <si>
+    <t>一次直线索敌再根据距离判定命中 适用于速度快的子弹，无需配置飞行距离，它由索敌范围确定</t>
+  </si>
+  <si>
+    <t>固定朝向子弹2</t>
+  </si>
+  <si>
+    <t>[飞行距离] 缺省万米</t>
+  </si>
+  <si>
+    <t>实时碰撞检测，避免海量使用该类型子弹，适用于速度慢的子弹</t>
   </si>
 </sst>
 </file>
@@ -288,7 +350,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,7 +359,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -310,15 +378,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -807,169 +882,187 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,1533 +1386,1574 @@
   <sheetPr/>
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.2142857142857" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.7857142857143" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1428571428571" style="2" customWidth="1"/>
-    <col min="5" max="7" width="12.2053571428571" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.4732142857143" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.9285714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.8571428571429" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.1428571428571" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.8571428571429" style="2" customWidth="1"/>
-    <col min="14" max="21" width="9.21428571428571" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.2142857142857" style="9" customWidth="1"/>
+    <col min="3" max="3" width="29.7857142857143" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.1428571428571" style="9" customWidth="1"/>
+    <col min="5" max="7" width="12.2053571428571" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.4732142857143" style="9" customWidth="1"/>
+    <col min="9" max="9" width="25" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.9285714285714" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.8571428571429" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.1428571428571" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.8571428571429" style="9" customWidth="1"/>
+    <col min="14" max="15" width="9.21428571428571" style="9" customWidth="1"/>
+    <col min="16" max="16" width="11.1607142857143" style="9" customWidth="1"/>
+    <col min="17" max="21" width="9.21428571428571" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.8571428571429" style="9"/>
+    <col min="23" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="16" spans="1:21">
-      <c r="A3" s="3" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="16" spans="1:21">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:16">
-      <c r="B4" s="5">
+    <row r="4" s="9" customFormat="1" spans="2:16">
+      <c r="B4" s="11">
         <v>100100010</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="11">
         <v>10010001</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="11">
         <v>40000</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:16">
-      <c r="B5" s="5">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="2:16">
+      <c r="B5" s="11">
         <v>100101010</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>10010101</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="11">
         <v>10010101</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:16">
-      <c r="B6" s="5">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="2:16">
+      <c r="B6" s="11">
         <v>100101011</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="11">
         <v>100101011</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="11">
         <v>10073</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="11">
         <v>5000</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:16">
-      <c r="B7" s="5">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="2:16">
+      <c r="B7" s="11">
         <v>100102010</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="11">
         <v>10010201</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="11">
         <v>10010201</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="11">
         <v>0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="11">
         <v>10000</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="11">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:16">
-      <c r="B8" s="5">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" s="9" customFormat="1" spans="2:16">
+      <c r="B8" s="11">
         <v>100102011</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="11">
         <v>100102011</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="11">
         <v>10010202</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="11">
         <v>100102012</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:16">
-      <c r="B9" s="5">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="2:16">
+      <c r="B9" s="11">
         <v>100102012</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <v>100102012</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="11">
         <v>20000</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:16">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:21">
-      <c r="A11" s="6" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="2:16">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:21">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:16">
-      <c r="B12" s="5">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" s="9" customFormat="1" spans="2:16">
+      <c r="B12" s="11">
         <v>300000010</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="11">
         <v>30000001</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="8" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="11">
         <v>30000001</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="11">
         <v>20000</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="11">
         <v>0</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:16">
-      <c r="B13" s="5">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" s="9" customFormat="1" spans="2:16">
+      <c r="B13" s="11">
         <v>300000011</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="11">
         <v>300000011</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:16">
-      <c r="B14" s="5">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" s="9" customFormat="1" spans="2:16">
+      <c r="B14" s="11">
         <v>300000020</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="11">
         <v>300000020</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="11">
         <v>97040001</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="11">
         <v>300000021</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:16">
-      <c r="B15" s="5">
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" s="9" customFormat="1" spans="2:16">
+      <c r="B15" s="11">
         <v>300000021</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="11">
         <v>300000021</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:16">
-      <c r="B16" s="5">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" s="9" customFormat="1" spans="2:16">
+      <c r="B16" s="11">
         <v>300100010</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="13">
         <v>30010001</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:16">
-      <c r="B17" s="5">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" s="9" customFormat="1" spans="2:16">
+      <c r="B17" s="11">
         <v>300200010</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="13">
         <v>30020001</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="11">
         <v>980</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="11">
         <v>10000</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="2:16">
-      <c r="B18" s="5">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" s="9" customFormat="1" spans="2:16">
+      <c r="B18" s="11">
         <v>300300010</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="11">
         <v>30030001</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="8" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="11">
         <v>30030001</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="2:16">
-      <c r="B19" s="5">
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" s="9" customFormat="1" spans="2:16">
+      <c r="B19" s="11">
         <v>300300011</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="13">
         <v>300300011</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="11">
         <v>10073</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="11">
         <v>5000</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="2:16">
-      <c r="B20" s="5">
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" s="9" customFormat="1" spans="2:16">
+      <c r="B20" s="11">
         <v>300400010</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="13">
         <v>30040001</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="8" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="11">
         <v>80020004</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="11">
         <v>0</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="11">
         <v>10000</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="11">
         <v>0</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="2:16">
-      <c r="B21" s="5">
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" s="9" customFormat="1" spans="2:16">
+      <c r="B21" s="11">
         <v>300400011</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="13">
         <v>300400011</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="2:16">
-      <c r="B22" s="5">
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" s="9" customFormat="1" spans="2:16">
+      <c r="B22" s="11">
         <v>300500010</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="13">
         <v>30050001</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="8" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="11">
         <v>80020005</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="11">
         <v>0</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="11">
         <v>10000</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="11">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="2:16">
-      <c r="B23" s="5">
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" s="9" customFormat="1" spans="2:16">
+      <c r="B23" s="11">
         <v>300500011</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="13">
         <v>300500011</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="16" customHeight="1" spans="2:16">
-      <c r="B24" s="5">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" s="9" customFormat="1" ht="16" customHeight="1" spans="2:16">
+      <c r="B24" s="11">
         <v>300500012</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="13">
         <v>300500011</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="8" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="11">
         <v>30050001</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="2:16">
-      <c r="B25" s="5">
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" s="9" customFormat="1" spans="2:16">
+      <c r="B25" s="11">
         <v>300500013</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="9">
         <v>300500013</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="11">
         <v>10053</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="11">
         <v>2000</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="2:16">
-      <c r="B26" s="5">
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" s="9" customFormat="1" spans="2:17">
+      <c r="B26" s="11">
         <v>300600010</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="13">
         <v>30060001</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="8" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="11">
         <v>80020006</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="9">
+        <v>97050001</v>
+      </c>
+      <c r="M26" s="11">
         <v>0</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="11">
+        <v>5000</v>
+      </c>
+      <c r="O26" s="11">
+        <v>5000</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" s="9" customFormat="1" spans="2:17">
+      <c r="B27" s="11">
+        <v>300600011</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="13">
+        <v>30060001</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="11">
+        <v>80020006</v>
+      </c>
+      <c r="L27" s="9">
         <v>97050001</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="2:16">
-      <c r="B27" s="5">
-        <v>300600011</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="M27" s="11">
+        <v>5000</v>
+      </c>
+      <c r="N27" s="11">
+        <v>5000</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>90</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" s="9" customFormat="1" spans="2:17">
+      <c r="B28" s="11">
+        <v>300600012</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="13">
         <v>30060001</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="8" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K28" s="11">
         <v>80020006</v>
       </c>
-      <c r="L27" s="5">
-        <v>90</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="L28" s="9">
         <v>97050001</v>
       </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="2:16">
-      <c r="B28" s="5">
-        <v>300600012</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>5000</v>
+      </c>
+      <c r="O28" s="11">
+        <v>-5000</v>
+      </c>
+      <c r="P28" s="9">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" s="9" customFormat="1" spans="2:17">
+      <c r="B29" s="11">
+        <v>300600013</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="13">
         <v>30060001</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="8" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K29" s="11">
         <v>80020006</v>
       </c>
-      <c r="L28" s="5">
-        <v>180</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="L29" s="9">
         <v>97050001</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="2:16">
-      <c r="B29" s="5">
-        <v>300600013</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="7">
-        <v>30060001</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="5">
-        <v>80020006</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="M29" s="11">
+        <v>-5000</v>
+      </c>
+      <c r="N29" s="11">
+        <v>5000</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
         <v>270</v>
       </c>
-      <c r="M29" s="2">
-        <v>97050001</v>
-      </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="2:16">
-      <c r="B30" s="5">
+      <c r="Q29" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" s="9" customFormat="1" spans="2:16">
+      <c r="B30" s="11">
         <v>300600014</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="13">
         <v>300600014</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="2:16">
-      <c r="B31" s="5">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" s="9" customFormat="1" spans="2:21">
+      <c r="B31" s="11">
         <v>300700010</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="13">
         <v>30070001</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="8" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="11">
         <v>80020007</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="11">
         <v>0</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="11">
         <v>10000</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="11">
         <v>0</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="2:16">
-      <c r="B32" s="5">
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="U31" s="11"/>
+    </row>
+    <row r="32" s="9" customFormat="1" spans="2:21">
+      <c r="B32" s="11">
         <v>300700011</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="11">
         <v>300700011</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="11">
         <v>97040001</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="11">
         <v>300700012</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="2:16">
-      <c r="B33" s="5">
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+    </row>
+    <row r="33" s="9" customFormat="1" spans="2:15">
+      <c r="B33" s="11">
         <v>300700012</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="11">
         <v>300700012</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="2:16">
-      <c r="B34" s="5">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" s="9" customFormat="1" spans="2:16">
+      <c r="B34" s="11">
         <v>300800010</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="13">
         <v>30080001</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="8" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="11">
         <v>80020008</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="11">
         <v>0</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="11">
         <v>10000</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="11">
         <v>0</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="2:16">
-      <c r="B35" s="5">
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="2:16">
+      <c r="B35" s="11">
         <v>300800011</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="11">
         <v>300800011</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="2:16">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:16">
-      <c r="A37" s="2" t="s">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" s="9" customFormat="1" spans="2:16">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" s="9" customFormat="1" spans="1:16">
+      <c r="A37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="14">
         <v>900200010</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="14">
         <v>30020001</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="11">
         <v>40031</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="11">
         <v>15000</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="11">
         <v>0</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="11">
         <v>0</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:16">
-      <c r="A38" s="2" t="s">
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" s="9" customFormat="1" spans="1:16">
+      <c r="A38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="14">
         <v>900400010</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="14">
         <v>30040001</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="11">
         <v>3</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="11">
         <v>15000</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="11">
         <v>0</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="11">
         <v>0</v>
       </c>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="2:16">
-      <c r="B39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:21">
-      <c r="A40" s="6" t="s">
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" s="9" customFormat="1" spans="2:16">
+      <c r="B39" s="14"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" s="9" customFormat="1" spans="1:21">
+      <c r="A40" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="2:16">
-      <c r="B41" s="5">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+    </row>
+    <row r="41" s="9" customFormat="1" spans="2:16">
+      <c r="B41" s="11">
         <v>400001010</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="11">
         <v>40000101</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="11">
         <v>0</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="11">
         <v>10000</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="2:16">
-      <c r="B42" s="5">
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" s="9" customFormat="1" spans="2:16">
+      <c r="B42" s="11">
         <v>400001011</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="11">
         <v>40000101</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="2:16">
-      <c r="B43" s="5">
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" s="9" customFormat="1" spans="2:16">
+      <c r="B43" s="11">
         <v>400100010</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="11">
         <v>40010001</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="2:16">
-      <c r="B44" s="5">
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" s="9" customFormat="1" spans="2:16">
+      <c r="B44" s="11">
         <v>400200010</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="11">
         <v>40020001</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="8" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="11">
         <v>40020001</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="11">
         <v>0</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="11">
         <v>10000</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="11">
         <v>0</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="2:16">
-      <c r="B45" s="5">
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" s="9" customFormat="1" spans="2:16">
+      <c r="B45" s="11">
         <v>400200011</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="11">
         <v>400200011</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-    </row>
-    <row r="46" s="2" customFormat="1" spans="2:16">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="1:21">
-      <c r="A47" s="6" t="s">
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" s="9" customFormat="1" spans="2:16">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" s="9" customFormat="1" spans="1:21">
+      <c r="A47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="2:16">
-      <c r="B48" s="5">
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+    </row>
+    <row r="48" s="9" customFormat="1" spans="2:16">
+      <c r="B48" s="11">
         <v>500100010</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="11">
         <v>50010001</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11">
         <v>70000001</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="11">
         <v>1</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="11">
         <v>100000</v>
       </c>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="2:16">
-      <c r="B49" s="5">
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" s="9" customFormat="1" spans="2:16">
+      <c r="B49" s="11">
         <v>500200010</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="11">
         <v>50020001</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11">
         <v>70000002</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="11">
         <v>2</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="11">
         <v>100000</v>
       </c>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="2:16">
-      <c r="B50" s="5">
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" s="9" customFormat="1" spans="2:16">
+      <c r="B50" s="11">
         <v>500300010</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="11">
         <v>50030001</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11">
         <v>70000001</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="11">
         <v>501</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="11">
         <v>10000</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="2:16">
-      <c r="B51" s="5">
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" s="9" customFormat="1" spans="2:16">
+      <c r="B51" s="11">
         <v>500400010</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="11">
         <v>50040001</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11">
         <v>70000002</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="11">
         <v>10033</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="11">
         <v>10000</v>
       </c>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="2:16">
-      <c r="B52" s="5">
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" s="9" customFormat="1" spans="2:16">
+      <c r="B52" s="11">
         <v>500500010</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="11">
         <v>50050001</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11">
         <v>70000002</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="11">
         <v>10073</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="11">
         <v>10000</v>
       </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2836,4 +2970,116 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="15.0714285714286" style="1" customWidth="1"/>
+    <col min="2" max="7" width="12.6517857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.14285714285714" style="1"/>
+    <col min="10" max="10" width="100" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1160714285714" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="J2" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820" activeTab="1"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -187,13 +187,16 @@
     <t>跟随目标子弹</t>
   </si>
   <si>
-    <t>大本营子弹效果</t>
-  </si>
-  <si>
-    <t>大本营自动子弹 爆炸重新索敌</t>
-  </si>
-  <si>
-    <t>大本营自动子弹 爆炸伤害</t>
+    <t>大本营自动子弹伤害</t>
+  </si>
+  <si>
+    <t>大本营手动子弹1伤害</t>
+  </si>
+  <si>
+    <t>大本营手动子弹2 爆炸重新索敌</t>
+  </si>
+  <si>
+    <t>大本营自动子弹2 爆炸伤害</t>
   </si>
   <si>
     <t>TowerCircle</t>
@@ -313,21 +316,21 @@
     <t>子弹ID</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Y轴发射角度</t>
+  </si>
+  <si>
     <t>索敌ID</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Y轴发射角度</t>
-  </si>
-  <si>
     <t>一次直线索敌再根据距离判定命中 适用于速度快的子弹，无需配置飞行距离，它由索敌范围确定</t>
   </si>
   <si>
@@ -337,7 +340,7 @@
     <t>[飞行距离] 缺省万米</t>
   </si>
   <si>
-    <t>实时碰撞检测，避免海量使用该类型子弹，适用于速度慢的子弹</t>
+    <t>实时碰撞检测，不需要索敌ID，避免海量使用该类型子弹，适用于速度慢的子弹</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,9 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,37 +1384,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26:Q29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.2142857142857" style="9" customWidth="1"/>
-    <col min="3" max="3" width="29.7857142857143" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.1428571428571" style="9" customWidth="1"/>
-    <col min="5" max="7" width="12.2053571428571" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.4732142857143" style="9" customWidth="1"/>
-    <col min="9" max="9" width="25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.9285714285714" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.8571428571429" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.1428571428571" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.8571428571429" style="9" customWidth="1"/>
-    <col min="14" max="15" width="9.21428571428571" style="9" customWidth="1"/>
-    <col min="16" max="16" width="11.1607142857143" style="9" customWidth="1"/>
-    <col min="17" max="21" width="9.21428571428571" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.8571428571429" style="9"/>
-    <col min="23" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="8" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.2142857142857" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29.7857142857143" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.1428571428571" style="8" customWidth="1"/>
+    <col min="5" max="7" width="12.2053571428571" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.4732142857143" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.9285714285714" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.8571428571429" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12.1428571428571" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.8571428571429" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.21428571428571" style="8" customWidth="1"/>
+    <col min="16" max="16" width="11.1607142857143" style="8" customWidth="1"/>
+    <col min="17" max="17" width="10.8571428571429" style="8" customWidth="1"/>
+    <col min="18" max="21" width="9.21428571428571" style="8" customWidth="1"/>
+    <col min="22" max="22" width="10.8571428571429" style="8"/>
+    <col min="23" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1423,39 +1424,39 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1464,39 +1465,39 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="16" spans="1:21">
-      <c r="A3" s="10" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="16" spans="1:21">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1505,15 +1506,15 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1553,1407 +1554,1416 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="2:16">
-      <c r="B4" s="11">
+    <row r="4" s="8" customFormat="1" spans="2:16">
+      <c r="B4" s="10">
         <v>100100010</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>10010001</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>40000</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="2:16">
-      <c r="B5" s="11">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="2:16">
+      <c r="B5" s="10">
         <v>100101010</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>10010101</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>10010101</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="2:16">
-      <c r="B6" s="11">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="2:16">
+      <c r="B6" s="10">
         <v>100101011</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>100101011</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>10073</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>5000</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="2:16">
-      <c r="B7" s="11">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="2:16">
+      <c r="B7" s="10">
         <v>100102010</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>10010201</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>10010201</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>10000</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>0</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="2:16">
-      <c r="B8" s="11">
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="2:16">
+      <c r="B8" s="10">
         <v>100102011</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>100102011</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>10010202</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>100102012</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="2:16">
-      <c r="B9" s="11">
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="2:16">
+      <c r="B9" s="10">
         <v>100102012</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>100102012</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>20000</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="2:16">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" s="9" customFormat="1" spans="1:21">
-      <c r="A11" s="12" t="s">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="2:16">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:21">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-    </row>
-    <row r="12" s="9" customFormat="1" spans="2:16">
-      <c r="B12" s="11">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="2:16">
+      <c r="B12" s="10">
         <v>300000010</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>30000001</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="14" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>30000001</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>0</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>20000</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" s="9" customFormat="1" spans="2:16">
-      <c r="B13" s="11">
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" s="8" customFormat="1" spans="2:16">
+      <c r="B13" s="10">
         <v>300000011</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>300000011</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" s="9" customFormat="1" spans="2:16">
-      <c r="B14" s="11">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="10">
         <v>300000020</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>300000020</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="2:16">
+      <c r="B15" s="10">
+        <v>300000030</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="10">
+        <v>300000030</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="10">
+        <v>97040003</v>
+      </c>
+      <c r="L15" s="10">
+        <v>300000031</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="2:16">
+      <c r="B16" s="10">
+        <v>300000031</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10">
+        <v>300000031</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="2:16">
+      <c r="B17" s="10">
+        <v>300100010</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="12">
+        <v>30010001</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="2:16">
+      <c r="B18" s="10">
+        <v>300200010</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="12">
+        <v>30020001</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="10">
+        <v>980</v>
+      </c>
+      <c r="L18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="2:16">
+      <c r="B19" s="10">
+        <v>300300010</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10">
+        <v>30030001</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="10">
+        <v>30030001</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="2:16">
+      <c r="B20" s="10">
+        <v>300300011</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="12">
+        <v>300300011</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="10">
+        <v>10073</v>
+      </c>
+      <c r="L20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="2:16">
+      <c r="B21" s="10">
+        <v>300400010</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="12">
+        <v>30040001</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="10">
+        <v>80020004</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="2:16">
+      <c r="B22" s="10">
+        <v>300400011</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="12">
+        <v>300400011</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="2:16">
+      <c r="B23" s="10">
+        <v>300500010</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="12">
+        <v>30050001</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="10">
+        <v>80020005</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="2:16">
+      <c r="B24" s="10">
+        <v>300500011</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="12">
+        <v>300500011</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" s="8" customFormat="1" ht="16" customHeight="1" spans="2:16">
+      <c r="B25" s="10">
+        <v>300500012</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="12">
+        <v>300500011</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="10">
+        <v>30050001</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="2:16">
+      <c r="B26" s="10">
+        <v>300500013</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="8">
+        <v>300500013</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="10">
+        <v>10053</v>
+      </c>
+      <c r="L26" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="2:16">
+      <c r="B27" s="10">
+        <v>300600010</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="12">
+        <v>30060001</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="10">
+        <v>80020006</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N27" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="2:16">
+      <c r="B28" s="10">
+        <v>300600011</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="12">
+        <v>30060001</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="10">
+        <v>80020006</v>
+      </c>
+      <c r="L28" s="10">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>90</v>
+      </c>
+      <c r="P28" s="8">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="2:16">
+      <c r="B29" s="10">
+        <v>300600012</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="12">
+        <v>30060001</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="10">
+        <v>80020006</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N29" s="10">
+        <v>-5000</v>
+      </c>
+      <c r="O29" s="8">
+        <v>180</v>
+      </c>
+      <c r="P29" s="8">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="2:16">
+      <c r="B30" s="10">
+        <v>300600013</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="12">
+        <v>30060001</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="10">
+        <v>80020006</v>
+      </c>
+      <c r="L30" s="10">
+        <v>-5000</v>
+      </c>
+      <c r="M30" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <v>270</v>
+      </c>
+      <c r="P30" s="8">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="2:16">
+      <c r="B31" s="10">
+        <v>300600014</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="12">
+        <v>300600014</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="2:21">
+      <c r="B32" s="10">
+        <v>300700010</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="12">
+        <v>30070001</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="10">
+        <v>80020007</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="U32" s="10"/>
+    </row>
+    <row r="33" s="8" customFormat="1" spans="2:21">
+      <c r="B33" s="10">
+        <v>300700011</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="10">
+        <v>300700011</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="10">
         <v>97040001</v>
       </c>
-      <c r="L14" s="11">
-        <v>300000021</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" s="9" customFormat="1" spans="2:16">
-      <c r="B15" s="11">
-        <v>300000021</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="11">
-        <v>300000021</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
+      <c r="L33" s="10">
+        <v>300700012</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+    </row>
+    <row r="34" s="8" customFormat="1" spans="2:15">
+      <c r="B34" s="10">
+        <v>300700012</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="10">
+        <v>300700012</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" s="9" customFormat="1" spans="2:16">
-      <c r="B16" s="11">
-        <v>300100010</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="13">
-        <v>30010001</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="2:16">
+      <c r="B35" s="10">
+        <v>300800010</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="12">
+        <v>30080001</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="10">
+        <v>80020008</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="2:16">
+      <c r="B36" s="10">
+        <v>300800011</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="10">
+        <v>300800011</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="2:16">
-      <c r="B17" s="11">
-        <v>300200010</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" s="8" customFormat="1" spans="2:16">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:16">
+      <c r="A38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="13">
+        <v>900200010</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="13">
         <v>30020001</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="11">
-        <v>980</v>
-      </c>
-      <c r="L17" s="11">
-        <v>10000</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="2:16">
-      <c r="B18" s="11">
-        <v>300300010</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="11">
-        <v>30030001</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="11">
-        <v>30030001</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" s="9" customFormat="1" spans="2:16">
-      <c r="B19" s="11">
-        <v>300300011</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="13">
-        <v>300300011</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="11">
-        <v>10073</v>
-      </c>
-      <c r="L19" s="11">
-        <v>5000</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" s="9" customFormat="1" spans="2:16">
-      <c r="B20" s="11">
-        <v>300400010</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="10">
+        <v>40031</v>
+      </c>
+      <c r="L38" s="10">
+        <v>15000</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:16">
+      <c r="A39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="13">
+        <v>900400010</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="13">
         <v>30040001</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="11">
-        <v>80020004</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="10">
+        <v>3</v>
+      </c>
+      <c r="L39" s="10">
+        <v>15000</v>
+      </c>
+      <c r="M39" s="10">
         <v>0</v>
       </c>
-      <c r="M20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="N20" s="11">
+      <c r="N39" s="10">
         <v>0</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" s="9" customFormat="1" spans="2:16">
-      <c r="B21" s="11">
-        <v>300400011</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="13">
-        <v>300400011</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" s="9" customFormat="1" spans="2:16">
-      <c r="B22" s="11">
-        <v>300500010</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="13">
-        <v>30050001</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="11">
-        <v>80020005</v>
-      </c>
-      <c r="L22" s="11">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" s="9" customFormat="1" spans="2:16">
-      <c r="B23" s="11">
-        <v>300500011</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="13">
-        <v>300500011</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" s="9" customFormat="1" ht="16" customHeight="1" spans="2:16">
-      <c r="B24" s="11">
-        <v>300500012</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="13">
-        <v>300500011</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="11">
-        <v>30050001</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" s="9" customFormat="1" spans="2:16">
-      <c r="B25" s="11">
-        <v>300500013</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="9">
-        <v>300500013</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="11">
-        <v>10053</v>
-      </c>
-      <c r="L25" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" s="9" customFormat="1" spans="2:17">
-      <c r="B26" s="11">
-        <v>300600010</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="13">
-        <v>30060001</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="11">
-        <v>80020006</v>
-      </c>
-      <c r="L26" s="9">
-        <v>97050001</v>
-      </c>
-      <c r="M26" s="11">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
-        <v>5000</v>
-      </c>
-      <c r="O26" s="11">
-        <v>5000</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" s="9" customFormat="1" spans="2:17">
-      <c r="B27" s="11">
-        <v>300600011</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="13">
-        <v>30060001</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="11">
-        <v>80020006</v>
-      </c>
-      <c r="L27" s="9">
-        <v>97050001</v>
-      </c>
-      <c r="M27" s="11">
-        <v>5000</v>
-      </c>
-      <c r="N27" s="11">
-        <v>5000</v>
-      </c>
-      <c r="O27" s="11">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <v>90</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="28" s="9" customFormat="1" spans="2:17">
-      <c r="B28" s="11">
-        <v>300600012</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="13">
-        <v>30060001</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="11">
-        <v>80020006</v>
-      </c>
-      <c r="L28" s="9">
-        <v>97050001</v>
-      </c>
-      <c r="M28" s="11">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11">
-        <v>5000</v>
-      </c>
-      <c r="O28" s="11">
-        <v>-5000</v>
-      </c>
-      <c r="P28" s="9">
-        <v>180</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="29" s="9" customFormat="1" spans="2:17">
-      <c r="B29" s="11">
-        <v>300600013</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="13">
-        <v>30060001</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="11">
-        <v>80020006</v>
-      </c>
-      <c r="L29" s="9">
-        <v>97050001</v>
-      </c>
-      <c r="M29" s="11">
-        <v>-5000</v>
-      </c>
-      <c r="N29" s="11">
-        <v>5000</v>
-      </c>
-      <c r="O29" s="11">
-        <v>0</v>
-      </c>
-      <c r="P29" s="11">
-        <v>270</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="30" s="9" customFormat="1" spans="2:16">
-      <c r="B30" s="11">
-        <v>300600014</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="13">
-        <v>300600014</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" s="9" customFormat="1" spans="2:21">
-      <c r="B31" s="11">
-        <v>300700010</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="13">
-        <v>30070001</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="11">
-        <v>80020007</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
-        <v>10000</v>
-      </c>
-      <c r="N31" s="11">
-        <v>0</v>
-      </c>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="U31" s="11"/>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="2:21">
-      <c r="B32" s="11">
-        <v>300700011</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="11">
-        <v>300700011</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="11">
-        <v>97040001</v>
-      </c>
-      <c r="L32" s="11">
-        <v>300700012</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="2:15">
-      <c r="B33" s="11">
-        <v>300700012</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="11">
-        <v>300700012</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="2:16">
-      <c r="B34" s="11">
-        <v>300800010</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="13">
-        <v>30080001</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="11">
-        <v>80020008</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>10000</v>
-      </c>
-      <c r="N34" s="11">
-        <v>0</v>
-      </c>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="2:16">
-      <c r="B35" s="11">
-        <v>300800011</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="11">
-        <v>300800011</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" s="9" customFormat="1" spans="2:16">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" s="9" customFormat="1" spans="1:16">
-      <c r="A37" s="9" t="s">
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" s="8" customFormat="1" spans="2:16">
+      <c r="B40" s="13"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" s="8" customFormat="1" spans="1:21">
+      <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="14">
-        <v>900200010</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="14">
-        <v>30020001</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="11">
-        <v>40031</v>
-      </c>
-      <c r="L37" s="11">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="11">
-        <v>0</v>
-      </c>
-      <c r="N37" s="11">
-        <v>0</v>
-      </c>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" s="9" customFormat="1" spans="1:16">
-      <c r="A38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="14">
-        <v>900400010</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="14">
-        <v>30040001</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K38" s="11">
-        <v>3</v>
-      </c>
-      <c r="L38" s="11">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-      <c r="N38" s="11">
-        <v>0</v>
-      </c>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" s="9" customFormat="1" spans="2:16">
-      <c r="B39" s="14"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" s="9" customFormat="1" spans="1:21">
-      <c r="A40" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-    </row>
-    <row r="41" s="9" customFormat="1" spans="2:16">
-      <c r="B41" s="11">
-        <v>400001010</v>
-      </c>
+      <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="11">
-        <v>40000101</v>
-      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11">
-        <v>10000</v>
-      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-    </row>
-    <row r="42" s="9" customFormat="1" spans="2:16">
-      <c r="B42" s="11">
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+    </row>
+    <row r="42" s="8" customFormat="1" spans="2:16">
+      <c r="B42" s="10">
+        <v>400001010</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="10">
+        <v>40000101</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" s="8" customFormat="1" spans="2:16">
+      <c r="B43" s="10">
         <v>400001011</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="11">
+      <c r="C43" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="10">
         <v>40000101</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" s="9" customFormat="1" spans="2:16">
-      <c r="B43" s="11">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" s="8" customFormat="1" spans="2:16">
+      <c r="B44" s="10">
         <v>400100010</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="11">
+      <c r="C44" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="10">
         <v>40010001</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-    </row>
-    <row r="44" s="9" customFormat="1" spans="2:16">
-      <c r="B44" s="11">
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+    </row>
+    <row r="45" s="8" customFormat="1" spans="2:16">
+      <c r="B45" s="10">
         <v>400200010</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="11">
+      <c r="C45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="10">
         <v>40020001</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="14" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K45" s="10">
         <v>40020001</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L45" s="10">
         <v>0</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M45" s="10">
         <v>10000</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N45" s="10">
         <v>0</v>
       </c>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" s="9" customFormat="1" spans="2:16">
-      <c r="B45" s="11">
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+    </row>
+    <row r="46" s="8" customFormat="1" spans="2:16">
+      <c r="B46" s="10">
         <v>400200011</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="11">
+      <c r="C46" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="10">
         <v>400200011</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" s="9" customFormat="1" spans="2:16">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" s="9" customFormat="1" spans="1:21">
-      <c r="A47" s="12" t="s">
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+    </row>
+    <row r="47" s="8" customFormat="1" spans="2:16">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+    </row>
+    <row r="48" s="8" customFormat="1" spans="1:21">
+      <c r="A48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-    </row>
-    <row r="48" s="9" customFormat="1" spans="2:16">
-      <c r="B48" s="11">
-        <v>500100010</v>
-      </c>
+      <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="11">
-        <v>50010001</v>
-      </c>
+      <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="11">
-        <v>70000001</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="11">
-        <v>1</v>
-      </c>
-      <c r="L48" s="11">
-        <v>100000</v>
-      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-    </row>
-    <row r="49" s="9" customFormat="1" spans="2:16">
-      <c r="B49" s="11">
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="2:16">
+      <c r="B49" s="10">
+        <v>500100010</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="10">
+        <v>50010001</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10">
+        <v>70000001</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="10">
+        <v>1</v>
+      </c>
+      <c r="L49" s="10">
+        <v>100000</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+    </row>
+    <row r="50" s="8" customFormat="1" spans="2:16">
+      <c r="B50" s="10">
         <v>500200010</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="11">
+      <c r="C50" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="10">
         <v>50020001</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10">
         <v>70000002</v>
       </c>
-      <c r="J49" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="11">
+      <c r="J50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="10">
         <v>2</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L50" s="10">
         <v>100000</v>
       </c>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" s="9" customFormat="1" spans="2:16">
-      <c r="B50" s="11">
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+    </row>
+    <row r="51" s="8" customFormat="1" spans="2:16">
+      <c r="B51" s="10">
         <v>500300010</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="C51" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="10">
         <v>50030001</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10">
         <v>70000001</v>
       </c>
-      <c r="J50" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" s="11">
+      <c r="J51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="10">
         <v>501</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L51" s="10">
         <v>10000</v>
       </c>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-    </row>
-    <row r="51" s="9" customFormat="1" spans="2:16">
-      <c r="B51" s="11">
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+    </row>
+    <row r="52" s="8" customFormat="1" spans="2:16">
+      <c r="B52" s="10">
         <v>500400010</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="11">
+      <c r="C52" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="10">
         <v>50040001</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10">
         <v>70000002</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J52" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K52" s="10">
         <v>10033</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L52" s="10">
         <v>10000</v>
       </c>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="52" s="9" customFormat="1" spans="2:16">
-      <c r="B52" s="11">
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+    </row>
+    <row r="53" s="8" customFormat="1" spans="2:16">
+      <c r="B53" s="10">
         <v>500500010</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="11">
+      <c r="C53" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="10">
         <v>50050001</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10">
         <v>70000002</v>
       </c>
-      <c r="J52" s="14" t="s">
+      <c r="J53" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K53" s="10">
         <v>10073</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L53" s="10">
         <v>10000</v>
       </c>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2975,16 +2985,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.6517857142857" style="1" customWidth="1"/>
+    <col min="2" max="6" width="12.6517857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7857142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.1428571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.14285714285714" style="1"/>
     <col min="10" max="10" width="100" style="1" customWidth="1"/>
@@ -3017,65 +3028,65 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>78</v>
+      <c r="J1" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="J2" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>##var</t>
   </si>
@@ -199,103 +199,106 @@
     <t>大本营自动子弹2 爆炸伤害</t>
   </si>
   <si>
+    <t>大本营 生产金币1个</t>
+  </si>
+  <si>
     <t>TowerCircle</t>
   </si>
   <si>
-    <t>TowerFlower4 增加金币1个</t>
+    <t>TowerFlower4 生产金币1个</t>
+  </si>
+  <si>
+    <t>TowerFlower5 添加攻速BUFF</t>
+  </si>
+  <si>
+    <t>TowerFlower5 攻速加成50%</t>
+  </si>
+  <si>
+    <t>TowerHexagon 子弹</t>
+  </si>
+  <si>
+    <t>TowerHexagon 子弹伤害</t>
+  </si>
+  <si>
+    <t>TowerSnowflake 子弹</t>
+  </si>
+  <si>
+    <t>TowerSnowflake 子弹伤害</t>
+  </si>
+  <si>
+    <t>TowerSnowflake 添加BUFF</t>
+  </si>
+  <si>
+    <t>TowerSnowflake 移速-20%</t>
+  </si>
+  <si>
+    <t>降低属性</t>
+  </si>
+  <si>
+    <t>TowerSquare 子弹</t>
+  </si>
+  <si>
+    <t>固定朝向子弹</t>
+  </si>
+  <si>
+    <t>TowerSquare 子弹伤害</t>
+  </si>
+  <si>
+    <t>TowerStar 子弹</t>
+  </si>
+  <si>
+    <t>TowerStar 爆炸重新索敌</t>
+  </si>
+  <si>
+    <t>TowerStar 爆炸伤害</t>
+  </si>
+  <si>
+    <t>TowerTriangle 子弹</t>
+  </si>
+  <si>
+    <t>TowerTriangle 子弹伤害</t>
+  </si>
+  <si>
+    <t>兵营A召唤</t>
+  </si>
+  <si>
+    <t>召唤士兵</t>
+  </si>
+  <si>
+    <t>资源塔产出资源</t>
+  </si>
+  <si>
+    <t>随机召唤</t>
+  </si>
+  <si>
+    <t>士兵的技能效果</t>
+  </si>
+  <si>
+    <t>自爆伤害他人</t>
+  </si>
+  <si>
+    <t>自爆杀死自己</t>
+  </si>
+  <si>
+    <t>杀死自己</t>
+  </si>
+  <si>
+    <t>普攻</t>
+  </si>
+  <si>
+    <t>发射子弹</t>
+  </si>
+  <si>
+    <t>子弹效果</t>
+  </si>
+  <si>
+    <t>使用物品的效果</t>
+  </si>
+  <si>
+    <t>使用血瓶</t>
   </si>
   <si>
     <t>实时属性改变</t>
-  </si>
-  <si>
-    <t>TowerFlower5 添加攻速BUFF</t>
-  </si>
-  <si>
-    <t>TowerFlower5 攻速加成50%</t>
-  </si>
-  <si>
-    <t>TowerHexagon 子弹</t>
-  </si>
-  <si>
-    <t>TowerHexagon 子弹伤害</t>
-  </si>
-  <si>
-    <t>TowerSnowflake 子弹</t>
-  </si>
-  <si>
-    <t>TowerSnowflake 子弹伤害</t>
-  </si>
-  <si>
-    <t>TowerSnowflake 添加BUFF</t>
-  </si>
-  <si>
-    <t>TowerSnowflake 移速-20%</t>
-  </si>
-  <si>
-    <t>降低属性</t>
-  </si>
-  <si>
-    <t>TowerSquare 子弹</t>
-  </si>
-  <si>
-    <t>固定朝向子弹</t>
-  </si>
-  <si>
-    <t>TowerSquare 子弹伤害</t>
-  </si>
-  <si>
-    <t>TowerStar 子弹</t>
-  </si>
-  <si>
-    <t>TowerStar 爆炸重新索敌</t>
-  </si>
-  <si>
-    <t>TowerStar 爆炸伤害</t>
-  </si>
-  <si>
-    <t>TowerTriangle 子弹</t>
-  </si>
-  <si>
-    <t>TowerTriangle 子弹伤害</t>
-  </si>
-  <si>
-    <t>兵营A召唤</t>
-  </si>
-  <si>
-    <t>召唤士兵</t>
-  </si>
-  <si>
-    <t>资源塔产出资源</t>
-  </si>
-  <si>
-    <t>随机召唤</t>
-  </si>
-  <si>
-    <t>士兵的技能效果</t>
-  </si>
-  <si>
-    <t>自爆伤害他人</t>
-  </si>
-  <si>
-    <t>自爆杀死自己</t>
-  </si>
-  <si>
-    <t>杀死自己</t>
-  </si>
-  <si>
-    <t>普攻</t>
-  </si>
-  <si>
-    <t>发射子弹</t>
-  </si>
-  <si>
-    <t>子弹效果</t>
-  </si>
-  <si>
-    <t>使用物品的效果</t>
-  </si>
-  <si>
-    <t>使用血瓶</t>
   </si>
   <si>
     <t>使用蓝瓶</t>
@@ -1384,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection activeCell="A19" sqref="$A17:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1904,13 +1907,13 @@
     </row>
     <row r="17" s="8" customFormat="1" spans="2:16">
       <c r="B17" s="10">
-        <v>300100010</v>
+        <v>300010010</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="12">
-        <v>30010001</v>
+      <c r="D17" s="10">
+        <v>30001001</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1918,10 +1921,14 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="K17" s="10">
+        <v>100</v>
+      </c>
+      <c r="L17" s="10">
+        <v>10000</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1929,13 +1936,13 @@
     </row>
     <row r="18" s="8" customFormat="1" spans="2:16">
       <c r="B18" s="10">
-        <v>300200010</v>
+        <v>300100010</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="12">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1943,14 +1950,10 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="10">
-        <v>980</v>
-      </c>
-      <c r="L18" s="10">
-        <v>10000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -1958,24 +1961,27 @@
     </row>
     <row r="19" s="8" customFormat="1" spans="2:16">
       <c r="B19" s="10">
-        <v>300300010</v>
+        <v>300200010</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="10">
-        <v>30030001</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="12">
+        <v>30020001</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="13" t="s">
-        <v>27</v>
+      <c r="J19" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="K19" s="10">
-        <v>30030001</v>
+        <v>100</v>
+      </c>
+      <c r="L19" s="10">
+        <v>10000</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -1984,27 +1990,24 @@
     </row>
     <row r="20" s="8" customFormat="1" spans="2:16">
       <c r="B20" s="10">
-        <v>300300011</v>
+        <v>300300010</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="12">
-        <v>300300011</v>
+        <v>45</v>
+      </c>
+      <c r="D20" s="10">
+        <v>30030001</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="10" t="s">
-        <v>29</v>
+      <c r="J20" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="K20" s="10">
-        <v>10073</v>
-      </c>
-      <c r="L20" s="10">
-        <v>5000</v>
+        <v>30030001</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -2013,126 +2016,130 @@
     </row>
     <row r="21" s="8" customFormat="1" spans="2:16">
       <c r="B21" s="10">
-        <v>300400010</v>
+        <v>300300011</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="12">
-        <v>30040001</v>
+        <v>300300011</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="13" t="s">
-        <v>37</v>
+      <c r="J21" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="K21" s="10">
-        <v>80020004</v>
+        <v>10073</v>
       </c>
       <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>10000</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" s="8" customFormat="1" spans="2:16">
       <c r="B22" s="10">
-        <v>300400011</v>
+        <v>300400010</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="12">
-        <v>300400011</v>
+        <v>30040001</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="J22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="10">
+        <v>80020004</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" s="8" customFormat="1" spans="2:16">
       <c r="B23" s="10">
-        <v>300500010</v>
+        <v>300400011</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="12">
-        <v>30050001</v>
+        <v>300400011</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="10">
-        <v>80020005</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>10000</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
+      <c r="J23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" s="8" customFormat="1" spans="2:16">
       <c r="B24" s="10">
-        <v>300500011</v>
+        <v>300500010</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="12">
-        <v>300500011</v>
+        <v>30050001</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="J24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="10">
+        <v>80020005</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0</v>
+      </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" s="8" customFormat="1" ht="16" customHeight="1" spans="2:16">
+    <row r="25" s="8" customFormat="1" spans="2:16">
       <c r="B25" s="10">
-        <v>300500012</v>
+        <v>300500011</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="12">
         <v>300500011</v>
@@ -2142,42 +2149,38 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="10">
-        <v>30050001</v>
-      </c>
+      <c r="J25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" s="8" customFormat="1" spans="2:16">
+    <row r="26" s="8" customFormat="1" ht="16" customHeight="1" spans="2:16">
       <c r="B26" s="10">
-        <v>300500013</v>
+        <v>300500012</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="8">
-        <v>300500013</v>
+        <v>51</v>
+      </c>
+      <c r="D26" s="12">
+        <v>300500011</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="10" t="s">
-        <v>53</v>
+      <c r="J26" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="K26" s="10">
-        <v>10053</v>
-      </c>
-      <c r="L26" s="10">
-        <v>2000</v>
-      </c>
+        <v>30050001</v>
+      </c>
+      <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -2185,44 +2188,36 @@
     </row>
     <row r="27" s="8" customFormat="1" spans="2:16">
       <c r="B27" s="10">
-        <v>300600010</v>
+        <v>300500013</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="12">
-        <v>30060001</v>
+        <v>52</v>
+      </c>
+      <c r="D27" s="8">
+        <v>300500013</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="13" t="s">
-        <v>55</v>
+      <c r="J27" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="K27" s="10">
-        <v>80020006</v>
+        <v>10053</v>
       </c>
       <c r="L27" s="10">
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N27" s="10">
-        <v>5000</v>
-      </c>
-      <c r="O27" s="10">
-        <v>0</v>
-      </c>
-      <c r="P27" s="8">
-        <v>97050001</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" s="8" customFormat="1" spans="2:16">
       <c r="B28" s="10">
-        <v>300600011</v>
+        <v>300600010</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>54</v>
@@ -2242,16 +2237,16 @@
         <v>80020006</v>
       </c>
       <c r="L28" s="10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="M28" s="10">
         <v>5000</v>
       </c>
       <c r="N28" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O28" s="10">
         <v>0</v>
-      </c>
-      <c r="O28" s="10">
-        <v>90</v>
       </c>
       <c r="P28" s="8">
         <v>97050001</v>
@@ -2259,7 +2254,7 @@
     </row>
     <row r="29" s="8" customFormat="1" spans="2:16">
       <c r="B29" s="10">
-        <v>300600012</v>
+        <v>300600011</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>54</v>
@@ -2279,16 +2274,16 @@
         <v>80020006</v>
       </c>
       <c r="L29" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M29" s="10">
         <v>5000</v>
       </c>
       <c r="N29" s="10">
-        <v>-5000</v>
-      </c>
-      <c r="O29" s="8">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>90</v>
       </c>
       <c r="P29" s="8">
         <v>97050001</v>
@@ -2296,7 +2291,7 @@
     </row>
     <row r="30" s="8" customFormat="1" spans="2:16">
       <c r="B30" s="10">
-        <v>300600013</v>
+        <v>300600012</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>54</v>
@@ -2316,16 +2311,16 @@
         <v>80020006</v>
       </c>
       <c r="L30" s="10">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="M30" s="10">
         <v>5000</v>
       </c>
       <c r="N30" s="10">
-        <v>0</v>
-      </c>
-      <c r="O30" s="10">
-        <v>270</v>
+        <v>-5000</v>
+      </c>
+      <c r="O30" s="8">
+        <v>180</v>
       </c>
       <c r="P30" s="8">
         <v>97050001</v>
@@ -2333,103 +2328,108 @@
     </row>
     <row r="31" s="8" customFormat="1" spans="2:16">
       <c r="B31" s="10">
-        <v>300600014</v>
+        <v>300600013</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="12">
-        <v>300600014</v>
+        <v>30060001</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" s="8" customFormat="1" spans="2:21">
+      <c r="J31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="10">
+        <v>80020006</v>
+      </c>
+      <c r="L31" s="10">
+        <v>-5000</v>
+      </c>
+      <c r="M31" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>270</v>
+      </c>
+      <c r="P31" s="8">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="2:16">
       <c r="B32" s="10">
-        <v>300700010</v>
+        <v>300600014</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="12">
-        <v>30070001</v>
+        <v>300600014</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="10">
-        <v>80020007</v>
-      </c>
-      <c r="L32" s="10">
-        <v>0</v>
-      </c>
-      <c r="M32" s="10">
-        <v>10000</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
+      <c r="J32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="U32" s="10"/>
     </row>
     <row r="33" s="8" customFormat="1" spans="2:21">
       <c r="B33" s="10">
-        <v>300700011</v>
+        <v>300700010</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="10">
-        <v>300700011</v>
+        <v>57</v>
+      </c>
+      <c r="D33" s="12">
+        <v>30070001</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="10" t="s">
-        <v>33</v>
+      <c r="J33" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="K33" s="10">
-        <v>97040001</v>
+        <v>80020007</v>
       </c>
       <c r="L33" s="10">
-        <v>300700012</v>
-      </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
       <c r="O33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
+      <c r="P33" s="10"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" s="8" customFormat="1" spans="2:15">
+    <row r="34" s="8" customFormat="1" spans="2:21">
       <c r="B34" s="10">
-        <v>300700012</v>
+        <v>300700011</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="10">
-        <v>300700012</v>
+        <v>300700011</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -2437,82 +2437,97 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="K34" s="10">
+        <v>97040001</v>
+      </c>
+      <c r="L34" s="10">
+        <v>300700012</v>
+      </c>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
-    </row>
-    <row r="35" s="8" customFormat="1" spans="2:16">
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="2:15">
       <c r="B35" s="10">
-        <v>300800010</v>
+        <v>300700012</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="12">
-        <v>30080001</v>
+        <v>59</v>
+      </c>
+      <c r="D35" s="10">
+        <v>300700012</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="10">
-        <v>80020008</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>10000</v>
-      </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
+      <c r="J35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
     </row>
     <row r="36" s="8" customFormat="1" spans="2:16">
       <c r="B36" s="10">
-        <v>300800011</v>
+        <v>300800010</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="10">
-        <v>300800011</v>
+        <v>60</v>
+      </c>
+      <c r="D36" s="12">
+        <v>30080001</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="J36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="10">
+        <v>80020008</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
     <row r="37" s="8" customFormat="1" spans="2:16">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="10">
+        <v>300800011</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="10">
+        <v>300800011</v>
+      </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -2520,39 +2535,20 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:16">
-      <c r="A38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="13">
-        <v>900200010</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="13">
-        <v>30020001</v>
-      </c>
+    <row r="38" s="8" customFormat="1" spans="2:16">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="10">
-        <v>40031</v>
-      </c>
-      <c r="L38" s="10">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="10">
-        <v>0</v>
-      </c>
-      <c r="N38" s="10">
-        <v>0</v>
-      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
@@ -2561,13 +2557,13 @@
         <v>15</v>
       </c>
       <c r="B39" s="13">
-        <v>900400010</v>
+        <v>900200010</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D39" s="13">
-        <v>30040001</v>
+        <v>30020001</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2575,10 +2571,10 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K39" s="10">
-        <v>3</v>
+        <v>40031</v>
       </c>
       <c r="L39" s="10">
         <v>15000</v>
@@ -2589,86 +2585,93 @@
       <c r="N39" s="10">
         <v>0</v>
       </c>
+      <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" s="8" customFormat="1" spans="2:16">
-      <c r="B40" s="13"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="13"/>
+    <row r="40" s="8" customFormat="1" spans="1:16">
+      <c r="A40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="13">
+        <v>900400010</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="13">
+        <v>30040001</v>
+      </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="J40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="10">
+        <v>3</v>
+      </c>
+      <c r="L40" s="10">
+        <v>15000</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0</v>
+      </c>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" s="8" customFormat="1" spans="1:21">
-      <c r="A41" s="11" t="s">
+    <row r="41" s="8" customFormat="1" spans="2:16">
+      <c r="B41" s="13"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" s="8" customFormat="1" spans="1:21">
+      <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-    </row>
-    <row r="42" s="8" customFormat="1" spans="2:16">
-      <c r="B42" s="10">
-        <v>400001010</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="10">
-        <v>40000101</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="10">
-        <v>0</v>
-      </c>
-      <c r="L42" s="10">
-        <v>10000</v>
-      </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
     </row>
     <row r="43" s="8" customFormat="1" spans="2:16">
       <c r="B43" s="10">
-        <v>400001011</v>
+        <v>400001010</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="10">
         <v>40000101</v>
@@ -2679,10 +2682,14 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>10000</v>
+      </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -2690,13 +2697,13 @@
     </row>
     <row r="44" s="8" customFormat="1" spans="2:16">
       <c r="B44" s="10">
-        <v>400100010</v>
+        <v>400001011</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D44" s="10">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -2704,7 +2711,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
@@ -2715,72 +2722,80 @@
     </row>
     <row r="45" s="8" customFormat="1" spans="2:16">
       <c r="B45" s="10">
-        <v>400200010</v>
+        <v>400100010</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="10">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45" s="10">
-        <v>40020001</v>
-      </c>
-      <c r="L45" s="10">
-        <v>0</v>
-      </c>
-      <c r="M45" s="10">
-        <v>10000</v>
-      </c>
-      <c r="N45" s="10">
-        <v>0</v>
-      </c>
+      <c r="J45" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
     <row r="46" s="8" customFormat="1" spans="2:16">
       <c r="B46" s="10">
-        <v>400200011</v>
+        <v>400200010</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="10">
-        <v>400200011</v>
+        <v>40020001</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="J46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" s="10">
+        <v>40020001</v>
+      </c>
+      <c r="L46" s="10">
+        <v>0</v>
+      </c>
+      <c r="M46" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N46" s="10">
+        <v>0</v>
+      </c>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
     </row>
     <row r="47" s="8" customFormat="1" spans="2:16">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="B47" s="10">
+        <v>400200011</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="10">
+        <v>400200011</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -2788,85 +2803,72 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" s="8" customFormat="1" spans="1:21">
-      <c r="A48" s="11" t="s">
+    <row r="48" s="8" customFormat="1" spans="2:16">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="1:21">
+      <c r="A49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-    </row>
-    <row r="49" s="8" customFormat="1" spans="2:16">
-      <c r="B49" s="10">
-        <v>500100010</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="10">
-        <v>50010001</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10">
-        <v>70000001</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49" s="10">
-        <v>1</v>
-      </c>
-      <c r="L49" s="10">
-        <v>100000</v>
-      </c>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
     </row>
     <row r="50" s="8" customFormat="1" spans="2:16">
       <c r="B50" s="10">
-        <v>500200010</v>
+        <v>500100010</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="10">
-        <v>50020001</v>
+        <v>50010001</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="K50" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" s="10">
         <v>100000</v>
@@ -2877,29 +2879,29 @@
     </row>
     <row r="51" s="8" customFormat="1" spans="2:16">
       <c r="B51" s="10">
-        <v>500300010</v>
+        <v>500200010</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="10">
-        <v>50030001</v>
+        <v>50020001</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="K51" s="10">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="L51" s="10">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -2907,26 +2909,26 @@
     </row>
     <row r="52" s="8" customFormat="1" spans="2:16">
       <c r="B52" s="10">
-        <v>500400010</v>
+        <v>500300010</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="10">
-        <v>50040001</v>
+        <v>50030001</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="K52" s="10">
-        <v>10033</v>
+        <v>501</v>
       </c>
       <c r="L52" s="10">
         <v>10000</v>
@@ -2937,13 +2939,13 @@
     </row>
     <row r="53" s="8" customFormat="1" spans="2:16">
       <c r="B53" s="10">
-        <v>500500010</v>
+        <v>500400010</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="10">
-        <v>50050001</v>
+        <v>50040001</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -2956,7 +2958,7 @@
         <v>29</v>
       </c>
       <c r="K53" s="10">
-        <v>10073</v>
+        <v>10033</v>
       </c>
       <c r="L53" s="10">
         <v>10000</v>
@@ -2964,6 +2966,36 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
+    </row>
+    <row r="54" s="8" customFormat="1" spans="2:16">
+      <c r="B54" s="10">
+        <v>500500010</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="10">
+        <v>50050001</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10">
+        <v>70000002</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="10">
+        <v>10073</v>
+      </c>
+      <c r="L54" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3029,7 +3061,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3037,52 +3069,52 @@
         <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="5"/>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="8:8">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="15820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
   <si>
     <t>##var</t>
   </si>
@@ -316,22 +316,97 @@
     <t>特殊说明</t>
   </si>
   <si>
+    <t>属性ID</t>
+  </si>
+  <si>
+    <t>属性值(万分比)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可同时修改多个属性，注意这里得填属性的ID(数字，看builtin.xml中的属性配置，NumericType) </t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>[百分比(基于攻击力)]</t>
+  </si>
+  <si>
+    <t>[固定治疗值]</t>
+  </si>
+  <si>
+    <t>不配置参数则为当前攻击力数值</t>
+  </si>
+  <si>
+    <t>[固定伤害值]</t>
+  </si>
+  <si>
+    <t>BUFF ID</t>
+  </si>
+  <si>
+    <t>可同时添加多个BUFF</t>
+  </si>
+  <si>
+    <t>移除Buff</t>
+  </si>
+  <si>
+    <t>可同时移除多个BUFF</t>
+  </si>
+  <si>
+    <t>添加限制</t>
+  </si>
+  <si>
+    <t>限制ID</t>
+  </si>
+  <si>
+    <t>数字，看builtin.xml中的限制类型，FlagRestrict</t>
+  </si>
+  <si>
+    <t>移除限制</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>和增加属性，但属性值为负数等价</t>
+  </si>
+  <si>
+    <t>士兵ID</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>xyz是召唤目标位置</t>
+  </si>
+  <si>
+    <t>掉落包ID</t>
+  </si>
+  <si>
+    <t>从掉落包中随机(支持召唤地块，建筑，士兵，物品)，xyz是召唤目标位置</t>
+  </si>
+  <si>
+    <t>无参数</t>
+  </si>
+  <si>
+    <t>索敌ID</t>
+  </si>
+  <si>
+    <t>对索敌结果执行的效果组ID</t>
+  </si>
+  <si>
     <t>子弹ID</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
+    <t>xyz 是基于释放者的坐标偏移</t>
   </si>
   <si>
     <t>Y轴发射角度</t>
-  </si>
-  <si>
-    <t>索敌ID</t>
   </si>
   <si>
     <t>一次直线索敌再根据距离判定命中 适用于速度快的子弹，无需配置飞行距离，它由索敌范围确定</t>
@@ -1018,16 +1093,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1389,36 +1461,36 @@
   <sheetPr/>
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A17:$XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.2142857142857" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29.7857142857143" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.1428571428571" style="8" customWidth="1"/>
-    <col min="5" max="7" width="12.2053571428571" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.4732142857143" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.9285714285714" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.8571428571429" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.1428571428571" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.8571428571429" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.21428571428571" style="8" customWidth="1"/>
-    <col min="16" max="16" width="11.1607142857143" style="8" customWidth="1"/>
-    <col min="17" max="17" width="10.8571428571429" style="8" customWidth="1"/>
-    <col min="18" max="21" width="9.21428571428571" style="8" customWidth="1"/>
-    <col min="22" max="22" width="10.8571428571429" style="8"/>
-    <col min="23" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="8" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.2142857142857" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.7857142857143" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.1428571428571" style="7" customWidth="1"/>
+    <col min="5" max="7" width="12.2053571428571" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.4732142857143" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.9285714285714" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.8571428571429" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.1428571428571" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.8571428571429" style="7" customWidth="1"/>
+    <col min="14" max="15" width="9.21428571428571" style="7" customWidth="1"/>
+    <col min="16" max="16" width="11.1607142857143" style="7" customWidth="1"/>
+    <col min="17" max="17" width="10.8571428571429" style="7" customWidth="1"/>
+    <col min="18" max="21" width="9.21428571428571" style="7" customWidth="1"/>
+    <col min="22" max="22" width="10.8571428571429" style="7"/>
+    <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1427,39 +1499,39 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1468,39 +1540,39 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="16" spans="1:21">
-      <c r="A3" s="9" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="16" spans="1:21">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1509,15 +1581,15 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1557,1445 +1629,1445 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="2:16">
-      <c r="B4" s="10">
+    <row r="4" s="7" customFormat="1" spans="2:16">
+      <c r="B4" s="9">
         <v>100100010</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>10010001</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>40000</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" s="8" customFormat="1" spans="2:16">
-      <c r="B5" s="10">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="2:16">
+      <c r="B5" s="9">
         <v>100101010</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>10010101</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>10010101</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="2:16">
-      <c r="B6" s="10">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="2:16">
+      <c r="B6" s="9">
         <v>100101011</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>100101011</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>10073</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>5000</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" s="8" customFormat="1" spans="2:16">
-      <c r="B7" s="10">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="2:16">
+      <c r="B7" s="9">
         <v>100102010</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>10010201</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>10010201</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>0</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>10000</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>0</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="2:16">
-      <c r="B8" s="10">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="2:16">
+      <c r="B8" s="9">
         <v>100102011</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>100102011</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>10010202</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>100102012</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" s="8" customFormat="1" spans="2:16">
-      <c r="B9" s="10">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="2:16">
+      <c r="B9" s="9">
         <v>100102012</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>100102012</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>20000</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="2:16">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" s="8" customFormat="1" spans="1:21">
-      <c r="A11" s="11" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="2:16">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:21">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="1" spans="2:16">
-      <c r="B12" s="10">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="2:16">
+      <c r="B12" s="9">
         <v>300000010</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>30000001</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="13" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>30000001</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>20000</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>0</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" s="8" customFormat="1" spans="2:16">
-      <c r="B13" s="10">
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="2:16">
+      <c r="B13" s="9">
         <v>300000011</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>300000011</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>300000020</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>300000020</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" s="8" customFormat="1" spans="2:16">
-      <c r="B15" s="10">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="2:16">
+      <c r="B15" s="9">
         <v>300000030</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>300000030</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>97040003</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>300000031</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" s="8" customFormat="1" spans="2:16">
-      <c r="B16" s="10">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" s="7" customFormat="1" spans="2:16">
+      <c r="B16" s="9">
         <v>300000031</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>300000031</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" s="8" customFormat="1" spans="2:16">
-      <c r="B17" s="10">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" s="7" customFormat="1" spans="2:16">
+      <c r="B17" s="9">
         <v>300010010</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>30001001</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>100</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <v>10000</v>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" s="8" customFormat="1" spans="2:16">
-      <c r="B18" s="10">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" s="7" customFormat="1" spans="2:16">
+      <c r="B18" s="9">
         <v>300100010</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>30010001</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" s="8" customFormat="1" spans="2:16">
-      <c r="B19" s="10">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" s="7" customFormat="1" spans="2:16">
+      <c r="B19" s="9">
         <v>300200010</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>30020001</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>100</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <v>10000</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" s="8" customFormat="1" spans="2:16">
-      <c r="B20" s="10">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="2:16">
+      <c r="B20" s="9">
         <v>300300010</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>30030001</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="13" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>30030001</v>
       </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" s="8" customFormat="1" spans="2:16">
-      <c r="B21" s="10">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" s="7" customFormat="1" spans="2:16">
+      <c r="B21" s="9">
         <v>300300011</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>300300011</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>10073</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <v>5000</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" s="8" customFormat="1" spans="2:16">
-      <c r="B22" s="10">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" s="7" customFormat="1" spans="2:16">
+      <c r="B22" s="9">
         <v>300400010</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>30040001</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="13" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>80020004</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>0</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <v>10000</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>0</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" s="8" customFormat="1" spans="2:16">
-      <c r="B23" s="10">
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" s="7" customFormat="1" spans="2:16">
+      <c r="B23" s="9">
         <v>300400011</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>300400011</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" s="8" customFormat="1" spans="2:16">
-      <c r="B24" s="10">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="2:16">
+      <c r="B24" s="9">
         <v>300500010</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>30050001</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="13" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>80020005</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>0</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="9">
         <v>10000</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>0</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" s="8" customFormat="1" spans="2:16">
-      <c r="B25" s="10">
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" s="7" customFormat="1" spans="2:16">
+      <c r="B25" s="9">
         <v>300500011</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>300500011</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" s="8" customFormat="1" ht="16" customHeight="1" spans="2:16">
-      <c r="B26" s="10">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
+      <c r="B26" s="9">
         <v>300500012</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>300500011</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="13" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>30050001</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" s="8" customFormat="1" spans="2:16">
-      <c r="B27" s="10">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" s="7" customFormat="1" spans="2:16">
+      <c r="B27" s="9">
         <v>300500013</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>300500013</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>10053</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <v>2000</v>
       </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" s="8" customFormat="1" spans="2:16">
-      <c r="B28" s="10">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="2:16">
+      <c r="B28" s="9">
         <v>300600010</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>30060001</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="13" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>80020006</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>0</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <v>5000</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>5000</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <v>0</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="7">
         <v>97050001</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="1" spans="2:16">
-      <c r="B29" s="10">
+    <row r="29" s="7" customFormat="1" spans="2:16">
+      <c r="B29" s="9">
         <v>300600011</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>30060001</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="13" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>80020006</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <v>5000</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <v>5000</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <v>0</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="9">
         <v>90</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="7">
         <v>97050001</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" spans="2:16">
-      <c r="B30" s="10">
+    <row r="30" s="7" customFormat="1" spans="2:16">
+      <c r="B30" s="9">
         <v>300600012</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>30060001</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="13" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>80020006</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>0</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <v>5000</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <v>-5000</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <v>180</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="7">
         <v>97050001</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" spans="2:16">
-      <c r="B31" s="10">
+    <row r="31" s="7" customFormat="1" spans="2:16">
+      <c r="B31" s="9">
         <v>300600013</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>30060001</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="13" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>80020006</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>-5000</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
         <v>5000</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <v>0</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="9">
         <v>270</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="7">
         <v>97050001</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="1" spans="2:16">
-      <c r="B32" s="10">
+    <row r="32" s="7" customFormat="1" spans="2:16">
+      <c r="B32" s="9">
         <v>300600014</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>300600014</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" s="8" customFormat="1" spans="2:21">
-      <c r="B33" s="10">
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="2:21">
+      <c r="B33" s="9">
         <v>300700010</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>30070001</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="13" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>80020007</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <v>0</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="9">
         <v>10000</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="9">
         <v>0</v>
       </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="U33" s="10"/>
-    </row>
-    <row r="34" s="8" customFormat="1" spans="2:21">
-      <c r="B34" s="10">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="U33" s="9"/>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="2:21">
+      <c r="B34" s="9">
         <v>300700011</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>300700011</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>97040001</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>300700012</v>
       </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-    </row>
-    <row r="35" s="8" customFormat="1" spans="2:15">
-      <c r="B35" s="10">
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="2:15">
+      <c r="B35" s="9">
         <v>300700012</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>300700012</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" s="8" customFormat="1" spans="2:16">
-      <c r="B36" s="10">
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="2:16">
+      <c r="B36" s="9">
         <v>300800010</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>30080001</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="13" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>80020008</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>0</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="9">
         <v>10000</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="9">
         <v>0</v>
       </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" s="8" customFormat="1" spans="2:16">
-      <c r="B37" s="10">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" s="7" customFormat="1" spans="2:16">
+      <c r="B37" s="9">
         <v>300800011</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>300800011</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" s="8" customFormat="1" spans="2:16">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" s="8" customFormat="1" spans="1:16">
-      <c r="A39" s="8" t="s">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="2:16">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="1:16">
+      <c r="A39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>900200010</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>30020001</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>40031</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
         <v>15000</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M39" s="9">
         <v>0</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="9">
         <v>0</v>
       </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-    </row>
-    <row r="40" s="8" customFormat="1" spans="1:16">
-      <c r="A40" s="8" t="s">
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" s="7" customFormat="1" spans="1:16">
+      <c r="A40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>900400010</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>30040001</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <v>3</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="9">
         <v>15000</v>
       </c>
-      <c r="M40" s="10">
+      <c r="M40" s="9">
         <v>0</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="9">
         <v>0</v>
       </c>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" s="8" customFormat="1" spans="2:16">
-      <c r="B41" s="13"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" s="8" customFormat="1" spans="1:21">
-      <c r="A42" s="11" t="s">
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" s="7" customFormat="1" spans="2:16">
+      <c r="B41" s="12"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="1:21">
+      <c r="A42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-    </row>
-    <row r="43" s="8" customFormat="1" spans="2:16">
-      <c r="B43" s="10">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="2:16">
+      <c r="B43" s="9">
         <v>400001010</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>40000101</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <v>0</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <v>10000</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-    </row>
-    <row r="44" s="8" customFormat="1" spans="2:16">
-      <c r="B44" s="10">
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="2:16">
+      <c r="B44" s="9">
         <v>400001011</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>40000101</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-    </row>
-    <row r="45" s="8" customFormat="1" spans="2:16">
-      <c r="B45" s="10">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="2:16">
+      <c r="B45" s="9">
         <v>400100010</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>40010001</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-    </row>
-    <row r="46" s="8" customFormat="1" spans="2:16">
-      <c r="B46" s="10">
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="2:16">
+      <c r="B46" s="9">
         <v>400200010</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>40020001</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="13" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <v>40020001</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="9">
         <v>0</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M46" s="9">
         <v>10000</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="9">
         <v>0</v>
       </c>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-    </row>
-    <row r="47" s="8" customFormat="1" spans="2:16">
-      <c r="B47" s="10">
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="2:16">
+      <c r="B47" s="9">
         <v>400200011</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>400200011</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-    </row>
-    <row r="48" s="8" customFormat="1" spans="2:16">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" s="8" customFormat="1" spans="1:21">
-      <c r="A49" s="11" t="s">
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="2:16">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:21">
+      <c r="A49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-    </row>
-    <row r="50" s="8" customFormat="1" spans="2:16">
-      <c r="B50" s="10">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+    </row>
+    <row r="50" s="7" customFormat="1" spans="2:16">
+      <c r="B50" s="9">
         <v>500100010</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>50010001</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9">
         <v>70000001</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="9">
         <v>1</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="9">
         <v>100000</v>
       </c>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" s="8" customFormat="1" spans="2:16">
-      <c r="B51" s="10">
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" s="7" customFormat="1" spans="2:16">
+      <c r="B51" s="9">
         <v>500200010</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>50020001</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9">
         <v>70000002</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <v>2</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="9">
         <v>100000</v>
       </c>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" s="8" customFormat="1" spans="2:16">
-      <c r="B52" s="10">
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" s="7" customFormat="1" spans="2:16">
+      <c r="B52" s="9">
         <v>500300010</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>50030001</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10">
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9">
         <v>70000001</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <v>501</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="9">
         <v>10000</v>
       </c>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" s="8" customFormat="1" spans="2:16">
-      <c r="B53" s="10">
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" s="7" customFormat="1" spans="2:16">
+      <c r="B53" s="9">
         <v>500400010</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>50040001</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10">
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9">
         <v>70000002</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="9">
         <v>10033</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="9">
         <v>10000</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-    </row>
-    <row r="54" s="8" customFormat="1" spans="2:16">
-      <c r="B54" s="10">
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" s="7" customFormat="1" spans="2:16">
+      <c r="B54" s="9">
         <v>500500010</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>50050001</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9">
         <v>70000002</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="9">
         <v>10073</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="9">
         <v>10000</v>
       </c>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3017,16 +3089,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="2" max="6" width="12.6517857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.2142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="6" width="12.6517857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.7857142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.1428571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.14285714285714" style="1"/>
@@ -3060,65 +3134,324 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8">
-      <c r="H7" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="J17" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820" activeTab="1"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="效果类型与参数" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
   <si>
     <t>##var</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>爆炸伤害</t>
+  </si>
+  <si>
+    <t>地块的技能效果</t>
+  </si>
+  <si>
+    <t>横一字型 攻速加成50%</t>
   </si>
   <si>
     <t>建筑的技能效果</t>
@@ -1459,10 +1465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1846,55 +1852,43 @@
     </row>
     <row r="12" s="7" customFormat="1" spans="2:16">
       <c r="B12" s="9">
-        <v>300000010</v>
+        <v>200100010</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="9">
-        <v>30000001</v>
+        <v>20010001</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="12" t="s">
-        <v>37</v>
+      <c r="J12" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K12" s="9">
-        <v>30000001</v>
+        <v>10073</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>20000</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" s="7" customFormat="1" spans="2:16">
-      <c r="B13" s="9">
-        <v>300000011</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="9">
-        <v>300000011</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -1902,65 +1896,75 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="9">
-        <v>300000020</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="9">
-        <v>300000020</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+    <row r="14" s="7" customFormat="1" spans="1:21">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
     </row>
     <row r="15" s="7" customFormat="1" spans="2:16">
       <c r="B15" s="9">
-        <v>300000030</v>
+        <v>300000010</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>300000030</v>
+        <v>30000001</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9" t="s">
-        <v>33</v>
+      <c r="J15" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="K15" s="9">
-        <v>97040003</v>
+        <v>30000001</v>
       </c>
       <c r="L15" s="9">
-        <v>300000031</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>20000</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
     <row r="16" s="7" customFormat="1" spans="2:16">
       <c r="B16" s="9">
-        <v>300000031</v>
+        <v>300000011</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="9">
-        <v>300000031</v>
+        <v>300000011</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1977,15 +1981,15 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" s="7" customFormat="1" spans="2:16">
+    <row r="17" spans="2:12">
       <c r="B17" s="9">
-        <v>300010010</v>
+        <v>300000020</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="9">
-        <v>30001001</v>
+        <v>300000020</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1993,28 +1997,20 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="9">
-        <v>100</v>
-      </c>
-      <c r="L17" s="9">
-        <v>10000</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" s="7" customFormat="1" spans="2:16">
       <c r="B18" s="9">
-        <v>300100010</v>
+        <v>300000030</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="11">
-        <v>30010001</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="9">
+        <v>300000030</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2022,10 +2018,14 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="K18" s="9">
+        <v>97040003</v>
+      </c>
+      <c r="L18" s="9">
+        <v>300000031</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="19" s="7" customFormat="1" spans="2:16">
       <c r="B19" s="9">
-        <v>300200010</v>
+        <v>300000031</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="11">
-        <v>30020001</v>
+        <v>43</v>
+      </c>
+      <c r="D19" s="9">
+        <v>300000031</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2047,14 +2047,10 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="9">
-        <v>100</v>
-      </c>
-      <c r="L19" s="9">
-        <v>10000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2062,24 +2058,27 @@
     </row>
     <row r="20" s="7" customFormat="1" spans="2:16">
       <c r="B20" s="9">
-        <v>300300010</v>
+        <v>300010010</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9">
-        <v>30030001</v>
+        <v>30001001</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="12" t="s">
-        <v>27</v>
+      <c r="J20" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K20" s="9">
-        <v>30030001</v>
+        <v>100</v>
+      </c>
+      <c r="L20" s="9">
+        <v>10000</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -2088,13 +2087,13 @@
     </row>
     <row r="21" s="7" customFormat="1" spans="2:16">
       <c r="B21" s="9">
-        <v>300300011</v>
+        <v>300100010</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="11">
-        <v>300300011</v>
+        <v>30010001</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2102,14 +2101,10 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="9">
-        <v>10073</v>
-      </c>
-      <c r="L21" s="9">
-        <v>5000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2117,57 +2112,54 @@
     </row>
     <row r="22" s="7" customFormat="1" spans="2:16">
       <c r="B22" s="9">
-        <v>300400010</v>
+        <v>300200010</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="11">
-        <v>30040001</v>
+        <v>30020001</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="12" t="s">
-        <v>37</v>
+      <c r="J22" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K22" s="9">
-        <v>80020004</v>
+        <v>100</v>
       </c>
       <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
         <v>10000</v>
       </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
     <row r="23" s="7" customFormat="1" spans="2:16">
       <c r="B23" s="9">
-        <v>300400011</v>
+        <v>300300010</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="11">
-        <v>300400011</v>
+        <v>47</v>
+      </c>
+      <c r="D23" s="9">
+        <v>30030001</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="J23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="9">
+        <v>30030001</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2175,83 +2167,85 @@
     </row>
     <row r="24" s="7" customFormat="1" spans="2:16">
       <c r="B24" s="9">
-        <v>300500010</v>
+        <v>300300011</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="11">
-        <v>30050001</v>
+        <v>300300011</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="12" t="s">
-        <v>37</v>
+      <c r="J24" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K24" s="9">
-        <v>80020005</v>
+        <v>10073</v>
       </c>
       <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
     <row r="25" s="7" customFormat="1" spans="2:16">
       <c r="B25" s="9">
-        <v>300500011</v>
+        <v>300400010</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="11">
-        <v>300500011</v>
+        <v>30040001</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="J25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="9">
+        <v>80020004</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
+    <row r="26" s="7" customFormat="1" spans="2:16">
       <c r="B26" s="9">
-        <v>300500012</v>
+        <v>300400011</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="11">
-        <v>300500011</v>
+        <v>300400011</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="9">
-        <v>30050001</v>
-      </c>
+      <c r="J26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2260,79 +2254,71 @@
     </row>
     <row r="27" s="7" customFormat="1" spans="2:16">
       <c r="B27" s="9">
-        <v>300500013</v>
+        <v>300500010</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="7">
-        <v>300500013</v>
+        <v>51</v>
+      </c>
+      <c r="D27" s="11">
+        <v>30050001</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
-        <v>53</v>
+      <c r="J27" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="K27" s="9">
-        <v>10053</v>
+        <v>80020005</v>
       </c>
       <c r="L27" s="9">
-        <v>2000</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" s="7" customFormat="1" spans="2:16">
       <c r="B28" s="9">
-        <v>300600010</v>
+        <v>300500011</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="11">
-        <v>30060001</v>
+        <v>300500011</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="9">
-        <v>80020006</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>5000</v>
-      </c>
-      <c r="N28" s="9">
-        <v>5000</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>97050001</v>
-      </c>
-    </row>
-    <row r="29" s="7" customFormat="1" spans="2:16">
+      <c r="J28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
       <c r="B29" s="9">
-        <v>300600011</v>
+        <v>300500012</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="11">
-        <v>30060001</v>
+        <v>300500011</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2340,70 +2326,52 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="12" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K29" s="9">
-        <v>80020006</v>
-      </c>
-      <c r="L29" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M29" s="9">
-        <v>5000</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <v>90</v>
-      </c>
-      <c r="P29" s="7">
-        <v>97050001</v>
-      </c>
+        <v>30050001</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="2:16">
       <c r="B30" s="9">
-        <v>300600012</v>
+        <v>300500013</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="11">
-        <v>30060001</v>
+      <c r="D30" s="7">
+        <v>300500013</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="9" t="s">
         <v>55</v>
       </c>
       <c r="K30" s="9">
-        <v>80020006</v>
+        <v>10053</v>
       </c>
       <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9">
-        <v>5000</v>
-      </c>
-      <c r="N30" s="9">
-        <v>-5000</v>
-      </c>
-      <c r="O30" s="7">
-        <v>180</v>
-      </c>
-      <c r="P30" s="7">
-        <v>97050001</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="2:16">
       <c r="B31" s="9">
-        <v>300600013</v>
+        <v>300600010</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D31" s="11">
         <v>30060001</v>
@@ -2414,22 +2382,22 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K31" s="9">
         <v>80020006</v>
       </c>
       <c r="L31" s="9">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="M31" s="9">
         <v>5000</v>
       </c>
       <c r="N31" s="9">
+        <v>5000</v>
+      </c>
+      <c r="O31" s="9">
         <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>270</v>
       </c>
       <c r="P31" s="7">
         <v>97050001</v>
@@ -2437,37 +2405,50 @@
     </row>
     <row r="32" s="7" customFormat="1" spans="2:16">
       <c r="B32" s="9">
-        <v>300600014</v>
+        <v>300600011</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="11">
-        <v>300600014</v>
+        <v>30060001</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" s="7" customFormat="1" spans="2:21">
+      <c r="J32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="9">
+        <v>80020006</v>
+      </c>
+      <c r="L32" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M32" s="9">
+        <v>5000</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>90</v>
+      </c>
+      <c r="P32" s="7">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="2:16">
       <c r="B33" s="9">
-        <v>300700010</v>
+        <v>300600012</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="11">
-        <v>30070001</v>
+        <v>30060001</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -2475,65 +2456,73 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="12" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="K33" s="9">
-        <v>80020007</v>
+        <v>80020006</v>
       </c>
       <c r="L33" s="9">
         <v>0</v>
       </c>
       <c r="M33" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N33" s="9">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="U33" s="9"/>
-    </row>
-    <row r="34" s="7" customFormat="1" spans="2:21">
+        <v>-5000</v>
+      </c>
+      <c r="O33" s="7">
+        <v>180</v>
+      </c>
+      <c r="P33" s="7">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="2:16">
       <c r="B34" s="9">
-        <v>300700011</v>
+        <v>300600013</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="9">
-        <v>300700011</v>
+        <v>56</v>
+      </c>
+      <c r="D34" s="11">
+        <v>30060001</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9" t="s">
-        <v>33</v>
+      <c r="J34" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="K34" s="9">
-        <v>97040001</v>
+        <v>80020006</v>
       </c>
       <c r="L34" s="9">
-        <v>300700012</v>
-      </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-    </row>
-    <row r="35" s="7" customFormat="1" spans="2:15">
+        <v>-5000</v>
+      </c>
+      <c r="M34" s="9">
+        <v>5000</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>270</v>
+      </c>
+      <c r="P34" s="7">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="2:16">
       <c r="B35" s="9">
-        <v>300700012</v>
+        <v>300600014</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="9">
-        <v>300700012</v>
+        <v>58</v>
+      </c>
+      <c r="D35" s="11">
+        <v>300600014</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2543,21 +2532,21 @@
       <c r="J35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="2:16">
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="2:21">
       <c r="B36" s="9">
-        <v>300800010</v>
+        <v>300700010</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="11">
-        <v>30080001</v>
+        <v>30070001</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2565,10 +2554,10 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K36" s="9">
-        <v>80020008</v>
+        <v>80020007</v>
       </c>
       <c r="L36" s="9">
         <v>0</v>
@@ -2581,16 +2570,17 @@
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-    </row>
-    <row r="37" s="7" customFormat="1" spans="2:16">
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" s="7" customFormat="1" spans="2:21">
       <c r="B37" s="9">
-        <v>300800011</v>
+        <v>300700011</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="9">
-        <v>300800011</v>
+        <v>300700011</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -2598,61 +2588,72 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="K37" s="9">
+        <v>97040001</v>
+      </c>
+      <c r="L37" s="9">
+        <v>300700012</v>
+      </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" s="7" customFormat="1" spans="2:16">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="2:15">
+      <c r="B38" s="9">
+        <v>300700012</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="9">
+        <v>300700012</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="J38" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" s="7" customFormat="1" spans="1:16">
-      <c r="A39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="12">
-        <v>900200010</v>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="2:16">
+      <c r="B39" s="9">
+        <v>300800010</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="12">
-        <v>30020001</v>
+      <c r="D39" s="11">
+        <v>30080001</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9" t="s">
-        <v>63</v>
+      <c r="J39" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="K39" s="9">
-        <v>40031</v>
+        <v>80020008</v>
       </c>
       <c r="L39" s="9">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="M39" s="9">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N39" s="9">
         <v>0</v>
@@ -2660,18 +2661,15 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" s="7" customFormat="1" spans="1:16">
-      <c r="A40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="12">
-        <v>900400010</v>
+    <row r="40" s="7" customFormat="1" spans="2:16">
+      <c r="B40" s="9">
+        <v>300800011</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12">
-        <v>30040001</v>
+        <v>63</v>
+      </c>
+      <c r="D40" s="9">
+        <v>300800011</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2679,26 +2677,19 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K40" s="9">
-        <v>3</v>
-      </c>
-      <c r="L40" s="9">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="2:16">
-      <c r="B41" s="12"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -2709,44 +2700,57 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:21">
-      <c r="A42" s="10" t="s">
+    <row r="42" s="7" customFormat="1" spans="1:16">
+      <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="12">
+        <v>900200010</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="12">
+        <v>30020001</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="9">
+        <v>40031</v>
+      </c>
+      <c r="L42" s="9">
+        <v>15000</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="1:16">
+      <c r="A43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="12">
+        <v>900400010</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-    </row>
-    <row r="43" s="7" customFormat="1" spans="2:16">
-      <c r="B43" s="9">
-        <v>400001010</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="9">
-        <v>40000101</v>
+      <c r="D43" s="12">
+        <v>30040001</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -2754,111 +2758,103 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="K43" s="9">
+        <v>3</v>
+      </c>
+      <c r="L43" s="9">
+        <v>15000</v>
+      </c>
+      <c r="M43" s="9">
         <v>0</v>
       </c>
-      <c r="L43" s="9">
-        <v>10000</v>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
       <c r="P43" s="9"/>
     </row>
     <row r="44" s="7" customFormat="1" spans="2:16">
-      <c r="B44" s="9">
-        <v>400001011</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="9">
-        <v>40000101</v>
-      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" s="7" customFormat="1" spans="2:16">
-      <c r="B45" s="9">
-        <v>400100010</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="9">
-        <v>40010001</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
+    <row r="45" s="7" customFormat="1" spans="1:21">
+      <c r="A45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
     </row>
     <row r="46" s="7" customFormat="1" spans="2:16">
       <c r="B46" s="9">
-        <v>400200010</v>
+        <v>400001010</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" s="9">
-        <v>40020001</v>
+        <v>40000101</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="12" t="s">
-        <v>37</v>
+      <c r="J46" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="K46" s="9">
-        <v>40020001</v>
+        <v>0</v>
       </c>
       <c r="L46" s="9">
-        <v>0</v>
-      </c>
-      <c r="M46" s="9">
         <v>10000</v>
       </c>
-      <c r="N46" s="9">
-        <v>0</v>
-      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
     <row r="47" s="7" customFormat="1" spans="2:16">
       <c r="B47" s="9">
-        <v>400200011</v>
+        <v>400001011</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D47" s="9">
-        <v>400200011</v>
+        <v>40000101</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -2866,7 +2862,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -2876,15 +2872,23 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" s="7" customFormat="1" spans="2:16">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="9">
+        <v>400100010</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="9">
+        <v>40010001</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="J48" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -2892,148 +2896,133 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" s="7" customFormat="1" spans="1:21">
-      <c r="A49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10" t="s">
+    <row r="49" s="7" customFormat="1" spans="2:16">
+      <c r="B49" s="9">
+        <v>400200010</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
+      <c r="D49" s="9">
+        <v>40020001</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="9">
+        <v>40020001</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="2:16">
       <c r="B50" s="9">
-        <v>500100010</v>
+        <v>400200011</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="9">
-        <v>50010001</v>
+        <v>400200011</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="9">
-        <v>70000001</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K50" s="9">
-        <v>1</v>
-      </c>
-      <c r="L50" s="9">
-        <v>100000</v>
-      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="2:16">
-      <c r="B51" s="9">
-        <v>500200010</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="9">
-        <v>50020001</v>
-      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="9">
-        <v>70000002</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K51" s="9">
-        <v>2</v>
-      </c>
-      <c r="L51" s="9">
-        <v>100000</v>
-      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" s="7" customFormat="1" spans="2:16">
-      <c r="B52" s="9">
-        <v>500300010</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="9">
-        <v>50030001</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9">
-        <v>70000001</v>
-      </c>
-      <c r="J52" s="12" t="s">
+    <row r="52" s="7" customFormat="1" spans="1:21">
+      <c r="A52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K52" s="9">
-        <v>501</v>
-      </c>
-      <c r="L52" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="2:16">
       <c r="B53" s="9">
-        <v>500400010</v>
+        <v>500100010</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" s="9">
-        <v>50040001</v>
+        <v>50010001</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K53" s="9">
-        <v>10033</v>
+        <v>1</v>
       </c>
       <c r="L53" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
@@ -3041,13 +3030,13 @@
     </row>
     <row r="54" s="7" customFormat="1" spans="2:16">
       <c r="B54" s="9">
-        <v>500500010</v>
+        <v>500200010</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="9">
-        <v>50050001</v>
+        <v>50020001</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -3057,17 +3046,107 @@
         <v>70000002</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K54" s="9">
-        <v>10073</v>
+        <v>2</v>
       </c>
       <c r="L54" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
+    </row>
+    <row r="55" s="7" customFormat="1" spans="2:16">
+      <c r="B55" s="9">
+        <v>500300010</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="9">
+        <v>50030001</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9">
+        <v>70000001</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="9">
+        <v>501</v>
+      </c>
+      <c r="L55" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" s="7" customFormat="1" spans="2:16">
+      <c r="B56" s="9">
+        <v>500400010</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="9">
+        <v>50040001</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9">
+        <v>70000002</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="9">
+        <v>10033</v>
+      </c>
+      <c r="L56" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+    </row>
+    <row r="57" s="7" customFormat="1" spans="2:16">
+      <c r="B57" s="9">
+        <v>500500010</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="9">
+        <v>50050001</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9">
+        <v>70000002</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="9">
+        <v>10073</v>
+      </c>
+      <c r="L57" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3091,8 +3170,8 @@
   <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -3135,47 +3214,47 @@
         <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3183,13 +3262,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3197,56 +3276,56 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3254,99 +3333,99 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3354,30 +3433,30 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3385,72 +3464,72 @@
         <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="122">
   <si>
     <t>##var</t>
   </si>
@@ -208,6 +208,15 @@
     <t>大本营 生产金币1个</t>
   </si>
   <si>
+    <t>建筑通用 高度加成攻速</t>
+  </si>
+  <si>
+    <t>高度增加属性</t>
+  </si>
+  <si>
+    <t>建筑通用 高度加成攻击力</t>
+  </si>
+  <si>
     <t>TowerCircle</t>
   </si>
   <si>
@@ -425,6 +434,9 @@
   </si>
   <si>
     <t>实时碰撞检测，不需要索敌ID，避免海量使用该类型子弹，适用于速度慢的子弹</t>
+  </si>
+  <si>
+    <t>单层增加的属性值(万分比)</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1477,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2087,13 +2099,13 @@
     </row>
     <row r="21" s="7" customFormat="1" spans="2:16">
       <c r="B21" s="9">
-        <v>300100010</v>
+        <v>300090010</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="11">
-        <v>30010001</v>
+      <c r="D21" s="9">
+        <v>30009001</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2101,10 +2113,14 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="K21" s="9">
+        <v>10073</v>
+      </c>
+      <c r="L21" s="9">
+        <v>5000</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2112,13 +2128,13 @@
     </row>
     <row r="22" s="7" customFormat="1" spans="2:16">
       <c r="B22" s="9">
-        <v>300200010</v>
+        <v>300090011</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="11">
-        <v>30020001</v>
+        <v>47</v>
+      </c>
+      <c r="D22" s="9">
+        <v>30009001</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2126,10 +2142,10 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K22" s="9">
-        <v>100</v>
+        <v>10031</v>
       </c>
       <c r="L22" s="9">
         <v>10000</v>
@@ -2141,25 +2157,24 @@
     </row>
     <row r="23" s="7" customFormat="1" spans="2:16">
       <c r="B23" s="9">
-        <v>300300010</v>
+        <v>300100010</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="9">
-        <v>30030001</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="11">
+        <v>30010001</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="9">
-        <v>30030001</v>
-      </c>
+      <c r="J23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2167,13 +2182,13 @@
     </row>
     <row r="24" s="7" customFormat="1" spans="2:16">
       <c r="B24" s="9">
-        <v>300300011</v>
+        <v>300200010</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="11">
-        <v>300300011</v>
+        <v>30020001</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2184,10 +2199,10 @@
         <v>29</v>
       </c>
       <c r="K24" s="9">
-        <v>10073</v>
+        <v>100</v>
       </c>
       <c r="L24" s="9">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -2196,13 +2211,13 @@
     </row>
     <row r="25" s="7" customFormat="1" spans="2:16">
       <c r="B25" s="9">
-        <v>300400010</v>
+        <v>300300010</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="11">
-        <v>30040001</v>
+        <v>50</v>
+      </c>
+      <c r="D25" s="9">
+        <v>30030001</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2210,32 +2225,25 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K25" s="9">
-        <v>80020004</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
+        <v>30030001</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
     <row r="26" s="7" customFormat="1" spans="2:16">
       <c r="B26" s="9">
-        <v>300400011</v>
+        <v>300300011</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="11">
-        <v>300400011</v>
+        <v>300300011</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2243,10 +2251,14 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="K26" s="9">
+        <v>10073</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5000</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2254,13 +2266,13 @@
     </row>
     <row r="27" s="7" customFormat="1" spans="2:16">
       <c r="B27" s="9">
-        <v>300500010</v>
+        <v>300400010</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" s="11">
-        <v>30050001</v>
+        <v>30040001</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2271,7 +2283,7 @@
         <v>39</v>
       </c>
       <c r="K27" s="9">
-        <v>80020005</v>
+        <v>80020004</v>
       </c>
       <c r="L27" s="9">
         <v>0</v>
@@ -2287,13 +2299,13 @@
     </row>
     <row r="28" s="7" customFormat="1" spans="2:16">
       <c r="B28" s="9">
-        <v>300500011</v>
+        <v>300400011</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" s="11">
-        <v>300500011</v>
+        <v>300400011</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2310,15 +2322,15 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
+    <row r="29" s="7" customFormat="1" spans="2:16">
       <c r="B29" s="9">
-        <v>300500012</v>
+        <v>300500010</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" s="11">
-        <v>300500011</v>
+        <v>30050001</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2326,26 +2338,32 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K29" s="9">
-        <v>30050001</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+        <v>80020005</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="2:16">
       <c r="B30" s="9">
-        <v>300500013</v>
+        <v>300500011</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="7">
-        <v>300500013</v>
+        <v>55</v>
+      </c>
+      <c r="D30" s="11">
+        <v>300500011</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2353,28 +2371,24 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="9">
-        <v>10053</v>
-      </c>
-      <c r="L30" s="9">
-        <v>2000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" s="7" customFormat="1" spans="2:16">
+    <row r="31" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
       <c r="B31" s="9">
-        <v>300600010</v>
+        <v>300500012</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="11">
-        <v>30060001</v>
+        <v>300500011</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2382,70 +2396,52 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="12" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="K31" s="9">
-        <v>80020006</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>5000</v>
-      </c>
-      <c r="N31" s="9">
-        <v>5000</v>
-      </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7">
-        <v>97050001</v>
-      </c>
+        <v>30050001</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" s="7" customFormat="1" spans="2:16">
       <c r="B32" s="9">
-        <v>300600011</v>
+        <v>300500013</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="11">
-        <v>30060001</v>
+        <v>57</v>
+      </c>
+      <c r="D32" s="7">
+        <v>300500013</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="12" t="s">
-        <v>57</v>
+      <c r="J32" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K32" s="9">
-        <v>80020006</v>
+        <v>10053</v>
       </c>
       <c r="L32" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M32" s="9">
-        <v>5000</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
-        <v>90</v>
-      </c>
-      <c r="P32" s="7">
-        <v>97050001</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
     </row>
     <row r="33" s="7" customFormat="1" spans="2:16">
       <c r="B33" s="9">
-        <v>300600012</v>
+        <v>300600010</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D33" s="11">
         <v>30060001</v>
@@ -2456,7 +2452,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K33" s="9">
         <v>80020006</v>
@@ -2468,10 +2464,10 @@
         <v>5000</v>
       </c>
       <c r="N33" s="9">
-        <v>-5000</v>
-      </c>
-      <c r="O33" s="7">
-        <v>180</v>
+        <v>5000</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
       </c>
       <c r="P33" s="7">
         <v>97050001</v>
@@ -2479,10 +2475,10 @@
     </row>
     <row r="34" s="7" customFormat="1" spans="2:16">
       <c r="B34" s="9">
-        <v>300600013</v>
+        <v>300600011</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D34" s="11">
         <v>30060001</v>
@@ -2493,13 +2489,13 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K34" s="9">
         <v>80020006</v>
       </c>
       <c r="L34" s="9">
-        <v>-5000</v>
+        <v>5000</v>
       </c>
       <c r="M34" s="9">
         <v>5000</v>
@@ -2508,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="9">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="P34" s="7">
         <v>97050001</v>
@@ -2516,37 +2512,50 @@
     </row>
     <row r="35" s="7" customFormat="1" spans="2:16">
       <c r="B35" s="9">
-        <v>300600014</v>
+        <v>300600012</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11">
-        <v>300600014</v>
+        <v>30060001</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="2:21">
+      <c r="J35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="9">
+        <v>80020006</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>5000</v>
+      </c>
+      <c r="N35" s="9">
+        <v>-5000</v>
+      </c>
+      <c r="O35" s="7">
+        <v>180</v>
+      </c>
+      <c r="P35" s="7">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="2:16">
       <c r="B36" s="9">
-        <v>300700010</v>
+        <v>300600013</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="11">
-        <v>30070001</v>
+        <v>30060001</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2554,33 +2563,36 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K36" s="9">
-        <v>80020007</v>
+        <v>80020006</v>
       </c>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="M36" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N36" s="9">
         <v>0</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="U36" s="9"/>
-    </row>
-    <row r="37" s="7" customFormat="1" spans="2:21">
+      <c r="O36" s="9">
+        <v>270</v>
+      </c>
+      <c r="P36" s="7">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="37" s="7" customFormat="1" spans="2:16">
       <c r="B37" s="9">
-        <v>300700011</v>
+        <v>300600014</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="9">
-        <v>300700011</v>
+        <v>61</v>
+      </c>
+      <c r="D37" s="11">
+        <v>300600014</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -2588,88 +2600,89 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" s="9">
-        <v>97040001</v>
-      </c>
-      <c r="L37" s="9">
-        <v>300700012</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-    </row>
-    <row r="38" s="7" customFormat="1" spans="2:15">
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="2:21">
       <c r="B38" s="9">
-        <v>300700012</v>
+        <v>300700010</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="9">
-        <v>300700012</v>
+        <v>62</v>
+      </c>
+      <c r="D38" s="11">
+        <v>30070001</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="J38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="9">
+        <v>80020007</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
       <c r="O38" s="9"/>
-    </row>
-    <row r="39" s="7" customFormat="1" spans="2:16">
+      <c r="P38" s="9"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="2:21">
       <c r="B39" s="9">
-        <v>300800010</v>
+        <v>300700011</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="11">
-        <v>30080001</v>
+        <v>63</v>
+      </c>
+      <c r="D39" s="9">
+        <v>300700011</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="12" t="s">
-        <v>39</v>
+      <c r="J39" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="K39" s="9">
-        <v>80020008</v>
+        <v>97040001</v>
       </c>
       <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
+        <v>300700012</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" s="7" customFormat="1" spans="2:16">
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" s="7" customFormat="1" spans="2:15">
       <c r="B40" s="9">
-        <v>300800011</v>
+        <v>300700012</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="9">
-        <v>300800011</v>
+        <v>300700012</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2684,37 +2697,49 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
     </row>
     <row r="41" s="7" customFormat="1" spans="2:16">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="9">
+        <v>300800010</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="11">
+        <v>30080001</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="J41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="9">
+        <v>80020008</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:16">
-      <c r="A42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="12">
-        <v>900200010</v>
+    <row r="42" s="7" customFormat="1" spans="2:16">
+      <c r="B42" s="9">
+        <v>300800011</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="12">
-        <v>30020001</v>
+        <v>66</v>
+      </c>
+      <c r="D42" s="9">
+        <v>300800011</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -2722,164 +2747,155 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K42" s="9">
-        <v>40031</v>
-      </c>
-      <c r="L42" s="9">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:16">
-      <c r="A43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="12">
-        <v>900400010</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="12">
-        <v>30040001</v>
-      </c>
+    <row r="43" s="7" customFormat="1" spans="2:16">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="1:16">
+      <c r="A44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="12">
+        <v>900200010</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="9">
-        <v>3</v>
-      </c>
-      <c r="L43" s="9">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="2:16">
-      <c r="B44" s="12"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="12">
+        <v>30020001</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="9">
+        <v>40031</v>
+      </c>
+      <c r="L44" s="9">
+        <v>15000</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" s="7" customFormat="1" spans="1:21">
-      <c r="A45" s="10" t="s">
+    <row r="45" s="7" customFormat="1" spans="1:16">
+      <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
+      <c r="B45" s="12">
+        <v>900400010</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="12">
+        <v>30040001</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="9">
+        <v>3</v>
+      </c>
+      <c r="L45" s="9">
+        <v>15000</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="P45" s="9"/>
     </row>
     <row r="46" s="7" customFormat="1" spans="2:16">
-      <c r="B46" s="9">
-        <v>400001010</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="9">
-        <v>40000101</v>
-      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <v>10000</v>
-      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" s="7" customFormat="1" spans="2:16">
-      <c r="B47" s="9">
-        <v>400001011</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="9">
-        <v>40000101</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9" t="s">
+    <row r="47" s="7" customFormat="1" spans="1:21">
+      <c r="A47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
     </row>
     <row r="48" s="7" customFormat="1" spans="2:16">
       <c r="B48" s="9">
-        <v>400100010</v>
+        <v>400001010</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="9">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -2889,8 +2905,12 @@
       <c r="J48" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
+        <v>10000</v>
+      </c>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
@@ -2898,46 +2918,38 @@
     </row>
     <row r="49" s="7" customFormat="1" spans="2:16">
       <c r="B49" s="9">
-        <v>400200010</v>
+        <v>400001011</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="9">
-        <v>40020001</v>
+        <v>40000101</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49" s="9">
-        <v>40020001</v>
-      </c>
-      <c r="L49" s="9">
-        <v>0</v>
-      </c>
-      <c r="M49" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N49" s="9">
-        <v>0</v>
-      </c>
+      <c r="J49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="2:16">
       <c r="B50" s="9">
-        <v>400200011</v>
+        <v>400100010</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D50" s="9">
-        <v>400200011</v>
+        <v>40010001</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -2955,118 +2967,116 @@
       <c r="P50" s="9"/>
     </row>
     <row r="51" s="7" customFormat="1" spans="2:16">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="9">
+        <v>400200010</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="9">
+        <v>40020001</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
+      <c r="J51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="9">
+        <v>40020001</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" s="7" customFormat="1" spans="1:21">
-      <c r="A52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
+    <row r="52" s="7" customFormat="1" spans="2:16">
+      <c r="B52" s="9">
+        <v>400200011</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="9">
+        <v>400200011</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="2:16">
-      <c r="B53" s="9">
-        <v>500100010</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="9">
-        <v>50010001</v>
-      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="9">
-        <v>70000001</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K53" s="9">
-        <v>1</v>
-      </c>
-      <c r="L53" s="9">
-        <v>100000</v>
-      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" s="7" customFormat="1" spans="2:16">
-      <c r="B54" s="9">
-        <v>500200010</v>
-      </c>
-      <c r="C54" s="9" t="s">
+    <row r="54" s="7" customFormat="1" spans="1:21">
+      <c r="A54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="9">
-        <v>50020001</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9">
-        <v>70000002</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K54" s="9">
-        <v>2</v>
-      </c>
-      <c r="L54" s="9">
-        <v>100000</v>
-      </c>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="2:16">
       <c r="B55" s="9">
-        <v>500300010</v>
+        <v>500100010</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D55" s="9">
-        <v>50030001</v>
+        <v>50010001</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -3076,13 +3086,13 @@
         <v>70000001</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K55" s="9">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="L55" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
@@ -3090,13 +3100,13 @@
     </row>
     <row r="56" s="7" customFormat="1" spans="2:16">
       <c r="B56" s="9">
-        <v>500400010</v>
+        <v>500200010</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D56" s="9">
-        <v>50040001</v>
+        <v>50020001</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -3106,13 +3116,13 @@
         <v>70000002</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K56" s="9">
-        <v>10033</v>
+        <v>2</v>
       </c>
       <c r="L56" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
@@ -3120,26 +3130,26 @@
     </row>
     <row r="57" s="7" customFormat="1" spans="2:16">
       <c r="B57" s="9">
-        <v>500500010</v>
+        <v>500300010</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D57" s="9">
-        <v>50050001</v>
+        <v>50030001</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K57" s="9">
-        <v>10073</v>
+        <v>501</v>
       </c>
       <c r="L57" s="9">
         <v>10000</v>
@@ -3147,6 +3157,66 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
+    </row>
+    <row r="58" s="7" customFormat="1" spans="2:16">
+      <c r="B58" s="9">
+        <v>500400010</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="9">
+        <v>50040001</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9">
+        <v>70000002</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="9">
+        <v>10033</v>
+      </c>
+      <c r="L58" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+    </row>
+    <row r="59" s="7" customFormat="1" spans="2:16">
+      <c r="B59" s="9">
+        <v>500500010</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="9">
+        <v>50050001</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9">
+        <v>70000002</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="9">
+        <v>10073</v>
+      </c>
+      <c r="L59" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3168,10 +3238,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -3179,7 +3249,9 @@
     <col min="1" max="1" width="15.0714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.2142857142857" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.6517857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6517857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.9285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6517857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.7857142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.1428571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.14285714285714" style="1"/>
@@ -3214,47 +3286,47 @@
         <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3262,13 +3334,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3276,56 +3348,56 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3333,99 +3405,99 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3433,10 +3505,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3444,19 +3516,19 @@
         <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3464,72 +3536,92 @@
         <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="123">
   <si>
     <t>##var</t>
   </si>
@@ -208,12 +208,15 @@
     <t>大本营 生产金币1个</t>
   </si>
   <si>
+    <t>建筑通用 添加BUFF</t>
+  </si>
+  <si>
+    <t>添加高度Buff</t>
+  </si>
+  <si>
     <t>建筑通用 高度加成攻速</t>
   </si>
   <si>
-    <t>高度增加属性</t>
-  </si>
-  <si>
     <t>建筑通用 高度加成攻击力</t>
   </si>
   <si>
@@ -436,7 +439,7 @@
     <t>实时碰撞检测，不需要索敌ID，避免海量使用该类型子弹，适用于速度慢的子弹</t>
   </si>
   <si>
-    <t>单层增加的属性值(万分比)</t>
+    <t>以高度为层数添加BUFF，可同时添加多个BUFF</t>
   </si>
 </sst>
 </file>
@@ -1477,10 +1480,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2112,15 +2115,13 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="K21" s="9">
-        <v>10073</v>
-      </c>
-      <c r="L21" s="9">
-        <v>5000</v>
-      </c>
+        <v>30009001</v>
+      </c>
+      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2134,7 +2135,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="9">
-        <v>30009001</v>
+        <v>300090011</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2142,13 +2143,13 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K22" s="9">
-        <v>10031</v>
+        <v>10073</v>
       </c>
       <c r="L22" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -2157,13 +2158,13 @@
     </row>
     <row r="23" s="7" customFormat="1" spans="2:16">
       <c r="B23" s="9">
-        <v>300100010</v>
+        <v>300090012</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="11">
-        <v>30010001</v>
+      <c r="D23" s="9">
+        <v>300090011</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2171,10 +2172,14 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="K23" s="9">
+        <v>10031</v>
+      </c>
+      <c r="L23" s="9">
+        <v>10000</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2182,13 +2187,13 @@
     </row>
     <row r="24" s="7" customFormat="1" spans="2:16">
       <c r="B24" s="9">
-        <v>300200010</v>
+        <v>300100010</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="11">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2196,14 +2201,10 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="9">
-        <v>100</v>
-      </c>
-      <c r="L24" s="9">
-        <v>10000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2211,24 +2212,27 @@
     </row>
     <row r="25" s="7" customFormat="1" spans="2:16">
       <c r="B25" s="9">
-        <v>300300010</v>
+        <v>300200010</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="9">
-        <v>30030001</v>
+      <c r="D25" s="11">
+        <v>30020001</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="12" t="s">
-        <v>27</v>
+      <c r="J25" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K25" s="9">
-        <v>30030001</v>
+        <v>100</v>
+      </c>
+      <c r="L25" s="9">
+        <v>10000</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2237,27 +2241,24 @@
     </row>
     <row r="26" s="7" customFormat="1" spans="2:16">
       <c r="B26" s="9">
-        <v>300300011</v>
+        <v>300300010</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="11">
-        <v>300300011</v>
+      <c r="D26" s="9">
+        <v>30030001</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9" t="s">
-        <v>29</v>
+      <c r="J26" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="K26" s="9">
-        <v>10073</v>
-      </c>
-      <c r="L26" s="9">
-        <v>5000</v>
+        <v>30030001</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2266,123 +2267,127 @@
     </row>
     <row r="27" s="7" customFormat="1" spans="2:16">
       <c r="B27" s="9">
-        <v>300400010</v>
+        <v>300300011</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="11">
-        <v>30040001</v>
+        <v>300300011</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="12" t="s">
-        <v>39</v>
+      <c r="J27" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K27" s="9">
-        <v>80020004</v>
+        <v>10073</v>
       </c>
       <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" s="7" customFormat="1" spans="2:16">
       <c r="B28" s="9">
-        <v>300400011</v>
+        <v>300400010</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="11">
-        <v>300400011</v>
+        <v>30040001</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="J28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="9">
+        <v>80020004</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="2:16">
       <c r="B29" s="9">
-        <v>300500010</v>
+        <v>300400011</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="11">
-        <v>30050001</v>
+        <v>300400011</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="9">
-        <v>80020005</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="2:16">
       <c r="B30" s="9">
-        <v>300500011</v>
+        <v>300500010</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="11">
-        <v>300500011</v>
+        <v>30050001</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="J30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="9">
+        <v>80020005</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
+    <row r="31" s="7" customFormat="1" spans="2:16">
       <c r="B31" s="9">
-        <v>300500012</v>
+        <v>300500011</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>56</v>
@@ -2395,42 +2400,38 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="9">
-        <v>30050001</v>
-      </c>
+      <c r="J31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" s="7" customFormat="1" spans="2:16">
+    <row r="32" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
       <c r="B32" s="9">
-        <v>300500013</v>
+        <v>300500012</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="7">
-        <v>300500013</v>
+      <c r="D32" s="11">
+        <v>300500011</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
-        <v>58</v>
+      <c r="J32" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="K32" s="9">
-        <v>10053</v>
-      </c>
-      <c r="L32" s="9">
-        <v>2000</v>
-      </c>
+        <v>30050001</v>
+      </c>
+      <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -2438,47 +2439,39 @@
     </row>
     <row r="33" s="7" customFormat="1" spans="2:16">
       <c r="B33" s="9">
-        <v>300600010</v>
+        <v>300500013</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="11">
-        <v>30060001</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="7">
+        <v>300500013</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="12" t="s">
-        <v>60</v>
+      <c r="J33" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="K33" s="9">
-        <v>80020006</v>
+        <v>10053</v>
       </c>
       <c r="L33" s="9">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
-        <v>5000</v>
-      </c>
-      <c r="N33" s="9">
-        <v>5000</v>
-      </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <v>97050001</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" s="7" customFormat="1" spans="2:16">
       <c r="B34" s="9">
-        <v>300600011</v>
+        <v>300600010</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" s="11">
         <v>30060001</v>
@@ -2489,22 +2482,22 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34" s="9">
         <v>80020006</v>
       </c>
       <c r="L34" s="9">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="M34" s="9">
         <v>5000</v>
       </c>
       <c r="N34" s="9">
+        <v>5000</v>
+      </c>
+      <c r="O34" s="9">
         <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>90</v>
       </c>
       <c r="P34" s="7">
         <v>97050001</v>
@@ -2512,10 +2505,10 @@
     </row>
     <row r="35" s="7" customFormat="1" spans="2:16">
       <c r="B35" s="9">
-        <v>300600012</v>
+        <v>300600011</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" s="11">
         <v>30060001</v>
@@ -2526,22 +2519,22 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K35" s="9">
         <v>80020006</v>
       </c>
       <c r="L35" s="9">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M35" s="9">
         <v>5000</v>
       </c>
       <c r="N35" s="9">
-        <v>-5000</v>
-      </c>
-      <c r="O35" s="7">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>90</v>
       </c>
       <c r="P35" s="7">
         <v>97050001</v>
@@ -2549,10 +2542,10 @@
     </row>
     <row r="36" s="7" customFormat="1" spans="2:16">
       <c r="B36" s="9">
-        <v>300600013</v>
+        <v>300600012</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="11">
         <v>30060001</v>
@@ -2563,22 +2556,22 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K36" s="9">
         <v>80020006</v>
       </c>
       <c r="L36" s="9">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="M36" s="9">
         <v>5000</v>
       </c>
       <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <v>270</v>
+        <v>-5000</v>
+      </c>
+      <c r="O36" s="7">
+        <v>180</v>
       </c>
       <c r="P36" s="7">
         <v>97050001</v>
@@ -2586,103 +2579,108 @@
     </row>
     <row r="37" s="7" customFormat="1" spans="2:16">
       <c r="B37" s="9">
-        <v>300600014</v>
+        <v>300600013</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="11">
-        <v>300600014</v>
+        <v>30060001</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" s="7" customFormat="1" spans="2:21">
+      <c r="J37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="9">
+        <v>80020006</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-5000</v>
+      </c>
+      <c r="M37" s="9">
+        <v>5000</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>270</v>
+      </c>
+      <c r="P37" s="7">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="2:16">
       <c r="B38" s="9">
-        <v>300700010</v>
+        <v>300600014</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="11">
-        <v>30070001</v>
+        <v>300600014</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="9">
-        <v>80020007</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
+      <c r="J38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="U38" s="9"/>
     </row>
     <row r="39" s="7" customFormat="1" spans="2:21">
       <c r="B39" s="9">
-        <v>300700011</v>
+        <v>300700010</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="9">
-        <v>300700011</v>
+      <c r="D39" s="11">
+        <v>30070001</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9" t="s">
-        <v>33</v>
+      <c r="J39" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K39" s="9">
-        <v>97040001</v>
+        <v>80020007</v>
       </c>
       <c r="L39" s="9">
-        <v>300700012</v>
-      </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
       <c r="O39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+      <c r="P39" s="9"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" s="7" customFormat="1" spans="2:15">
+    <row r="40" s="7" customFormat="1" spans="2:21">
       <c r="B40" s="9">
-        <v>300700012</v>
+        <v>300700011</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D40" s="9">
-        <v>300700012</v>
+        <v>300700011</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2690,82 +2688,97 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="K40" s="9">
+        <v>97040001</v>
+      </c>
+      <c r="L40" s="9">
+        <v>300700012</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-    </row>
-    <row r="41" s="7" customFormat="1" spans="2:16">
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" s="7" customFormat="1" spans="2:15">
       <c r="B41" s="9">
-        <v>300800010</v>
+        <v>300700012</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="11">
-        <v>30080001</v>
+      <c r="D41" s="9">
+        <v>300700012</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K41" s="9">
-        <v>80020008</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
+      <c r="J41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
     </row>
     <row r="42" s="7" customFormat="1" spans="2:16">
       <c r="B42" s="9">
-        <v>300800011</v>
+        <v>300800010</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="9">
-        <v>300800011</v>
+      <c r="D42" s="11">
+        <v>30080001</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="J42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="9">
+        <v>80020008</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" s="7" customFormat="1" spans="2:16">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="9">
+        <v>300800011</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="9">
+        <v>300800011</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="J43" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -2773,39 +2786,20 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:16">
-      <c r="A44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="12">
-        <v>900200010</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="12">
-        <v>30020001</v>
-      </c>
+    <row r="44" s="7" customFormat="1" spans="2:16">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K44" s="9">
-        <v>40031</v>
-      </c>
-      <c r="L44" s="9">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="9">
-        <v>0</v>
-      </c>
-      <c r="N44" s="9">
-        <v>0</v>
-      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
@@ -2814,13 +2808,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="12">
-        <v>900400010</v>
+        <v>900200010</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="12">
-        <v>30040001</v>
+        <v>30020001</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -2828,10 +2822,10 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="9">
-        <v>3</v>
+        <v>40031</v>
       </c>
       <c r="L45" s="9">
         <v>15000</v>
@@ -2842,83 +2836,90 @@
       <c r="N45" s="9">
         <v>0</v>
       </c>
+      <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" s="7" customFormat="1" spans="2:16">
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="12"/>
+    <row r="46" s="7" customFormat="1" spans="1:16">
+      <c r="A46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="12">
+        <v>900400010</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="12">
+        <v>30040001</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
+      <c r="J46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="9">
+        <v>3</v>
+      </c>
+      <c r="L46" s="9">
+        <v>15000</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" s="7" customFormat="1" spans="1:21">
-      <c r="A47" s="10" t="s">
+    <row r="47" s="7" customFormat="1" spans="2:16">
+      <c r="B47" s="12"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="1:21">
+      <c r="A48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-    </row>
-    <row r="48" s="7" customFormat="1" spans="2:16">
-      <c r="B48" s="9">
-        <v>400001010</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="9">
-        <v>40000101</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <v>10000</v>
-      </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
     </row>
     <row r="49" s="7" customFormat="1" spans="2:16">
       <c r="B49" s="9">
-        <v>400001011</v>
+        <v>400001010</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>73</v>
@@ -2932,10 +2933,14 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>10000</v>
+      </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
@@ -2943,13 +2948,13 @@
     </row>
     <row r="50" s="7" customFormat="1" spans="2:16">
       <c r="B50" s="9">
-        <v>400100010</v>
+        <v>400001011</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="9">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -2957,7 +2962,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -2968,72 +2973,80 @@
     </row>
     <row r="51" s="7" customFormat="1" spans="2:16">
       <c r="B51" s="9">
-        <v>400200010</v>
+        <v>400100010</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="9">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K51" s="9">
-        <v>40020001</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N51" s="9">
-        <v>0</v>
-      </c>
+      <c r="J51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
     <row r="52" s="7" customFormat="1" spans="2:16">
       <c r="B52" s="9">
-        <v>400200011</v>
+        <v>400200010</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="9">
-        <v>400200011</v>
+        <v>40020001</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
+      <c r="J52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="9">
+        <v>40020001</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="2:16">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="B53" s="9">
+        <v>400200011</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="9">
+        <v>400200011</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="J53" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
@@ -3041,85 +3054,72 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" s="7" customFormat="1" spans="1:21">
-      <c r="A54" s="10" t="s">
+    <row r="54" s="7" customFormat="1" spans="2:16">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+    </row>
+    <row r="55" s="7" customFormat="1" spans="1:21">
+      <c r="A55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-    </row>
-    <row r="55" s="7" customFormat="1" spans="2:16">
-      <c r="B55" s="9">
-        <v>500100010</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="9">
-        <v>50010001</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9">
-        <v>70000001</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K55" s="9">
-        <v>1</v>
-      </c>
-      <c r="L55" s="9">
-        <v>100000</v>
-      </c>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="2:16">
       <c r="B56" s="9">
-        <v>500200010</v>
+        <v>500100010</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" s="9">
-        <v>50020001</v>
+        <v>50010001</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K56" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56" s="9">
         <v>100000</v>
@@ -3130,29 +3130,29 @@
     </row>
     <row r="57" s="7" customFormat="1" spans="2:16">
       <c r="B57" s="9">
-        <v>500300010</v>
+        <v>500200010</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D57" s="9">
-        <v>50030001</v>
+        <v>50020001</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K57" s="9">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="L57" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
@@ -3160,26 +3160,26 @@
     </row>
     <row r="58" s="7" customFormat="1" spans="2:16">
       <c r="B58" s="9">
-        <v>500400010</v>
+        <v>500300010</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D58" s="9">
-        <v>50040001</v>
+        <v>50030001</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="K58" s="9">
-        <v>10033</v>
+        <v>501</v>
       </c>
       <c r="L58" s="9">
         <v>10000</v>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="59" s="7" customFormat="1" spans="2:16">
       <c r="B59" s="9">
-        <v>500500010</v>
+        <v>500400010</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="9">
-        <v>50050001</v>
+        <v>50040001</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="K59" s="9">
-        <v>10073</v>
+        <v>10033</v>
       </c>
       <c r="L59" s="9">
         <v>10000</v>
@@ -3217,6 +3217,36 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
+    </row>
+    <row r="60" s="7" customFormat="1" spans="2:16">
+      <c r="B60" s="9">
+        <v>500500010</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="9">
+        <v>50050001</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9">
+        <v>70000002</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="9">
+        <v>10073</v>
+      </c>
+      <c r="L60" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3240,8 +3270,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -3286,47 +3316,47 @@
         <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3334,13 +3364,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3348,56 +3378,56 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3405,99 +3435,99 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3505,10 +3535,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3516,19 +3546,19 @@
         <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3536,72 +3566,72 @@
         <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3609,19 +3639,16 @@
         <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Effect.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -178,6 +178,12 @@
     <t>爆炸伤害</t>
   </si>
   <si>
+    <t>召唤一个持续伤害的区域</t>
+  </si>
+  <si>
+    <t>召唤单位</t>
+  </si>
+  <si>
     <t>地块的技能效果</t>
   </si>
   <si>
@@ -280,9 +286,6 @@
     <t>兵营A召唤</t>
   </si>
   <si>
-    <t>召唤士兵</t>
-  </si>
-  <si>
     <t>资源塔产出资源</t>
   </si>
   <si>
@@ -388,7 +391,10 @@
     <t>和增加属性，但属性值为负数等价</t>
   </si>
   <si>
-    <t>士兵ID</t>
+    <t>目标类型</t>
+  </si>
+  <si>
+    <t>目标ID</t>
   </si>
   <si>
     <t>x</t>
@@ -400,7 +406,7 @@
     <t>z</t>
   </si>
   <si>
-    <t>xyz是召唤目标位置</t>
+    <t>召唤目标类型需要配置枚举数字（查看builtin.xml中的EUnitType配置），xyz是召唤目标位置</t>
   </si>
   <si>
     <t>掉落包ID</t>
@@ -1480,10 +1486,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1822,189 +1828,199 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" s="7" customFormat="1" spans="2:16">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="9">
+        <v>100103010</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9">
+        <v>10010301</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="7">
+        <v>512</v>
+      </c>
+      <c r="L10" s="9">
+        <v>60001</v>
+      </c>
+      <c r="M10" s="9">
+        <v>15000</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:21">
-      <c r="A11" s="10" t="s">
+    <row r="11" s="7" customFormat="1" spans="2:16">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:21">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-    </row>
-    <row r="12" s="7" customFormat="1" spans="2:16">
-      <c r="B12" s="9">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="2:16">
+      <c r="B13" s="9">
         <v>200100010</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="9">
         <v>20010001</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="9">
-        <v>10073</v>
-      </c>
-      <c r="L12" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" s="7" customFormat="1" spans="2:16">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="9">
+        <v>10073</v>
+      </c>
+      <c r="L13" s="9">
+        <v>5000</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" s="7" customFormat="1" spans="1:21">
-      <c r="A14" s="10" t="s">
+    <row r="14" s="7" customFormat="1" spans="2:16">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="1:21">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-    </row>
-    <row r="15" s="7" customFormat="1" spans="2:16">
-      <c r="B15" s="9">
-        <v>300000010</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9">
-        <v>30000001</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="9">
-        <v>30000001</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>20000</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
     </row>
     <row r="16" s="7" customFormat="1" spans="2:16">
       <c r="B16" s="9">
-        <v>300000011</v>
+        <v>300000010</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="9">
-        <v>300000011</v>
+        <v>30000001</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="J16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="9">
+        <v>30000001</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>20000</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" s="7" customFormat="1" spans="2:16">
       <c r="B17" s="9">
-        <v>300000020</v>
+        <v>300000011</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="9">
-        <v>300000020</v>
+        <v>300000011</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2016,16 +2032,20 @@
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-    </row>
-    <row r="18" s="7" customFormat="1" spans="2:16">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="9">
-        <v>300000030</v>
+        <v>300000020</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="9">
-        <v>300000030</v>
+        <v>300000020</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2033,28 +2053,20 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="9">
-        <v>97040003</v>
-      </c>
-      <c r="L18" s="9">
-        <v>300000031</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" s="7" customFormat="1" spans="2:16">
       <c r="B19" s="9">
-        <v>300000031</v>
+        <v>300000030</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="9">
-        <v>300000031</v>
+        <v>300000030</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2062,10 +2074,14 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="K19" s="9">
+        <v>97040003</v>
+      </c>
+      <c r="L19" s="9">
+        <v>300000031</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2073,13 +2089,13 @@
     </row>
     <row r="20" s="7" customFormat="1" spans="2:16">
       <c r="B20" s="9">
-        <v>300010010</v>
+        <v>300000031</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="9">
-        <v>30001001</v>
+        <v>300000031</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2087,14 +2103,10 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="9">
-        <v>100</v>
-      </c>
-      <c r="L20" s="9">
-        <v>10000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2102,26 +2114,28 @@
     </row>
     <row r="21" s="7" customFormat="1" spans="2:16">
       <c r="B21" s="9">
-        <v>300090010</v>
+        <v>300010010</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="9">
-        <v>30009001</v>
+        <v>30001001</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="12" t="s">
-        <v>46</v>
+      <c r="J21" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K21" s="9">
-        <v>30009001</v>
-      </c>
-      <c r="L21" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="L21" s="9">
+        <v>10000</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2129,28 +2143,26 @@
     </row>
     <row r="22" s="7" customFormat="1" spans="2:16">
       <c r="B22" s="9">
-        <v>300090011</v>
+        <v>300090010</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="9">
-        <v>300090011</v>
+        <v>30009001</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
-        <v>29</v>
+      <c r="J22" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="K22" s="9">
-        <v>10073</v>
-      </c>
-      <c r="L22" s="9">
-        <v>5000</v>
-      </c>
+        <v>30009001</v>
+      </c>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2158,10 +2170,10 @@
     </row>
     <row r="23" s="7" customFormat="1" spans="2:16">
       <c r="B23" s="9">
-        <v>300090012</v>
+        <v>300090011</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9">
         <v>300090011</v>
@@ -2175,10 +2187,10 @@
         <v>29</v>
       </c>
       <c r="K23" s="9">
-        <v>10031</v>
+        <v>10073</v>
       </c>
       <c r="L23" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2187,13 +2199,13 @@
     </row>
     <row r="24" s="7" customFormat="1" spans="2:16">
       <c r="B24" s="9">
-        <v>300100010</v>
+        <v>300090012</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="11">
-        <v>30010001</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="9">
+        <v>300090011</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2201,10 +2213,14 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="K24" s="9">
+        <v>10031</v>
+      </c>
+      <c r="L24" s="9">
+        <v>10000</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2212,13 +2228,13 @@
     </row>
     <row r="25" s="7" customFormat="1" spans="2:16">
       <c r="B25" s="9">
-        <v>300200010</v>
+        <v>300100010</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="11">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2226,14 +2242,10 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="9">
-        <v>100</v>
-      </c>
-      <c r="L25" s="9">
-        <v>10000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2241,24 +2253,27 @@
     </row>
     <row r="26" s="7" customFormat="1" spans="2:16">
       <c r="B26" s="9">
-        <v>300300010</v>
+        <v>300200010</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="9">
-        <v>30030001</v>
+        <v>52</v>
+      </c>
+      <c r="D26" s="11">
+        <v>30020001</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="12" t="s">
-        <v>27</v>
+      <c r="J26" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K26" s="9">
-        <v>30030001</v>
+        <v>100</v>
+      </c>
+      <c r="L26" s="9">
+        <v>10000</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2267,27 +2282,24 @@
     </row>
     <row r="27" s="7" customFormat="1" spans="2:16">
       <c r="B27" s="9">
-        <v>300300011</v>
+        <v>300300010</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="11">
-        <v>300300011</v>
+        <v>53</v>
+      </c>
+      <c r="D27" s="9">
+        <v>30030001</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
-        <v>29</v>
+      <c r="J27" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="K27" s="9">
-        <v>10073</v>
-      </c>
-      <c r="L27" s="9">
-        <v>5000</v>
+        <v>30030001</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2296,126 +2308,130 @@
     </row>
     <row r="28" s="7" customFormat="1" spans="2:16">
       <c r="B28" s="9">
-        <v>300400010</v>
+        <v>300300011</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" s="11">
-        <v>30040001</v>
+        <v>300300011</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="12" t="s">
-        <v>39</v>
+      <c r="J28" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K28" s="9">
-        <v>80020004</v>
+        <v>10073</v>
       </c>
       <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="2:16">
       <c r="B29" s="9">
-        <v>300400011</v>
+        <v>300400010</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="11">
-        <v>300400011</v>
+        <v>30040001</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="J29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="9">
+        <v>80020004</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="2:16">
       <c r="B30" s="9">
-        <v>300500010</v>
+        <v>300400011</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="11">
-        <v>30050001</v>
+        <v>300400011</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="9">
-        <v>80020005</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
+      <c r="J30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="2:16">
       <c r="B31" s="9">
-        <v>300500011</v>
+        <v>300500010</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="11">
-        <v>300500011</v>
+        <v>30050001</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="J31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="9">
+        <v>80020005</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
+    <row r="32" s="7" customFormat="1" spans="2:16">
       <c r="B32" s="9">
-        <v>300500012</v>
+        <v>300500011</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32" s="11">
         <v>300500011</v>
@@ -2425,42 +2441,38 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="9">
-        <v>30050001</v>
-      </c>
+      <c r="J32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" s="7" customFormat="1" spans="2:16">
+    <row r="33" s="7" customFormat="1" ht="16" customHeight="1" spans="2:16">
       <c r="B33" s="9">
-        <v>300500013</v>
+        <v>300500012</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="7">
-        <v>300500013</v>
+        <v>59</v>
+      </c>
+      <c r="D33" s="11">
+        <v>300500011</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>59</v>
+      <c r="J33" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="K33" s="9">
-        <v>10053</v>
-      </c>
-      <c r="L33" s="9">
-        <v>2000</v>
-      </c>
+        <v>30050001</v>
+      </c>
+      <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -2468,47 +2480,39 @@
     </row>
     <row r="34" s="7" customFormat="1" spans="2:16">
       <c r="B34" s="9">
-        <v>300600010</v>
+        <v>300500013</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="11">
-        <v>30060001</v>
+      <c r="D34" s="7">
+        <v>300500013</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="9" t="s">
         <v>61</v>
       </c>
       <c r="K34" s="9">
-        <v>80020006</v>
+        <v>10053</v>
       </c>
       <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <v>5000</v>
-      </c>
-      <c r="N34" s="9">
-        <v>5000</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7">
-        <v>97050001</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
     </row>
     <row r="35" s="7" customFormat="1" spans="2:16">
       <c r="B35" s="9">
-        <v>300600011</v>
+        <v>300600010</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35" s="11">
         <v>30060001</v>
@@ -2519,22 +2523,22 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K35" s="9">
         <v>80020006</v>
       </c>
       <c r="L35" s="9">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="M35" s="9">
         <v>5000</v>
       </c>
       <c r="N35" s="9">
+        <v>5000</v>
+      </c>
+      <c r="O35" s="9">
         <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>90</v>
       </c>
       <c r="P35" s="7">
         <v>97050001</v>
@@ -2542,10 +2546,10 @@
     </row>
     <row r="36" s="7" customFormat="1" spans="2:16">
       <c r="B36" s="9">
-        <v>300600012</v>
+        <v>300600011</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D36" s="11">
         <v>30060001</v>
@@ -2556,22 +2560,22 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K36" s="9">
         <v>80020006</v>
       </c>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M36" s="9">
         <v>5000</v>
       </c>
       <c r="N36" s="9">
-        <v>-5000</v>
-      </c>
-      <c r="O36" s="7">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>90</v>
       </c>
       <c r="P36" s="7">
         <v>97050001</v>
@@ -2579,10 +2583,10 @@
     </row>
     <row r="37" s="7" customFormat="1" spans="2:16">
       <c r="B37" s="9">
-        <v>300600013</v>
+        <v>300600012</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D37" s="11">
         <v>30060001</v>
@@ -2593,22 +2597,22 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K37" s="9">
         <v>80020006</v>
       </c>
       <c r="L37" s="9">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="M37" s="9">
         <v>5000</v>
       </c>
       <c r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
-        <v>270</v>
+        <v>-5000</v>
+      </c>
+      <c r="O37" s="7">
+        <v>180</v>
       </c>
       <c r="P37" s="7">
         <v>97050001</v>
@@ -2616,103 +2620,108 @@
     </row>
     <row r="38" s="7" customFormat="1" spans="2:16">
       <c r="B38" s="9">
-        <v>300600014</v>
+        <v>300600013</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="11">
-        <v>300600014</v>
+        <v>30060001</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" s="7" customFormat="1" spans="2:21">
+      <c r="J38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="9">
+        <v>80020006</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-5000</v>
+      </c>
+      <c r="M38" s="9">
+        <v>5000</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>270</v>
+      </c>
+      <c r="P38" s="7">
+        <v>97050001</v>
+      </c>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="2:16">
       <c r="B39" s="9">
-        <v>300700010</v>
+        <v>300600014</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="11">
-        <v>30070001</v>
+        <v>300600014</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="9">
-        <v>80020007</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
+      <c r="J39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="U39" s="9"/>
     </row>
     <row r="40" s="7" customFormat="1" spans="2:21">
       <c r="B40" s="9">
-        <v>300700011</v>
+        <v>300700010</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="9">
-        <v>300700011</v>
+        <v>65</v>
+      </c>
+      <c r="D40" s="11">
+        <v>30070001</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9" t="s">
-        <v>33</v>
+      <c r="J40" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K40" s="9">
-        <v>97040001</v>
+        <v>80020007</v>
       </c>
       <c r="L40" s="9">
-        <v>300700012</v>
-      </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
       <c r="O40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="P40" s="9"/>
       <c r="U40" s="9"/>
     </row>
-    <row r="41" s="7" customFormat="1" spans="2:15">
+    <row r="41" s="7" customFormat="1" spans="2:21">
       <c r="B41" s="9">
-        <v>300700012</v>
+        <v>300700011</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" s="9">
-        <v>300700012</v>
+        <v>300700011</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -2720,82 +2729,97 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="K41" s="9">
+        <v>97040001</v>
+      </c>
+      <c r="L41" s="9">
+        <v>300700012</v>
+      </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-    </row>
-    <row r="42" s="7" customFormat="1" spans="2:16">
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="2:15">
       <c r="B42" s="9">
-        <v>300800010</v>
+        <v>300700012</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="11">
-        <v>30080001</v>
+        <v>67</v>
+      </c>
+      <c r="D42" s="9">
+        <v>300700012</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" s="9">
-        <v>80020008</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
+      <c r="J42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
     </row>
     <row r="43" s="7" customFormat="1" spans="2:16">
       <c r="B43" s="9">
-        <v>300800011</v>
+        <v>300800010</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="9">
-        <v>300800011</v>
+        <v>68</v>
+      </c>
+      <c r="D43" s="11">
+        <v>30080001</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="J43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="9">
+        <v>80020008</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" s="7" customFormat="1" spans="2:16">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="B44" s="9">
+        <v>300800011</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="9">
+        <v>300800011</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -2803,39 +2827,20 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" s="7" customFormat="1" spans="1:16">
-      <c r="A45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="12">
-        <v>900200010</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="12">
-        <v>30020001</v>
-      </c>
+    <row r="45" s="7" customFormat="1" spans="2:16">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K45" s="9">
-        <v>40031</v>
-      </c>
-      <c r="L45" s="9">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="9">
-        <v>0</v>
-      </c>
-      <c r="N45" s="9">
-        <v>0</v>
-      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
@@ -2844,13 +2849,13 @@
         <v>15</v>
       </c>
       <c r="B46" s="12">
-        <v>900400010</v>
+        <v>900200010</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D46" s="12">
-        <v>30040001</v>
+        <v>30020001</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -2858,97 +2863,106 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" s="9">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="K46" s="7">
+        <v>8</v>
       </c>
       <c r="L46" s="9">
+        <v>40031</v>
+      </c>
+      <c r="M46" s="9">
         <v>15000</v>
-      </c>
-      <c r="M46" s="9">
-        <v>0</v>
       </c>
       <c r="N46" s="9">
         <v>0</v>
       </c>
+      <c r="O46" s="9">
+        <v>0</v>
+      </c>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" s="7" customFormat="1" spans="2:16">
-      <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="12"/>
+    <row r="47" s="7" customFormat="1" spans="1:16">
+      <c r="A47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="12">
+        <v>900400010</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="12">
+        <v>30040001</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
+      <c r="J47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" s="9">
+        <v>3</v>
+      </c>
+      <c r="L47" s="9">
+        <v>15000</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" s="7" customFormat="1" spans="1:21">
-      <c r="A48" s="10" t="s">
+    <row r="48" s="7" customFormat="1" spans="2:16">
+      <c r="B48" s="12"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:21">
+      <c r="A49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-    </row>
-    <row r="49" s="7" customFormat="1" spans="2:16">
-      <c r="B49" s="9">
-        <v>400001010</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="9">
-        <v>40000101</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <v>10000</v>
-      </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
     </row>
     <row r="50" s="7" customFormat="1" spans="2:16">
       <c r="B50" s="9">
-        <v>400001011</v>
+        <v>400001010</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>74</v>
@@ -2962,10 +2976,14 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>10000</v>
+      </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
@@ -2973,13 +2991,13 @@
     </row>
     <row r="51" s="7" customFormat="1" spans="2:16">
       <c r="B51" s="9">
-        <v>400100010</v>
+        <v>400001011</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="9">
-        <v>40010001</v>
+        <v>40000101</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2987,7 +3005,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -2998,72 +3016,80 @@
     </row>
     <row r="52" s="7" customFormat="1" spans="2:16">
       <c r="B52" s="9">
-        <v>400200010</v>
+        <v>400100010</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="9">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K52" s="9">
-        <v>40020001</v>
-      </c>
-      <c r="L52" s="9">
-        <v>0</v>
-      </c>
-      <c r="M52" s="9">
-        <v>10000</v>
-      </c>
-      <c r="N52" s="9">
-        <v>0</v>
-      </c>
+      <c r="J52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
     <row r="53" s="7" customFormat="1" spans="2:16">
       <c r="B53" s="9">
-        <v>400200011</v>
+        <v>400200010</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="9">
-        <v>400200011</v>
+        <v>40020001</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
+      <c r="J53" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="9">
+        <v>40020001</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
     <row r="54" s="7" customFormat="1" spans="2:16">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="B54" s="9">
+        <v>400200011</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="9">
+        <v>400200011</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="J54" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -3071,85 +3097,72 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" s="7" customFormat="1" spans="1:21">
-      <c r="A55" s="10" t="s">
+    <row r="55" s="7" customFormat="1" spans="2:16">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" s="7" customFormat="1" spans="1:21">
+      <c r="A56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-    </row>
-    <row r="56" s="7" customFormat="1" spans="2:16">
-      <c r="B56" s="9">
-        <v>500100010</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="9">
-        <v>50010001</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9">
-        <v>70000001</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" s="9">
-        <v>1</v>
-      </c>
-      <c r="L56" s="9">
-        <v>100000</v>
-      </c>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
     </row>
     <row r="57" s="7" customFormat="1" spans="2:16">
       <c r="B57" s="9">
-        <v>500200010</v>
+        <v>500100010</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="9">
-        <v>50020001</v>
+        <v>50010001</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K57" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" s="9">
         <v>100000</v>
@@ -3160,29 +3173,29 @@
     </row>
     <row r="58" s="7" customFormat="1" spans="2:16">
       <c r="B58" s="9">
-        <v>500300010</v>
+        <v>500200010</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D58" s="9">
-        <v>50030001</v>
+        <v>50020001</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K58" s="9">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="L58" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
@@ -3190,26 +3203,26 @@
     </row>
     <row r="59" s="7" customFormat="1" spans="2:16">
       <c r="B59" s="9">
-        <v>500400010</v>
+        <v>500300010</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="9">
-        <v>50040001</v>
+        <v>50030001</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="K59" s="9">
-        <v>10033</v>
+        <v>501</v>
       </c>
       <c r="L59" s="9">
         <v>10000</v>
@@ -3220,13 +3233,13 @@
     </row>
     <row r="60" s="7" customFormat="1" spans="2:16">
       <c r="B60" s="9">
-        <v>500500010</v>
+        <v>500400010</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="9">
-        <v>50050001</v>
+        <v>50040001</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -3239,7 +3252,7 @@
         <v>29</v>
       </c>
       <c r="K60" s="9">
-        <v>10073</v>
+        <v>10033</v>
       </c>
       <c r="L60" s="9">
         <v>10000</v>
@@ -3247,6 +3260,36 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
+    </row>
+    <row r="61" s="7" customFormat="1" spans="2:16">
+      <c r="B61" s="9">
+        <v>500500010</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="9">
+        <v>50050001</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9">
+        <v>70000002</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="9">
+        <v>10073</v>
+      </c>
+      <c r="L61" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3270,8 +3313,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -3316,47 +3359,47 @@
         <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3364,13 +3407,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3378,56 +3421,56 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3435,99 +3478,102 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3535,30 +3581,30 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3566,89 +3612,89 @@
         <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
